--- a/00-doc/src/00_todo/00_todo.xlsx
+++ b/00-doc/src/00_todo/00_todo.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="208">
   <si>
     <t>month goals：
 1、oral practise everyday 
@@ -208,6 +208,10 @@
   </si>
   <si>
     <t>1、stare at stocks</t>
+  </si>
+  <si>
+    <t>1、stare at stocks
+2、waste in YouTube policy</t>
   </si>
   <si>
     <t>month goals：
@@ -4114,8 +4118,8 @@
   <sheetPr/>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -4374,124 +4378,220 @@
       </c>
       <c r="F14" s="43"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" ht="84" spans="1:6">
       <c r="A15" s="20">
         <v>45609</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
+      <c r="B15" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>20</v>
+      </c>
       <c r="F15" s="43"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" ht="84" spans="1:6">
       <c r="A16" s="20">
         <v>45610</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
+      <c r="B16" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>20</v>
+      </c>
       <c r="F16" s="43"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" ht="84" spans="1:6">
       <c r="A17" s="20">
         <v>45611</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
+      <c r="B17" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>20</v>
+      </c>
       <c r="F17" s="41"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" ht="84" spans="1:6">
       <c r="A18" s="9">
         <v>45612</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
+      <c r="B18" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>20</v>
+      </c>
       <c r="F18" s="41"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" ht="84" spans="1:6">
       <c r="A19" s="9">
         <v>45613</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
+      <c r="B19" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>20</v>
+      </c>
       <c r="F19" s="41"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" ht="84" spans="1:6">
       <c r="A20" s="20">
         <v>45614</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
+      <c r="B20" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>20</v>
+      </c>
       <c r="F20" s="41"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" ht="84" spans="1:6">
       <c r="A21" s="20">
         <v>45615</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
+      <c r="B21" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>20</v>
+      </c>
       <c r="F21" s="43"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" ht="84" spans="1:6">
       <c r="A22" s="20">
         <v>45616</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
+      <c r="B22" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>20</v>
+      </c>
       <c r="F22" s="43"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" ht="84" spans="1:6">
       <c r="A23" s="20">
         <v>45617</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
+      <c r="B23" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>20</v>
+      </c>
       <c r="F23" s="43"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" ht="84" spans="1:6">
       <c r="A24" s="20">
         <v>45618</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
+      <c r="B24" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>20</v>
+      </c>
       <c r="F24" s="43"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" ht="84" spans="1:6">
       <c r="A25" s="9">
         <v>45619</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
+      <c r="B25" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>21</v>
+      </c>
       <c r="F25" s="43"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" ht="84" spans="1:6">
       <c r="A26" s="9">
         <v>45620</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
+      <c r="B26" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>21</v>
+      </c>
       <c r="F26" s="43"/>
     </row>
     <row r="27" spans="1:6">
@@ -4641,7 +4741,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -4674,16 +4774,16 @@
         <v>45566</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -4692,19 +4792,19 @@
         <v>45567</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" ht="70" spans="1:6">
@@ -4715,13 +4815,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -4733,13 +4833,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6" s="8"/>
     </row>
@@ -4751,13 +4851,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -4769,13 +4869,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -4787,10 +4887,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="8"/>
@@ -4803,10 +4903,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="8"/>
@@ -4819,10 +4919,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="8"/>
@@ -4835,10 +4935,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="8"/>
@@ -4851,13 +4951,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -4869,13 +4969,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -4887,13 +4987,13 @@
         <v>7</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -4905,13 +5005,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -4923,10 +5023,10 @@
         <v>7</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>16</v>
@@ -4941,13 +5041,13 @@
         <v>7</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -4959,13 +5059,13 @@
         <v>7</v>
       </c>
       <c r="C19" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="33" t="s">
-        <v>63</v>
-      </c>
       <c r="E19" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -4977,13 +5077,13 @@
         <v>7</v>
       </c>
       <c r="C20" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="33" t="s">
-        <v>63</v>
-      </c>
       <c r="E20" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -4995,13 +5095,13 @@
         <v>7</v>
       </c>
       <c r="C21" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="33" t="s">
-        <v>63</v>
-      </c>
       <c r="E21" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -5013,13 +5113,13 @@
         <v>7</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -5031,13 +5131,13 @@
         <v>7</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -5049,13 +5149,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -5067,13 +5167,13 @@
         <v>7</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -5085,13 +5185,13 @@
         <v>7</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -5103,13 +5203,13 @@
         <v>7</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -5121,13 +5221,13 @@
         <v>7</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -5139,13 +5239,13 @@
         <v>7</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -5157,13 +5257,13 @@
         <v>7</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -5175,13 +5275,13 @@
         <v>7</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -5193,13 +5293,13 @@
         <v>7</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -5211,13 +5311,13 @@
         <v>7</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F33" s="14"/>
     </row>
@@ -5229,19 +5329,19 @@
         <v>7</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -5328,7 +5428,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -5364,10 +5464,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>10</v>
@@ -5382,10 +5482,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>10</v>
@@ -5400,13 +5500,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>78</v>
-      </c>
       <c r="E5" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -5418,16 +5518,16 @@
         <v>7</v>
       </c>
       <c r="C6" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>79</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>78</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" ht="56" spans="1:6">
@@ -5438,16 +5538,16 @@
         <v>7</v>
       </c>
       <c r="C7" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="35" t="s">
         <v>79</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>78</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" ht="56" spans="1:6">
@@ -5458,16 +5558,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D8" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="9" ht="70" spans="1:6">
@@ -5475,19 +5575,19 @@
         <v>45542</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" ht="70" spans="1:6">
@@ -5498,16 +5598,16 @@
         <v>7</v>
       </c>
       <c r="C10" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="11" ht="56" spans="1:6">
@@ -5518,16 +5618,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" ht="56" spans="1:6">
@@ -5538,16 +5638,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" ht="56" spans="1:6">
@@ -5558,16 +5658,16 @@
         <v>7</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" ht="56" spans="1:6">
@@ -5578,16 +5678,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="15" ht="56" spans="1:6">
@@ -5595,16 +5695,16 @@
         <v>45548</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -5616,13 +5716,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -5634,13 +5734,13 @@
         <v>7</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -5652,13 +5752,13 @@
         <v>7</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -5670,10 +5770,10 @@
         <v>7</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>10</v>
@@ -5685,16 +5785,16 @@
         <v>45553</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -5703,16 +5803,16 @@
         <v>45554</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -5721,16 +5821,16 @@
         <v>45555</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -5739,16 +5839,16 @@
         <v>45556</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -5760,13 +5860,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -5778,10 +5878,10 @@
         <v>7</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>10</v>
@@ -5796,10 +5896,10 @@
         <v>7</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>10</v>
@@ -5814,10 +5914,10 @@
         <v>7</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>10</v>
@@ -5832,13 +5932,13 @@
         <v>7</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -5850,10 +5950,10 @@
         <v>7</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>10</v>
@@ -5868,13 +5968,13 @@
         <v>7</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -5886,13 +5986,13 @@
         <v>7</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -5904,10 +6004,10 @@
         <v>7</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>10</v>
@@ -6001,7 +6101,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -6043,10 +6143,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6063,10 +6163,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>137</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:6">
@@ -6083,10 +6183,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6103,10 +6203,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6124,7 +6224,7 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6142,7 +6242,7 @@
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6159,10 +6259,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6180,7 +6280,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6198,7 +6298,7 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:6">
@@ -6215,10 +6315,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" ht="42" spans="1:6">
@@ -6235,10 +6335,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" ht="42" spans="1:6">
@@ -6255,10 +6355,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" ht="42" spans="1:6">
@@ -6275,10 +6375,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" ht="42" spans="1:6">
@@ -6298,7 +6398,7 @@
         <v>10</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" ht="42" spans="1:6">
@@ -6318,7 +6418,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -6338,7 +6438,7 @@
         <v>10</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" ht="42" spans="1:6">
@@ -6355,10 +6455,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="20" ht="42" spans="1:6">
@@ -6375,10 +6475,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" ht="42" spans="1:6">
@@ -6395,10 +6495,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" ht="42" spans="1:6">
@@ -6415,10 +6515,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" ht="42" spans="1:6">
@@ -6438,7 +6538,7 @@
         <v>10</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" ht="42" spans="1:6">
@@ -6458,7 +6558,7 @@
         <v>10</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" ht="42" spans="1:6">
@@ -6478,7 +6578,7 @@
         <v>10</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" ht="42" spans="1:6">
@@ -6495,10 +6595,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="27" ht="42" spans="1:6">
@@ -6515,7 +6615,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -6533,7 +6633,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -6551,7 +6651,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -6569,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -6587,7 +6687,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -6605,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -6623,13 +6723,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -6718,7 +6818,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -6730,22 +6830,22 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>5</v>
@@ -6862,7 +6962,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -6886,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H8" s="8"/>
     </row>
@@ -6954,7 +7054,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H11" s="10"/>
     </row>
@@ -7000,7 +7100,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H13" s="8"/>
     </row>
@@ -7024,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H14" s="8"/>
     </row>
@@ -7048,7 +7148,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H15" s="8"/>
     </row>
@@ -7072,7 +7172,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H16" s="8"/>
     </row>
@@ -7118,7 +7218,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -7186,7 +7286,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H21" s="8"/>
     </row>
@@ -7210,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H22" s="8"/>
     </row>
@@ -7234,7 +7334,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H23" s="8"/>
     </row>
@@ -7279,7 +7379,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H25" s="8"/>
     </row>
@@ -7303,7 +7403,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H26" s="8"/>
     </row>
@@ -7327,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H27" s="8"/>
     </row>
@@ -7348,7 +7448,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -7370,10 +7470,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H29" s="8"/>
     </row>
@@ -7394,7 +7494,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -7477,7 +7577,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -7572,7 +7672,7 @@
   <sheetData>
     <row r="1" ht="48" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7582,16 +7682,16 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>5</v>
@@ -7685,15 +7785,15 @@
         <v>45452</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -7701,10 +7801,10 @@
         <v>45453</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -7715,14 +7815,14 @@
         <v>45454</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -7731,14 +7831,14 @@
         <v>45455</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -7747,14 +7847,14 @@
         <v>45456</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -7763,14 +7863,14 @@
         <v>45457</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -7779,17 +7879,17 @@
         <v>45458</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -7797,14 +7897,14 @@
         <v>45459</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -7813,14 +7913,14 @@
         <v>45460</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -7829,10 +7929,10 @@
         <v>45461</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -7843,14 +7943,14 @@
         <v>45462</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -7859,14 +7959,14 @@
         <v>45463</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -7875,14 +7975,14 @@
         <v>45464</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -7891,16 +7991,16 @@
         <v>45465</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D24" s="11">
         <v>2</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -7921,14 +8021,14 @@
         <v>45467</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -7937,10 +8037,10 @@
         <v>45468</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D27" s="8">
         <v>2</v>
@@ -7953,10 +8053,10 @@
         <v>45469</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
@@ -7969,10 +8069,10 @@
         <v>45470</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
@@ -7985,10 +8085,10 @@
         <v>45471</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -8002,11 +8102,11 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -8018,19 +8118,19 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D32" s="8">
         <v>1</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F32" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>

--- a/00-doc/src/00_todo/00_todo.xlsx
+++ b/00-doc/src/00_todo/00_todo.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="210">
   <si>
     <t>month goals：
 1、oral practise everyday 
@@ -212,6 +212,38 @@
   <si>
     <t>1、stare at stocks
 2、waste in YouTube policy</t>
+  </si>
+  <si>
+    <t>2024/11/25（ask）</t>
+  </si>
+  <si>
+    <r>
+      <t>1、300 words</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2、oral practise 
+3、1 listen test
+4、0.5h attentive listen
+5、1h tech listen
+</t>
+    </r>
   </si>
   <si>
     <t>month goals：
@@ -4118,13 +4150,13 @@
   <sheetPr/>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.7272727272727" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.2727272727273" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.8181818181818" customWidth="1"/>
     <col min="3" max="3" width="29.9090909090909" style="23" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
@@ -4594,24 +4626,40 @@
       </c>
       <c r="F26" s="43"/>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="20">
-        <v>45621</v>
-      </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
+    <row r="27" ht="84" spans="1:6">
+      <c r="A27" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>21</v>
+      </c>
       <c r="F27" s="43"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" ht="84" spans="1:6">
       <c r="A28" s="20">
         <v>45622</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
+      <c r="B28" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>21</v>
+      </c>
       <c r="F28" s="43"/>
     </row>
     <row r="29" spans="1:6">
@@ -4741,7 +4789,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -4774,16 +4822,16 @@
         <v>45566</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -4792,19 +4840,19 @@
         <v>45567</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" ht="70" spans="1:6">
@@ -4815,13 +4863,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -4833,13 +4881,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F6" s="8"/>
     </row>
@@ -4851,13 +4899,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -4869,13 +4917,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>39</v>
-      </c>
       <c r="E8" s="33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -4887,10 +4935,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="8"/>
@@ -4903,10 +4951,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="8"/>
@@ -4919,10 +4967,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="8"/>
@@ -4935,10 +4983,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="8"/>
@@ -4951,13 +4999,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -4969,13 +5017,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -4987,13 +5035,13 @@
         <v>7</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -5005,13 +5053,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -5023,10 +5071,10 @@
         <v>7</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>16</v>
@@ -5041,13 +5089,13 @@
         <v>7</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -5059,13 +5107,13 @@
         <v>7</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -5077,13 +5125,13 @@
         <v>7</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -5095,13 +5143,13 @@
         <v>7</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -5113,13 +5161,13 @@
         <v>7</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -5131,13 +5179,13 @@
         <v>7</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -5149,13 +5197,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -5167,13 +5215,13 @@
         <v>7</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -5185,13 +5233,13 @@
         <v>7</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -5203,13 +5251,13 @@
         <v>7</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -5221,13 +5269,13 @@
         <v>7</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -5239,13 +5287,13 @@
         <v>7</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -5257,13 +5305,13 @@
         <v>7</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -5275,13 +5323,13 @@
         <v>7</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -5293,13 +5341,13 @@
         <v>7</v>
       </c>
       <c r="C32" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -5311,13 +5359,13 @@
         <v>7</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F33" s="14"/>
     </row>
@@ -5329,19 +5377,19 @@
         <v>7</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -5428,7 +5476,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -5464,10 +5512,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>10</v>
@@ -5482,10 +5530,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>10</v>
@@ -5500,13 +5548,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -5518,16 +5566,16 @@
         <v>7</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" ht="56" spans="1:6">
@@ -5538,16 +5586,16 @@
         <v>7</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" ht="56" spans="1:6">
@@ -5558,16 +5606,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9" ht="70" spans="1:6">
@@ -5575,19 +5623,19 @@
         <v>45542</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" ht="70" spans="1:6">
@@ -5598,16 +5646,16 @@
         <v>7</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D10" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="11" ht="56" spans="1:6">
@@ -5618,16 +5666,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" ht="56" spans="1:6">
@@ -5638,16 +5686,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" ht="56" spans="1:6">
@@ -5658,16 +5706,16 @@
         <v>7</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" ht="56" spans="1:6">
@@ -5678,16 +5726,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D14" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" ht="56" spans="1:6">
@@ -5695,16 +5743,16 @@
         <v>45548</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -5716,13 +5764,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -5734,13 +5782,13 @@
         <v>7</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -5752,13 +5800,13 @@
         <v>7</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -5770,10 +5818,10 @@
         <v>7</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>10</v>
@@ -5785,16 +5833,16 @@
         <v>45553</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -5803,16 +5851,16 @@
         <v>45554</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -5821,16 +5869,16 @@
         <v>45555</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -5839,16 +5887,16 @@
         <v>45556</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -5860,13 +5908,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="33" t="s">
-        <v>117</v>
-      </c>
       <c r="E24" s="11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -5878,10 +5926,10 @@
         <v>7</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>10</v>
@@ -5896,10 +5944,10 @@
         <v>7</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>10</v>
@@ -5914,10 +5962,10 @@
         <v>7</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>10</v>
@@ -5932,13 +5980,13 @@
         <v>7</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -5950,10 +5998,10 @@
         <v>7</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>10</v>
@@ -5968,13 +6016,13 @@
         <v>7</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -5986,13 +6034,13 @@
         <v>7</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -6004,10 +6052,10 @@
         <v>7</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>10</v>
@@ -6101,7 +6149,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -6143,10 +6191,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6163,10 +6211,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:6">
@@ -6183,10 +6231,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6203,10 +6251,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6224,7 +6272,7 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6242,7 +6290,7 @@
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6259,10 +6307,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6280,7 +6328,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6298,7 +6346,7 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:6">
@@ -6315,10 +6363,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="13" ht="42" spans="1:6">
@@ -6335,10 +6383,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" ht="42" spans="1:6">
@@ -6355,10 +6403,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" ht="42" spans="1:6">
@@ -6375,10 +6423,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" ht="42" spans="1:6">
@@ -6398,7 +6446,7 @@
         <v>10</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" ht="42" spans="1:6">
@@ -6418,7 +6466,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -6438,7 +6486,7 @@
         <v>10</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" ht="42" spans="1:6">
@@ -6455,10 +6503,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" ht="42" spans="1:6">
@@ -6475,10 +6523,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>150</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="21" ht="42" spans="1:6">
@@ -6495,10 +6543,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" ht="42" spans="1:6">
@@ -6515,10 +6563,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" ht="42" spans="1:6">
@@ -6538,7 +6586,7 @@
         <v>10</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" ht="42" spans="1:6">
@@ -6558,7 +6606,7 @@
         <v>10</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" ht="42" spans="1:6">
@@ -6578,7 +6626,7 @@
         <v>10</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" ht="42" spans="1:6">
@@ -6595,10 +6643,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" ht="42" spans="1:6">
@@ -6615,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -6633,7 +6681,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -6651,7 +6699,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -6669,7 +6717,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -6687,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -6705,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -6723,13 +6771,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -6818,7 +6866,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -6830,22 +6878,22 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>5</v>
@@ -6962,7 +7010,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -6986,7 +7034,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H8" s="8"/>
     </row>
@@ -7054,7 +7102,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H11" s="10"/>
     </row>
@@ -7100,7 +7148,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H13" s="8"/>
     </row>
@@ -7124,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H14" s="8"/>
     </row>
@@ -7148,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H15" s="8"/>
     </row>
@@ -7172,7 +7220,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H16" s="8"/>
     </row>
@@ -7218,7 +7266,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -7286,7 +7334,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H21" s="8"/>
     </row>
@@ -7310,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H22" s="8"/>
     </row>
@@ -7334,7 +7382,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H23" s="8"/>
     </row>
@@ -7379,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H25" s="8"/>
     </row>
@@ -7403,7 +7451,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H26" s="8"/>
     </row>
@@ -7427,7 +7475,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H27" s="8"/>
     </row>
@@ -7448,7 +7496,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -7470,10 +7518,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H29" s="8"/>
     </row>
@@ -7494,7 +7542,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -7577,7 +7625,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -7672,7 +7720,7 @@
   <sheetData>
     <row r="1" ht="48" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7682,16 +7730,16 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>5</v>
@@ -7785,15 +7833,15 @@
         <v>45452</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -7801,10 +7849,10 @@
         <v>45453</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -7815,14 +7863,14 @@
         <v>45454</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -7831,14 +7879,14 @@
         <v>45455</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -7847,14 +7895,14 @@
         <v>45456</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -7863,14 +7911,14 @@
         <v>45457</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -7879,17 +7927,17 @@
         <v>45458</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -7897,14 +7945,14 @@
         <v>45459</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -7913,14 +7961,14 @@
         <v>45460</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -7929,10 +7977,10 @@
         <v>45461</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -7943,14 +7991,14 @@
         <v>45462</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -7959,14 +8007,14 @@
         <v>45463</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -7975,14 +8023,14 @@
         <v>45464</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -7991,16 +8039,16 @@
         <v>45465</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D24" s="11">
         <v>2</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -8021,14 +8069,14 @@
         <v>45467</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -8037,10 +8085,10 @@
         <v>45468</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D27" s="8">
         <v>2</v>
@@ -8053,10 +8101,10 @@
         <v>45469</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
@@ -8069,10 +8117,10 @@
         <v>45470</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
@@ -8085,10 +8133,10 @@
         <v>45471</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -8102,11 +8150,11 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -8118,19 +8166,19 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D32" s="8">
         <v>1</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F32" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>

--- a/00-doc/src/00_todo/00_todo.xlsx
+++ b/00-doc/src/00_todo/00_todo.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="212">
   <si>
     <t>month goals：
 1、oral practise everyday 
@@ -218,6 +218,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1、300 words</t>
     </r>
     <r>
@@ -244,6 +250,29 @@
 5、1h tech listen
 </t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1、300 words
+2、oral practise </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3、1 listen test
+4、0.5h attentive listen
+5、1h tech listen
+</t>
+    </r>
+  </si>
+  <si>
+    <t>1、stare at stocks
+2、scroll YouTube</t>
   </si>
   <si>
     <t>month goals：
@@ -4150,8 +4179,8 @@
   <sheetPr/>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -4662,24 +4691,40 @@
       </c>
       <c r="F28" s="43"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" ht="84" spans="1:6">
       <c r="A29" s="20">
         <v>45623</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
+      <c r="B29" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>25</v>
+      </c>
       <c r="F29" s="43"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" ht="84" spans="1:6">
       <c r="A30" s="20">
         <v>45624</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
+      <c r="B30" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>25</v>
+      </c>
       <c r="F30" s="43"/>
     </row>
     <row r="31" spans="1:6">
@@ -4789,7 +4834,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -4822,16 +4867,16 @@
         <v>45566</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -4840,19 +4885,19 @@
         <v>45567</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" ht="70" spans="1:6">
@@ -4863,13 +4908,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -4881,13 +4926,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F6" s="8"/>
     </row>
@@ -4899,13 +4944,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -4917,13 +4962,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>41</v>
-      </c>
       <c r="E8" s="33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -4935,10 +4980,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="8"/>
@@ -4951,10 +4996,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="8"/>
@@ -4967,10 +5012,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="8"/>
@@ -4983,10 +5028,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="8"/>
@@ -4999,13 +5044,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -5017,13 +5062,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -5035,13 +5080,13 @@
         <v>7</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -5053,13 +5098,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -5071,10 +5116,10 @@
         <v>7</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>16</v>
@@ -5089,13 +5134,13 @@
         <v>7</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -5107,13 +5152,13 @@
         <v>7</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -5125,13 +5170,13 @@
         <v>7</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -5143,13 +5188,13 @@
         <v>7</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -5161,13 +5206,13 @@
         <v>7</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -5179,13 +5224,13 @@
         <v>7</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -5197,13 +5242,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -5215,13 +5260,13 @@
         <v>7</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -5233,13 +5278,13 @@
         <v>7</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -5251,13 +5296,13 @@
         <v>7</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -5269,13 +5314,13 @@
         <v>7</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -5287,13 +5332,13 @@
         <v>7</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -5305,13 +5350,13 @@
         <v>7</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -5323,13 +5368,13 @@
         <v>7</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -5341,13 +5386,13 @@
         <v>7</v>
       </c>
       <c r="C32" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -5359,13 +5404,13 @@
         <v>7</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F33" s="14"/>
     </row>
@@ -5377,19 +5422,19 @@
         <v>7</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -5476,7 +5521,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -5512,10 +5557,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>10</v>
@@ -5530,10 +5575,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>10</v>
@@ -5548,13 +5593,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -5566,16 +5611,16 @@
         <v>7</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" ht="56" spans="1:6">
@@ -5586,16 +5631,16 @@
         <v>7</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" ht="56" spans="1:6">
@@ -5606,16 +5651,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="9" ht="70" spans="1:6">
@@ -5623,19 +5668,19 @@
         <v>45542</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" ht="70" spans="1:6">
@@ -5646,16 +5691,16 @@
         <v>7</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D10" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="11" ht="56" spans="1:6">
@@ -5666,16 +5711,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" ht="56" spans="1:6">
@@ -5686,16 +5731,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" ht="56" spans="1:6">
@@ -5706,16 +5751,16 @@
         <v>7</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" ht="56" spans="1:6">
@@ -5726,16 +5771,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D14" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" ht="56" spans="1:6">
@@ -5743,16 +5788,16 @@
         <v>45548</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -5764,13 +5809,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -5782,13 +5827,13 @@
         <v>7</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -5800,13 +5845,13 @@
         <v>7</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -5818,10 +5863,10 @@
         <v>7</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>10</v>
@@ -5833,16 +5878,16 @@
         <v>45553</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -5851,16 +5896,16 @@
         <v>45554</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -5869,16 +5914,16 @@
         <v>45555</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -5887,16 +5932,16 @@
         <v>45556</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -5908,13 +5953,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="D24" s="33" t="s">
-        <v>119</v>
-      </c>
       <c r="E24" s="11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -5926,10 +5971,10 @@
         <v>7</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>10</v>
@@ -5944,10 +5989,10 @@
         <v>7</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>10</v>
@@ -5962,10 +6007,10 @@
         <v>7</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>10</v>
@@ -5980,13 +6025,13 @@
         <v>7</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -5998,10 +6043,10 @@
         <v>7</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>10</v>
@@ -6016,13 +6061,13 @@
         <v>7</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -6034,13 +6079,13 @@
         <v>7</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -6052,10 +6097,10 @@
         <v>7</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>10</v>
@@ -6149,7 +6194,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -6191,10 +6236,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6211,10 +6256,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:6">
@@ -6231,10 +6276,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6251,10 +6296,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6272,7 +6317,7 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6290,7 +6335,7 @@
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6307,10 +6352,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6328,7 +6373,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6346,7 +6391,7 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:6">
@@ -6363,10 +6408,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="13" ht="42" spans="1:6">
@@ -6383,10 +6428,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" ht="42" spans="1:6">
@@ -6403,10 +6448,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" ht="42" spans="1:6">
@@ -6423,10 +6468,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" ht="42" spans="1:6">
@@ -6446,7 +6491,7 @@
         <v>10</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" ht="42" spans="1:6">
@@ -6466,7 +6511,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -6486,7 +6531,7 @@
         <v>10</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" ht="42" spans="1:6">
@@ -6503,10 +6548,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" ht="42" spans="1:6">
@@ -6523,10 +6568,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" ht="42" spans="1:6">
@@ -6543,10 +6588,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" ht="42" spans="1:6">
@@ -6563,10 +6608,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" ht="42" spans="1:6">
@@ -6586,7 +6631,7 @@
         <v>10</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" ht="42" spans="1:6">
@@ -6606,7 +6651,7 @@
         <v>10</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" ht="42" spans="1:6">
@@ -6626,7 +6671,7 @@
         <v>10</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" ht="42" spans="1:6">
@@ -6643,10 +6688,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" ht="42" spans="1:6">
@@ -6663,7 +6708,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -6681,7 +6726,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -6699,7 +6744,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -6717,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -6735,7 +6780,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -6753,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -6771,13 +6816,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -6866,7 +6911,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -6878,22 +6923,22 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>5</v>
@@ -7010,7 +7055,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -7034,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H8" s="8"/>
     </row>
@@ -7102,7 +7147,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H11" s="10"/>
     </row>
@@ -7148,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H13" s="8"/>
     </row>
@@ -7172,7 +7217,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H14" s="8"/>
     </row>
@@ -7196,7 +7241,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H15" s="8"/>
     </row>
@@ -7220,7 +7265,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H16" s="8"/>
     </row>
@@ -7266,7 +7311,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -7334,7 +7379,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H21" s="8"/>
     </row>
@@ -7358,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H22" s="8"/>
     </row>
@@ -7382,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H23" s="8"/>
     </row>
@@ -7427,7 +7472,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H25" s="8"/>
     </row>
@@ -7451,7 +7496,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H26" s="8"/>
     </row>
@@ -7475,7 +7520,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H27" s="8"/>
     </row>
@@ -7496,7 +7541,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -7518,10 +7563,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H29" s="8"/>
     </row>
@@ -7542,7 +7587,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -7625,7 +7670,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -7720,7 +7765,7 @@
   <sheetData>
     <row r="1" ht="48" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7730,16 +7775,16 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>5</v>
@@ -7833,15 +7878,15 @@
         <v>45452</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -7849,10 +7894,10 @@
         <v>45453</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -7863,14 +7908,14 @@
         <v>45454</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -7879,14 +7924,14 @@
         <v>45455</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -7895,14 +7940,14 @@
         <v>45456</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -7911,14 +7956,14 @@
         <v>45457</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -7927,17 +7972,17 @@
         <v>45458</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -7945,14 +7990,14 @@
         <v>45459</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -7961,14 +8006,14 @@
         <v>45460</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -7977,10 +8022,10 @@
         <v>45461</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -7991,14 +8036,14 @@
         <v>45462</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -8007,14 +8052,14 @@
         <v>45463</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -8023,14 +8068,14 @@
         <v>45464</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -8039,16 +8084,16 @@
         <v>45465</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D24" s="11">
         <v>2</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -8069,14 +8114,14 @@
         <v>45467</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -8085,10 +8130,10 @@
         <v>45468</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D27" s="8">
         <v>2</v>
@@ -8101,10 +8146,10 @@
         <v>45469</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
@@ -8117,10 +8162,10 @@
         <v>45470</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
@@ -8133,10 +8178,10 @@
         <v>45471</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -8150,11 +8195,11 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -8166,19 +8211,19 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D32" s="8">
         <v>1</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F32" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>

--- a/00-doc/src/00_todo/00_todo.xlsx
+++ b/00-doc/src/00_todo/00_todo.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8080"/>
+    <workbookView windowWidth="18350" windowHeight="8080"/>
   </bookViews>
   <sheets>
-    <sheet name="2024-11" sheetId="6" r:id="rId1"/>
-    <sheet name="2024-10" sheetId="5" r:id="rId2"/>
-    <sheet name="2024-09" sheetId="4" r:id="rId3"/>
-    <sheet name="2024-08" sheetId="3" r:id="rId4"/>
-    <sheet name="2024-07" sheetId="2" r:id="rId5"/>
-    <sheet name="2024-06" sheetId="1" r:id="rId6"/>
+    <sheet name="2024-12" sheetId="7" r:id="rId1"/>
+    <sheet name="2024-11" sheetId="6" r:id="rId2"/>
+    <sheet name="2024-10" sheetId="5" r:id="rId3"/>
+    <sheet name="2024-09" sheetId="4" r:id="rId4"/>
+    <sheet name="2024-08" sheetId="3" r:id="rId5"/>
+    <sheet name="2024-07" sheetId="2" r:id="rId6"/>
+    <sheet name="2024-06" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,35 +33,220 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="234">
+  <si>
+    <t>month goals：
+1、oral、listen everyday
+2、finish frontend tutorial、resume
+3、5 algorithm &amp;&amp; maintain github everyday &amp;&amp; post resume everyday</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dt</t>
+  </si>
+  <si>
+    <t>timetable</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>tech &amp; algorithm</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>todo</t>
+  </si>
+  <si>
+    <t>1、6：00 get up
+2、23：00 sleep
+3、workout</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1、300 words
+2、oral practise </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3、1 listen test
+5、1h tech listen
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1、5 algorithm 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2、maintain github
+3、finish resume -100%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>1、
+2、</t>
+  </si>
+  <si>
+    <t>1、proficient in idea
+2、java thread pool usage
+3、review git
+4、jobwizard write cv automatic</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1、5 algorithm 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2、maintain github</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>1、start post resume</t>
+  </si>
+  <si>
+    <t>1、countless rejection</t>
+  </si>
+  <si>
+    <t>1、apply Hong Kong deposit card
+2、tech：Scrum</t>
+  </si>
+  <si>
+    <t>1、step into frontend
+2、</t>
+  </si>
+  <si>
+    <t>1、html4+css2 --25 -》55</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1、300 words
+2、oral practise </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3、1 listen test
+</t>
+    </r>
+  </si>
+  <si>
+    <t>1、html4+css2 --50 -》77</t>
+  </si>
+  <si>
+    <t>1、里斯本丸 documentary</t>
+  </si>
+  <si>
+    <t>1、html4+css2 --100%
+2、js：0-49</t>
+  </si>
+  <si>
+    <t>1、finish js</t>
+  </si>
+  <si>
+    <t>1、translate frontend resume &amp; try post</t>
+  </si>
+  <si>
+    <t>1、nodejs
+2、es6
+3、ajax
+4、promise
+5、axios
+6、typescript
+7、react
+8、webpack</t>
+  </si>
+  <si>
+    <t>1、2 react project
+2、vue2 + vue3
+3、my resume</t>
+  </si>
+  <si>
+    <t>#################################################################################
+1、5k everyday，then do extra thing。100k every month -》10 year 30m commitment
+2、every second consist of life，money can be back time not
+3、be positive，be concentrated dont feel time、be efficient
+#################################################################################</t>
+  </si>
   <si>
     <t>month goals：
 1、oral practise everyday 
 2、interview English
 3、random 5 code leetcode everyday, finish techs and 5 project</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dt</t>
-  </si>
-  <si>
-    <t>timetable</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>tech &amp; algorithm</t>
-  </si>
-  <si>
-    <t>remark</t>
-  </si>
-  <si>
-    <t>todo</t>
-  </si>
-  <si>
-    <t>1、6：00 get up
-2、23：00 sleep
-3、workout</t>
   </si>
   <si>
     <r>
@@ -252,27 +438,78 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1、300 words
-2、oral practise </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-3、1 listen test
-4、0.5h attentive listen
-5、1h tech listen
-</t>
-    </r>
-  </si>
-  <si>
     <t>1、stare at stocks
 2、scroll YouTube</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1、algorithm 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2、maintain github
+3、finish resume -20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1、algorithm 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2、maintain github
+3、finish resume -30%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>progress is very slow、slow，intermittent
+already finish 12</t>
   </si>
   <si>
     <t>month goals：
@@ -3649,8 +3886,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3925,6 +4162,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1130300</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>67945</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6209665" y="14310360"/>
+          <a:ext cx="3931285" cy="2026285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4177,10 +4461,522 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.3636363636364" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="29.9090909090909" style="23" customWidth="1"/>
+    <col min="4" max="4" width="26.7272727272727" customWidth="1"/>
+    <col min="5" max="5" width="40.1818181818182" customWidth="1"/>
+    <col min="6" max="6" width="34.6363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="67" customHeight="1" spans="1:6">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+    </row>
+    <row r="2" ht="50" customHeight="1" spans="1:6">
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="86" customHeight="1" spans="1:6">
+      <c r="A3" s="20">
+        <v>45627</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="70" spans="1:6">
+      <c r="A4" s="20">
+        <v>45628</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="41"/>
+    </row>
+    <row r="5" ht="70" spans="1:6">
+      <c r="A5" s="20">
+        <v>45629</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="70" spans="1:6">
+      <c r="A6" s="20">
+        <v>45630</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="41"/>
+    </row>
+    <row r="7" ht="70" spans="1:6">
+      <c r="A7" s="20">
+        <v>45631</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="43"/>
+    </row>
+    <row r="8" ht="70" spans="1:6">
+      <c r="A8" s="20">
+        <v>45632</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="43"/>
+    </row>
+    <row r="9" ht="56" spans="1:6">
+      <c r="A9" s="9">
+        <v>45633</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" ht="56" spans="1:6">
+      <c r="A10" s="9">
+        <v>45634</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="43"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="20">
+        <v>45635</v>
+      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="43"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="20">
+        <v>45636</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="43"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="20">
+        <v>45637</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="43"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="20">
+        <v>45638</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="43"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="20">
+        <v>45639</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="43"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="9">
+        <v>45640</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="43"/>
+    </row>
+    <row r="17" ht="112" spans="1:6">
+      <c r="A17" s="9">
+        <v>45641</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="41"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="20">
+        <v>45642</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="20">
+        <v>45643</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="20">
+        <v>45644</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="20">
+        <v>45645</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="43"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="20">
+        <v>45646</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="43"/>
+    </row>
+    <row r="23" ht="42" spans="1:6">
+      <c r="A23" s="9">
+        <v>45647</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="43"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="9">
+        <v>45648</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="43"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="20">
+        <v>45649</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="43"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="20">
+        <v>45650</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="43"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="20">
+        <v>45651</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="43"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="20">
+        <v>45652</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="43"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="20">
+        <v>45653</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="43"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="9">
+        <v>45654</v>
+      </c>
+      <c r="B30" s="39"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="43"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="9">
+        <v>45655</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="43"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="20">
+        <v>45656</v>
+      </c>
+      <c r="B32" s="39"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="43"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="20">
+        <v>45657</v>
+      </c>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" customFormat="1" spans="1:4">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+    </row>
+    <row r="37" customFormat="1" spans="1:4">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+    </row>
+    <row r="38" customFormat="1" spans="1:4">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" customFormat="1" spans="1:4">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+    </row>
+    <row r="40" customFormat="1" spans="1:4">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+    </row>
+    <row r="41" customFormat="1" spans="1:4">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+    </row>
+    <row r="42" customFormat="1" spans="1:4">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+    </row>
+    <row r="43" customFormat="1" spans="1:4">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A35:D43"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -4195,7 +4991,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -4231,13 +5027,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F3" s="41"/>
     </row>
@@ -4249,13 +5045,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F4" s="41"/>
     </row>
@@ -4267,13 +5063,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F5" s="41"/>
     </row>
@@ -4285,13 +5081,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F6" s="41"/>
     </row>
@@ -4303,13 +5099,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F7" s="43"/>
     </row>
@@ -4321,13 +5117,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F8" s="43"/>
     </row>
@@ -4339,13 +5135,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F9" s="43"/>
     </row>
@@ -4357,13 +5153,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F10" s="43"/>
     </row>
@@ -4375,13 +5171,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F11" s="43"/>
     </row>
@@ -4393,13 +5189,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F12" s="43"/>
     </row>
@@ -4411,13 +5207,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F13" s="43"/>
     </row>
@@ -4429,13 +5225,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F14" s="43"/>
     </row>
@@ -4447,13 +5243,13 @@
         <v>7</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F15" s="43"/>
     </row>
@@ -4465,13 +5261,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F16" s="43"/>
     </row>
@@ -4483,13 +5279,13 @@
         <v>7</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F17" s="41"/>
     </row>
@@ -4501,13 +5297,13 @@
         <v>7</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F18" s="41"/>
     </row>
@@ -4519,13 +5315,13 @@
         <v>7</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F19" s="41"/>
     </row>
@@ -4537,13 +5333,13 @@
         <v>7</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F20" s="41"/>
     </row>
@@ -4555,13 +5351,13 @@
         <v>7</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F21" s="43"/>
     </row>
@@ -4573,13 +5369,13 @@
         <v>7</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F22" s="43"/>
     </row>
@@ -4591,13 +5387,13 @@
         <v>7</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F23" s="43"/>
     </row>
@@ -4609,13 +5405,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F24" s="43"/>
     </row>
@@ -4627,13 +5423,13 @@
         <v>7</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F25" s="43"/>
     </row>
@@ -4645,31 +5441,31 @@
         <v>7</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F26" s="43"/>
     </row>
     <row r="27" ht="84" spans="1:6">
       <c r="A27" s="9" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B27" s="39" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F27" s="43"/>
     </row>
@@ -4681,13 +5477,13 @@
         <v>7</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F28" s="43"/>
     </row>
@@ -4699,13 +5495,13 @@
         <v>7</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F29" s="43"/>
     </row>
@@ -4717,38 +5513,56 @@
         <v>7</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F30" s="43"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" ht="70" spans="1:6">
       <c r="A31" s="20">
         <v>45625</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
+      <c r="B31" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>10</v>
+      </c>
       <c r="F31" s="43"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" ht="70" spans="1:6">
       <c r="A32" s="9">
         <v>45626</v>
       </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
+      <c r="B32" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>10</v>
+      </c>
       <c r="F32" s="43"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="14"/>
+      <c r="A33" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -4813,7 +5627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F43"/>
@@ -4834,7 +5648,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -4867,16 +5681,16 @@
         <v>45566</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -4885,19 +5699,19 @@
         <v>45567</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" ht="70" spans="1:6">
@@ -4908,13 +5722,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -4926,13 +5740,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F6" s="8"/>
     </row>
@@ -4944,13 +5758,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -4962,13 +5776,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -4980,10 +5794,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="8"/>
@@ -4996,10 +5810,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="8"/>
@@ -5012,10 +5826,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="8"/>
@@ -5028,10 +5842,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="8"/>
@@ -5044,13 +5858,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -5062,13 +5876,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -5080,13 +5894,13 @@
         <v>7</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -5098,13 +5912,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -5116,13 +5930,13 @@
         <v>7</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -5134,13 +5948,13 @@
         <v>7</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -5152,13 +5966,13 @@
         <v>7</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -5170,13 +5984,13 @@
         <v>7</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -5188,13 +6002,13 @@
         <v>7</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -5206,13 +6020,13 @@
         <v>7</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -5224,13 +6038,13 @@
         <v>7</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -5242,13 +6056,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -5260,13 +6074,13 @@
         <v>7</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -5278,13 +6092,13 @@
         <v>7</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -5296,13 +6110,13 @@
         <v>7</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -5314,13 +6128,13 @@
         <v>7</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -5332,13 +6146,13 @@
         <v>7</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -5350,13 +6164,13 @@
         <v>7</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -5368,13 +6182,13 @@
         <v>7</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -5386,13 +6200,13 @@
         <v>7</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -5404,13 +6218,13 @@
         <v>7</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="F33" s="14"/>
     </row>
@@ -5422,19 +6236,19 @@
         <v>7</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -5500,7 +6314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F41"/>
@@ -5521,7 +6335,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -5557,13 +6371,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -5575,13 +6389,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F4" s="11"/>
     </row>
@@ -5593,13 +6407,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -5611,16 +6425,16 @@
         <v>7</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" ht="56" spans="1:6">
@@ -5631,16 +6445,16 @@
         <v>7</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" ht="56" spans="1:6">
@@ -5651,16 +6465,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" ht="70" spans="1:6">
@@ -5668,19 +6482,19 @@
         <v>45542</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" ht="70" spans="1:6">
@@ -5691,16 +6505,16 @@
         <v>7</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" ht="56" spans="1:6">
@@ -5711,16 +6525,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" ht="56" spans="1:6">
@@ -5731,16 +6545,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" ht="56" spans="1:6">
@@ -5751,16 +6565,16 @@
         <v>7</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" ht="56" spans="1:6">
@@ -5771,16 +6585,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" ht="56" spans="1:6">
@@ -5788,16 +6602,16 @@
         <v>45548</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -5809,13 +6623,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -5827,13 +6641,13 @@
         <v>7</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -5845,13 +6659,13 @@
         <v>7</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -5863,13 +6677,13 @@
         <v>7</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -5878,16 +6692,16 @@
         <v>45553</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -5896,16 +6710,16 @@
         <v>45554</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -5914,16 +6728,16 @@
         <v>45555</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -5932,16 +6746,16 @@
         <v>45556</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -5953,13 +6767,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -5971,13 +6785,13 @@
         <v>7</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -5989,13 +6803,13 @@
         <v>7</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -6007,13 +6821,13 @@
         <v>7</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -6025,13 +6839,13 @@
         <v>7</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -6043,13 +6857,13 @@
         <v>7</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -6061,13 +6875,13 @@
         <v>7</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -6079,13 +6893,13 @@
         <v>7</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -6097,13 +6911,13 @@
         <v>7</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -6173,7 +6987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F42"/>
@@ -6194,7 +7008,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -6236,10 +7050,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6256,10 +7070,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:6">
@@ -6276,10 +7090,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6296,10 +7110,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6317,7 +7131,7 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6335,7 +7149,7 @@
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="8" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6352,10 +7166,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6373,7 +7187,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6391,7 +7205,7 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:6">
@@ -6408,10 +7222,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" ht="42" spans="1:6">
@@ -6428,10 +7242,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" ht="42" spans="1:6">
@@ -6448,10 +7262,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" ht="42" spans="1:6">
@@ -6468,10 +7282,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" ht="42" spans="1:6">
@@ -6488,10 +7302,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" ht="42" spans="1:6">
@@ -6508,10 +7322,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -6528,10 +7342,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" ht="42" spans="1:6">
@@ -6548,10 +7362,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" ht="42" spans="1:6">
@@ -6568,10 +7382,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" ht="42" spans="1:6">
@@ -6588,10 +7402,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" ht="42" spans="1:6">
@@ -6608,10 +7422,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" ht="42" spans="1:6">
@@ -6628,10 +7442,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" ht="42" spans="1:6">
@@ -6648,10 +7462,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" ht="42" spans="1:6">
@@ -6668,10 +7482,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" ht="42" spans="1:6">
@@ -6688,10 +7502,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" ht="42" spans="1:6">
@@ -6708,7 +7522,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -6726,7 +7540,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -6744,7 +7558,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -6762,7 +7576,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -6780,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -6798,7 +7612,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -6816,13 +7630,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -6888,7 +7702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H42"/>
@@ -6911,7 +7725,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -6923,22 +7737,22 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>5</v>
@@ -7055,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -7079,7 +7893,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="H8" s="8"/>
     </row>
@@ -7147,7 +7961,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="H11" s="10"/>
     </row>
@@ -7193,7 +8007,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="H13" s="8"/>
     </row>
@@ -7217,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="H14" s="8"/>
     </row>
@@ -7241,7 +8055,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="H15" s="8"/>
     </row>
@@ -7265,7 +8079,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="H16" s="8"/>
     </row>
@@ -7311,7 +8125,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -7379,7 +8193,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="H21" s="8"/>
     </row>
@@ -7403,7 +8217,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="H22" s="8"/>
     </row>
@@ -7427,7 +8241,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="H23" s="8"/>
     </row>
@@ -7472,7 +8286,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="H25" s="8"/>
     </row>
@@ -7496,7 +8310,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="H26" s="8"/>
     </row>
@@ -7520,7 +8334,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="H27" s="8"/>
     </row>
@@ -7541,7 +8355,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -7563,10 +8377,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="H29" s="8"/>
     </row>
@@ -7587,7 +8401,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -7670,7 +8484,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -7744,7 +8558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F41"/>
@@ -7765,7 +8579,7 @@
   <sheetData>
     <row r="1" ht="48" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7775,16 +8589,16 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>5</v>
@@ -7878,15 +8692,15 @@
         <v>45452</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="10" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -7894,10 +8708,10 @@
         <v>45453</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -7908,14 +8722,14 @@
         <v>45454</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -7924,14 +8738,14 @@
         <v>45455</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -7940,14 +8754,14 @@
         <v>45456</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -7956,14 +8770,14 @@
         <v>45457</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -7972,17 +8786,17 @@
         <v>45458</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -7990,14 +8804,14 @@
         <v>45459</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -8006,14 +8820,14 @@
         <v>45460</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -8022,10 +8836,10 @@
         <v>45461</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -8036,14 +8850,14 @@
         <v>45462</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -8052,14 +8866,14 @@
         <v>45463</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -8068,14 +8882,14 @@
         <v>45464</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -8084,16 +8898,16 @@
         <v>45465</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="D24" s="11">
         <v>2</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -8114,14 +8928,14 @@
         <v>45467</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -8130,10 +8944,10 @@
         <v>45468</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="D27" s="8">
         <v>2</v>
@@ -8146,10 +8960,10 @@
         <v>45469</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
@@ -8162,10 +8976,10 @@
         <v>45470</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
@@ -8178,10 +8992,10 @@
         <v>45471</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -8195,11 +9009,11 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -8211,19 +9025,19 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D32" s="8">
         <v>1</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="F32" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>

--- a/00-doc/src/00_todo/00_todo.xlsx
+++ b/00-doc/src/00_todo/00_todo.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="238">
   <si>
     <t>month goals：
 1、oral、listen everyday
@@ -215,7 +215,63 @@
 2、js：0-49</t>
   </si>
   <si>
-    <t>1、finish js</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1、300 words</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2、oral practise </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3、1 listen test
+</t>
+    </r>
+  </si>
+  <si>
+    <t>1、js：50-90</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1、300 words
+2、oral practise </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3、1 listen test
+</t>
+    </r>
+  </si>
+  <si>
+    <t>1、js：90-102</t>
+  </si>
+  <si>
+    <t>1、jerk morning</t>
   </si>
   <si>
     <t>1、translate frontend resume &amp; try post</t>
@@ -4194,7 +4250,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6209665" y="14310360"/>
+          <a:off x="6209665" y="15377160"/>
           <a:ext cx="3931285" cy="2026285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4463,8 +4519,8 @@
   <sheetPr/>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -4655,26 +4711,40 @@
       </c>
       <c r="F10" s="43"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" ht="56" spans="1:6">
       <c r="A11" s="20">
         <v>45635</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="41"/>
+      <c r="B11" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>12</v>
+      </c>
       <c r="E11" s="41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" s="43"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" ht="56" spans="1:6">
       <c r="A12" s="20">
         <v>45636</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
+      <c r="B12" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>25</v>
+      </c>
       <c r="F12" s="43"/>
     </row>
     <row r="13" spans="1:6">
@@ -4684,7 +4754,9 @@
       <c r="B13" s="39"/>
       <c r="C13" s="42"/>
       <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
+      <c r="E13" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="F13" s="43"/>
     </row>
     <row r="14" spans="1:6">
@@ -4695,7 +4767,7 @@
       <c r="C14" s="42"/>
       <c r="D14" s="41"/>
       <c r="E14" s="41" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F14" s="43"/>
     </row>
@@ -4727,7 +4799,7 @@
       <c r="C17" s="42"/>
       <c r="D17" s="41"/>
       <c r="E17" s="41" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F17" s="41"/>
     </row>
@@ -4789,7 +4861,7 @@
       <c r="C23" s="42"/>
       <c r="D23" s="41"/>
       <c r="E23" s="41" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F23" s="43"/>
     </row>
@@ -4903,7 +4975,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -4975,7 +5047,7 @@
   <sheetPr/>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
@@ -4991,7 +5063,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -5027,13 +5099,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F3" s="41"/>
     </row>
@@ -5045,13 +5117,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F4" s="41"/>
     </row>
@@ -5063,13 +5135,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F5" s="41"/>
     </row>
@@ -5081,13 +5153,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F6" s="41"/>
     </row>
@@ -5099,13 +5171,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F7" s="43"/>
     </row>
@@ -5117,13 +5189,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F8" s="43"/>
     </row>
@@ -5135,13 +5207,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F9" s="43"/>
     </row>
@@ -5153,13 +5225,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F10" s="43"/>
     </row>
@@ -5171,13 +5243,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="41" t="s">
         <v>37</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>33</v>
       </c>
       <c r="F11" s="43"/>
     </row>
@@ -5189,13 +5261,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="41" t="s">
         <v>37</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>33</v>
       </c>
       <c r="F12" s="43"/>
     </row>
@@ -5207,13 +5279,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F13" s="43"/>
     </row>
@@ -5225,13 +5297,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F14" s="43"/>
     </row>
@@ -5243,13 +5315,13 @@
         <v>7</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F15" s="43"/>
     </row>
@@ -5261,13 +5333,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F16" s="43"/>
     </row>
@@ -5279,13 +5351,13 @@
         <v>7</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F17" s="41"/>
     </row>
@@ -5297,13 +5369,13 @@
         <v>7</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F18" s="41"/>
     </row>
@@ -5315,13 +5387,13 @@
         <v>7</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F19" s="41"/>
     </row>
@@ -5333,13 +5405,13 @@
         <v>7</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F20" s="41"/>
     </row>
@@ -5351,13 +5423,13 @@
         <v>7</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F21" s="43"/>
     </row>
@@ -5369,13 +5441,13 @@
         <v>7</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F22" s="43"/>
     </row>
@@ -5387,13 +5459,13 @@
         <v>7</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F23" s="43"/>
     </row>
@@ -5405,13 +5477,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F24" s="43"/>
     </row>
@@ -5423,13 +5495,13 @@
         <v>7</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F25" s="43"/>
     </row>
@@ -5441,31 +5513,31 @@
         <v>7</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F26" s="43"/>
     </row>
     <row r="27" ht="84" spans="1:6">
       <c r="A27" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B27" s="39" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F27" s="43"/>
     </row>
@@ -5477,13 +5549,13 @@
         <v>7</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F28" s="43"/>
     </row>
@@ -5495,13 +5567,13 @@
         <v>7</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F29" s="43"/>
     </row>
@@ -5513,13 +5585,13 @@
         <v>7</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F30" s="43"/>
     </row>
@@ -5534,7 +5606,7 @@
         <v>8</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E31" s="41" t="s">
         <v>10</v>
@@ -5552,7 +5624,7 @@
         <v>8</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E32" s="41" t="s">
         <v>10</v>
@@ -5561,7 +5633,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -5648,7 +5720,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -5681,16 +5753,16 @@
         <v>45566</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -5699,19 +5771,19 @@
         <v>45567</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" ht="70" spans="1:6">
@@ -5722,13 +5794,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -5740,13 +5812,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F6" s="8"/>
     </row>
@@ -5758,13 +5830,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -5776,13 +5848,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -5794,10 +5866,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="8"/>
@@ -5810,10 +5882,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="8"/>
@@ -5826,10 +5898,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="8"/>
@@ -5842,10 +5914,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="8"/>
@@ -5858,13 +5930,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -5876,13 +5948,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -5894,13 +5966,13 @@
         <v>7</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -5912,13 +5984,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -5930,13 +6002,13 @@
         <v>7</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -5948,13 +6020,13 @@
         <v>7</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -5966,13 +6038,13 @@
         <v>7</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -5984,13 +6056,13 @@
         <v>7</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -6002,13 +6074,13 @@
         <v>7</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -6020,13 +6092,13 @@
         <v>7</v>
       </c>
       <c r="C22" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="33" t="s">
-        <v>90</v>
-      </c>
       <c r="E22" s="11" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -6038,13 +6110,13 @@
         <v>7</v>
       </c>
       <c r="C23" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="33" t="s">
-        <v>90</v>
-      </c>
       <c r="E23" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -6056,13 +6128,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="33" t="s">
-        <v>90</v>
-      </c>
       <c r="E24" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -6074,13 +6146,13 @@
         <v>7</v>
       </c>
       <c r="C25" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="33" t="s">
-        <v>90</v>
-      </c>
       <c r="E25" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -6092,13 +6164,13 @@
         <v>7</v>
       </c>
       <c r="C26" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="33" t="s">
-        <v>90</v>
-      </c>
       <c r="E26" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -6110,13 +6182,13 @@
         <v>7</v>
       </c>
       <c r="C27" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="33" t="s">
-        <v>90</v>
-      </c>
       <c r="E27" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -6128,13 +6200,13 @@
         <v>7</v>
       </c>
       <c r="C28" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="33" t="s">
-        <v>90</v>
-      </c>
       <c r="E28" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -6146,13 +6218,13 @@
         <v>7</v>
       </c>
       <c r="C29" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="33" t="s">
-        <v>90</v>
-      </c>
       <c r="E29" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -6164,13 +6236,13 @@
         <v>7</v>
       </c>
       <c r="C30" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="33" t="s">
-        <v>90</v>
-      </c>
       <c r="E30" s="11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -6182,13 +6254,13 @@
         <v>7</v>
       </c>
       <c r="C31" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="33" t="s">
-        <v>90</v>
-      </c>
       <c r="E31" s="11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -6200,13 +6272,13 @@
         <v>7</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -6218,13 +6290,13 @@
         <v>7</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F33" s="14"/>
     </row>
@@ -6236,19 +6308,19 @@
         <v>7</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -6335,7 +6407,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -6371,13 +6443,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -6389,13 +6461,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F4" s="11"/>
     </row>
@@ -6407,13 +6479,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -6425,16 +6497,16 @@
         <v>7</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" ht="56" spans="1:6">
@@ -6445,16 +6517,16 @@
         <v>7</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" ht="56" spans="1:6">
@@ -6465,16 +6537,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" ht="70" spans="1:6">
@@ -6482,19 +6554,19 @@
         <v>45542</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C9" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>108</v>
-      </c>
       <c r="F9" s="8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" ht="70" spans="1:6">
@@ -6505,16 +6577,16 @@
         <v>7</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" ht="56" spans="1:6">
@@ -6525,16 +6597,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" ht="56" spans="1:6">
@@ -6545,16 +6617,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" ht="56" spans="1:6">
@@ -6565,16 +6637,16 @@
         <v>7</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" ht="56" spans="1:6">
@@ -6585,16 +6657,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" ht="56" spans="1:6">
@@ -6602,16 +6674,16 @@
         <v>45548</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -6623,13 +6695,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -6641,13 +6713,13 @@
         <v>7</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -6659,13 +6731,13 @@
         <v>7</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -6677,13 +6749,13 @@
         <v>7</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -6692,16 +6764,16 @@
         <v>45553</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -6710,16 +6782,16 @@
         <v>45554</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -6728,16 +6800,16 @@
         <v>45555</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -6746,16 +6818,16 @@
         <v>45556</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -6767,13 +6839,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -6785,13 +6857,13 @@
         <v>7</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -6803,13 +6875,13 @@
         <v>7</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -6821,13 +6893,13 @@
         <v>7</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -6839,13 +6911,13 @@
         <v>7</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -6857,13 +6929,13 @@
         <v>7</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -6875,13 +6947,13 @@
         <v>7</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -6893,13 +6965,13 @@
         <v>7</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -6911,13 +6983,13 @@
         <v>7</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -7008,7 +7080,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -7050,10 +7122,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -7070,10 +7142,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:6">
@@ -7090,10 +7162,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7110,10 +7182,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7131,7 +7203,7 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7149,7 +7221,7 @@
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="8" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -7166,10 +7238,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7187,7 +7259,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -7205,7 +7277,7 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:6">
@@ -7222,10 +7294,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" ht="42" spans="1:6">
@@ -7242,10 +7314,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" ht="42" spans="1:6">
@@ -7262,10 +7334,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" ht="42" spans="1:6">
@@ -7282,10 +7354,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" ht="42" spans="1:6">
@@ -7302,10 +7374,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" ht="42" spans="1:6">
@@ -7322,10 +7394,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -7342,10 +7414,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" ht="42" spans="1:6">
@@ -7362,10 +7434,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" ht="42" spans="1:6">
@@ -7382,10 +7454,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" ht="42" spans="1:6">
@@ -7402,10 +7474,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" ht="42" spans="1:6">
@@ -7422,10 +7494,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" ht="42" spans="1:6">
@@ -7442,10 +7514,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" ht="42" spans="1:6">
@@ -7462,10 +7534,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" ht="42" spans="1:6">
@@ -7482,10 +7554,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" ht="42" spans="1:6">
@@ -7502,10 +7574,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" ht="42" spans="1:6">
@@ -7522,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -7540,7 +7612,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -7558,7 +7630,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -7576,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -7594,7 +7666,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -7612,7 +7684,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -7630,13 +7702,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -7725,7 +7797,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7737,22 +7809,22 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>5</v>
@@ -7869,7 +7941,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -7893,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H8" s="8"/>
     </row>
@@ -7961,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H11" s="10"/>
     </row>
@@ -8007,7 +8079,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H13" s="8"/>
     </row>
@@ -8031,7 +8103,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H14" s="8"/>
     </row>
@@ -8055,7 +8127,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H15" s="8"/>
     </row>
@@ -8079,7 +8151,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H16" s="8"/>
     </row>
@@ -8125,7 +8197,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -8193,7 +8265,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H21" s="8"/>
     </row>
@@ -8217,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H22" s="8"/>
     </row>
@@ -8241,7 +8313,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H23" s="8"/>
     </row>
@@ -8286,7 +8358,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H25" s="8"/>
     </row>
@@ -8310,7 +8382,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H26" s="8"/>
     </row>
@@ -8334,7 +8406,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H27" s="8"/>
     </row>
@@ -8355,7 +8427,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -8377,10 +8449,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H29" s="8"/>
     </row>
@@ -8401,7 +8473,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -8484,7 +8556,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -8579,7 +8651,7 @@
   <sheetData>
     <row r="1" ht="48" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8589,16 +8661,16 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>5</v>
@@ -8692,15 +8764,15 @@
         <v>45452</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="10" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -8708,10 +8780,10 @@
         <v>45453</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -8722,14 +8794,14 @@
         <v>45454</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -8738,14 +8810,14 @@
         <v>45455</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -8754,14 +8826,14 @@
         <v>45456</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -8770,14 +8842,14 @@
         <v>45457</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>215</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>211</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -8786,17 +8858,17 @@
         <v>45458</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -8804,14 +8876,14 @@
         <v>45459</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -8820,14 +8892,14 @@
         <v>45460</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -8836,10 +8908,10 @@
         <v>45461</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -8850,14 +8922,14 @@
         <v>45462</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -8866,14 +8938,14 @@
         <v>45463</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -8882,14 +8954,14 @@
         <v>45464</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -8898,16 +8970,16 @@
         <v>45465</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D24" s="11">
         <v>2</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -8928,14 +9000,14 @@
         <v>45467</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -8944,10 +9016,10 @@
         <v>45468</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D27" s="8">
         <v>2</v>
@@ -8960,10 +9032,10 @@
         <v>45469</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
@@ -8976,10 +9048,10 @@
         <v>45470</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
@@ -8992,10 +9064,10 @@
         <v>45471</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -9009,11 +9081,11 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -9025,19 +9097,19 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D32" s="8">
         <v>1</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F32" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>

--- a/00-doc/src/00_todo/00_todo.xlsx
+++ b/00-doc/src/00_todo/00_todo.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="246">
   <si>
     <t>month goals：
 1、oral、listen everyday
@@ -50,10 +50,7 @@
     <t>English</t>
   </si>
   <si>
-    <t>tech &amp; algorithm</t>
-  </si>
-  <si>
-    <t>remark</t>
+    <t>summary</t>
   </si>
   <si>
     <t>todo</t>
@@ -66,59 +63,27 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1、300 words
+2、1 listen test
+3、0.5h reading 
+4、0.5h attentive listen
+5、1h relevant listen
+</t>
+    </r>
+    <r>
+      <rPr>
         <strike/>
         <sz val="11"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">1、300 words
-2、oral practise </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-3、1 listen test
-5、1h tech listen
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1、5 algorithm 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2、maintain github
-3、finish resume -100%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
+      <t xml:space="preserve">6、oral practise </t>
     </r>
   </si>
   <si>
@@ -132,14 +97,18 @@
 4、jobwizard write cv automatic</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1、5 algorithm 
+    <t>1、start post bigdata resume</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1、300 words
+2、1 listen test
 </t>
     </r>
     <r>
@@ -150,21 +119,10 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2、maintain github</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>1、start post resume</t>
+      <t xml:space="preserve">4、0.5h attentive listen
+5、1h relevant listen
+6、oral practise </t>
+    </r>
   </si>
   <si>
     <t>1、countless rejection</t>
@@ -174,11 +132,43 @@
 2、tech：Scrum</t>
   </si>
   <si>
-    <t>1、step into frontend
-2、</t>
-  </si>
-  <si>
-    <t>1、html4+css2 --25 -》55</t>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1、300 words</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2、1 listen test
+4、0.5h attentive listen
+5、1h tech listen</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+6、oral practise </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1、step into frontend
+</t>
   </si>
   <si>
     <r>
@@ -201,8 +191,13 @@
       </rPr>
       <t xml:space="preserve">
 3、1 listen test
-</t>
-    </r>
+4、0.5h attentive listen
+5、1h tech listen
+</t>
+    </r>
+  </si>
+  <si>
+    <t>1、html4+css2 --25 -》55</t>
   </si>
   <si>
     <t>1、html4+css2 --50 -》77</t>
@@ -215,15 +210,41 @@
 2、js：0-49</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1、300 words</t>
-    </r>
+    <t>1、js：50-90</t>
+  </si>
+  <si>
+    <t>1、js：90-102</t>
+  </si>
+  <si>
+    <t>1、jerk morning，waste in morning
+2、js: 102-108</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1、translate frontend resume &amp; try post</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. waste time in stock &amp; sleep early</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.absent mind, waste in stock</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <strike/>
@@ -232,8 +253,27 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>1.js done</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">
-2、oral practise </t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.nodejs done (50-122)</t>
     </r>
     <r>
       <rPr>
@@ -243,17 +283,17 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-3、1 listen test
-</t>
-    </r>
-  </si>
-  <si>
-    <t>1、js：50-90</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1、300 words
-2、oral practise </t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.es6 --100%</t>
     </r>
     <r>
       <rPr>
@@ -263,22 +303,12 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-3、1 listen test
-</t>
-    </r>
-  </si>
-  <si>
-    <t>1、js：90-102</t>
-  </si>
-  <si>
-    <t>1、jerk morning</t>
-  </si>
-  <si>
-    <t>1、translate frontend resume &amp; try post</t>
-  </si>
-  <si>
-    <t>1、nodejs
-2、es6
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2、es6(80%)
 3、ajax
 4、promise
 5、axios
@@ -287,16 +317,75 @@
 8、webpack</t>
   </si>
   <si>
-    <t>1、2 react project
+    <t>1.waste in dnf,stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.ajax --60% 
+2.finish frontend resume </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.finish ajax  --100%
+ 2.frontend reusme &amp; submit --100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.promise --100%
+ 3.axios --100%
+ 4.typescript --100%
+ 5.react --10%</t>
+  </si>
+  <si>
+    <t>1 react project
 2、vue2 + vue3
 3、my resume</t>
   </si>
   <si>
-    <t>#################################################################################
+    <t>2.react --50%</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1、300 words
+2、oral practise </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3、1 listen test
+4、0.5h attentive listen
+5、1h tech listen
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1.waste in absentminded
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、300 words
+2、oral practise 
+3、30min listen test
+1.submit resume
+2.maintain github
+</t>
+  </si>
+  <si>
+    <t>1.
+2.</t>
+  </si>
+  <si>
+    <t>1.portfolio(personal website)</t>
+  </si>
+  <si>
+    <t>#########################################################################################
 1、5k everyday，then do extra thing。100k every month -》10 year 30m commitment
 2、every second consist of life，money can be back time not
 3、be positive，be concentrated dont feel time、be efficient
-#################################################################################</t>
+4. accelerate anything predict, once target set, must finish
+#########################################################################################</t>
   </si>
   <si>
     <t>month goals：
@@ -305,30 +394,10 @@
 3、random 5 code leetcode everyday, finish techs and 5 project</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1、300 words
-2、1 listen test
-3、0.5h reading 
-4、0.5h attentive listen
-5、1h relevant listen
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">6、oral practise </t>
-    </r>
+    <t>tech &amp; algorithm</t>
+  </si>
+  <si>
+    <t>remark</t>
   </si>
   <si>
     <t xml:space="preserve">1、algorithm 
@@ -346,67 +415,7 @@
 3、</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1、300 words
-2、1 listen test
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">4、0.5h attentive listen
-5、1h relevant listen
-6、oral practise </t>
-    </r>
-  </si>
-  <si>
     <t>1、sober waste in X allday</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1、300 words</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2、1 listen test
-4、0.5h attentive listen
-5、1h tech listen</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-6、oral practise </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">1、algorithm 190
@@ -415,32 +424,6 @@
   </si>
   <si>
     <t>1、</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1、300 words
-2、oral practise </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-3、1 listen test
-4、0.5h attentive listen
-5、1h tech listen
-</t>
-    </r>
   </si>
   <si>
     <t>1、firm flink20 issue</t>
@@ -496,6 +479,31 @@
   <si>
     <t>1、stare at stocks
 2、scroll YouTube</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1、300 words
+2、oral practise </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3、1 listen test
+5、1h tech listen
+</t>
+    </r>
   </si>
   <si>
     <r>
@@ -3809,7 +3817,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3941,6 +3949,36 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4231,7 +4269,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1130300</xdr:colOff>
+      <xdr:colOff>2089150</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>67945</xdr:rowOff>
     </xdr:to>
@@ -4250,7 +4288,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6209665" y="15377160"/>
+          <a:off x="6825615" y="27023060"/>
           <a:ext cx="3931285" cy="2026285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4519,8 +4557,8 @@
   <sheetPr/>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -4528,8 +4566,8 @@
     <col min="1" max="1" width="13.3636363636364" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.8181818181818" customWidth="1"/>
     <col min="3" max="3" width="29.9090909090909" style="23" customWidth="1"/>
-    <col min="4" max="4" width="26.7272727272727" customWidth="1"/>
-    <col min="5" max="5" width="40.1818181818182" customWidth="1"/>
+    <col min="4" max="4" width="35.5454545454545" customWidth="1"/>
+    <col min="5" max="5" width="26.4545454545455" customWidth="1"/>
     <col min="6" max="6" width="34.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4553,14 +4591,12 @@
       <c r="C2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="45"/>
+      <c r="F2" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" ht="86" customHeight="1" spans="1:6">
@@ -4568,37 +4604,33 @@
         <v>45627</v>
       </c>
       <c r="B3" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="D3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="E3" s="47"/>
+      <c r="F3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" ht="70" spans="1:6">
+    </row>
+    <row r="4" ht="84" spans="1:6">
       <c r="A4" s="20">
         <v>45628</v>
       </c>
       <c r="B4" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>13</v>
-      </c>
+      <c r="D4" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="48"/>
       <c r="F4" s="41"/>
     </row>
     <row r="5" ht="70" spans="1:6">
@@ -4606,19 +4638,17 @@
         <v>45629</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>14</v>
-      </c>
+      <c r="E5" s="48"/>
       <c r="F5" s="41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" ht="70" spans="1:6">
@@ -4626,274 +4656,340 @@
         <v>45630</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="48"/>
       <c r="F6" s="41"/>
     </row>
-    <row r="7" ht="70" spans="1:6">
+    <row r="7" ht="84" spans="1:6">
       <c r="A7" s="20">
         <v>45631</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="41"/>
+        <v>16</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="43"/>
     </row>
-    <row r="8" ht="70" spans="1:6">
+    <row r="8" ht="84" spans="1:6">
       <c r="A8" s="20">
         <v>45632</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="39" t="s">
         <v>17</v>
       </c>
+      <c r="E8" s="48"/>
       <c r="F8" s="43"/>
     </row>
-    <row r="9" ht="56" spans="1:6">
+    <row r="9" ht="84" spans="1:6">
       <c r="A9" s="9">
         <v>45633</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="48"/>
+      <c r="F9" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" ht="56" spans="1:6">
+    </row>
+    <row r="10" ht="84" spans="1:6">
       <c r="A10" s="9">
         <v>45634</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="48"/>
       <c r="F10" s="43"/>
     </row>
-    <row r="11" ht="56" spans="1:6">
+    <row r="11" ht="84" spans="1:6">
       <c r="A11" s="20">
         <v>45635</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>23</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="48"/>
       <c r="F11" s="43"/>
     </row>
-    <row r="12" ht="56" spans="1:6">
+    <row r="12" ht="84" spans="1:6">
       <c r="A12" s="20">
         <v>45636</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="48"/>
       <c r="F12" s="43"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" ht="84" spans="1:6">
       <c r="A13" s="20">
         <v>45637</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41" t="s">
-        <v>26</v>
-      </c>
+      <c r="B13" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="48"/>
       <c r="F13" s="43"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" ht="84" spans="1:6">
       <c r="A14" s="20">
         <v>45638</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41" t="s">
-        <v>27</v>
-      </c>
+      <c r="B14" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="51"/>
       <c r="F14" s="43"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" ht="84" spans="1:6">
       <c r="A15" s="20">
         <v>45639</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
+      <c r="B15" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="47"/>
       <c r="F15" s="43"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" ht="84" spans="1:6">
       <c r="A16" s="9">
         <v>45640</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
+      <c r="B16" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="48"/>
       <c r="F16" s="43"/>
     </row>
-    <row r="17" ht="112" spans="1:6">
+    <row r="17" ht="84" spans="1:6">
       <c r="A17" s="9">
         <v>45641</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41" t="s">
-        <v>28</v>
-      </c>
+      <c r="B17" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="51"/>
       <c r="F17" s="41"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" ht="84" spans="1:6">
       <c r="A18" s="20">
         <v>45642</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
+      <c r="B18" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="47"/>
       <c r="F18" s="41"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" ht="84" spans="1:6">
       <c r="A19" s="20">
         <v>45643</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
+      <c r="B19" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="47"/>
       <c r="F19" s="41"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" ht="84" spans="1:6">
       <c r="A20" s="20">
         <v>45644</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
+      <c r="B20" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="47"/>
       <c r="F20" s="41"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" ht="40" customHeight="1" spans="1:6">
       <c r="A21" s="20">
         <v>45645</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
+      <c r="B21" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="47"/>
       <c r="F21" s="43"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" ht="45" customHeight="1" spans="1:6">
       <c r="A22" s="20">
         <v>45646</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
+      <c r="B22" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="47"/>
       <c r="F22" s="43"/>
     </row>
-    <row r="23" ht="42" spans="1:6">
+    <row r="23" ht="66" customHeight="1" spans="1:6">
       <c r="A23" s="9">
         <v>45647</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="43"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="B23" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="47"/>
+      <c r="F23" s="41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" ht="84" spans="1:6">
       <c r="A24" s="9">
         <v>45648</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
+      <c r="B24" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="47"/>
       <c r="F24" s="43"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" ht="80" customHeight="1" spans="1:6">
       <c r="A25" s="20">
         <v>45649</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
+      <c r="B25" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="47"/>
       <c r="F25" s="43"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" ht="98" spans="1:6">
       <c r="A26" s="20">
         <v>45650</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="43"/>
+      <c r="B26" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="47"/>
+      <c r="F26" s="43" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="20">
@@ -4901,8 +4997,8 @@
       </c>
       <c r="B27" s="39"/>
       <c r="C27" s="42"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="47"/>
       <c r="F27" s="43"/>
     </row>
     <row r="28" spans="1:6">
@@ -4911,8 +5007,8 @@
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="47"/>
       <c r="F28" s="43"/>
     </row>
     <row r="29" spans="1:6">
@@ -4921,8 +5017,8 @@
       </c>
       <c r="B29" s="39"/>
       <c r="C29" s="42"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="47"/>
       <c r="F29" s="43"/>
     </row>
     <row r="30" spans="1:6">
@@ -4931,8 +5027,8 @@
       </c>
       <c r="B30" s="39"/>
       <c r="C30" s="42"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="47"/>
       <c r="F30" s="43"/>
     </row>
     <row r="31" spans="1:6">
@@ -4941,8 +5037,8 @@
       </c>
       <c r="B31" s="39"/>
       <c r="C31" s="42"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="47"/>
       <c r="F31" s="43"/>
     </row>
     <row r="32" spans="1:6">
@@ -4951,31 +5047,31 @@
       </c>
       <c r="B32" s="39"/>
       <c r="C32" s="42"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="47"/>
       <c r="F32" s="43"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="20">
         <v>45657</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="54"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="54"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -5021,19 +5117,52 @@
     </row>
     <row r="42" customFormat="1" spans="1:4">
       <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
+      <c r="B42"/>
+      <c r="C42" s="23"/>
       <c r="D42" s="14"/>
     </row>
     <row r="43" customFormat="1" spans="1:4">
       <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
+      <c r="B43"/>
+      <c r="C43" s="23"/>
       <c r="D43" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="35">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="A35:D43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5047,8 +5176,8 @@
   <sheetPr/>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -5063,7 +5192,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -5082,13 +5211,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="E2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" ht="86" customHeight="1" spans="1:6">
@@ -5096,16 +5225,16 @@
         <v>45597</v>
       </c>
       <c r="B3" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>32</v>
-      </c>
       <c r="D3" s="41" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F3" s="41"/>
     </row>
@@ -5114,16 +5243,16 @@
         <v>45598</v>
       </c>
       <c r="B4" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="40" t="s">
-        <v>32</v>
-      </c>
       <c r="D4" s="41" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F4" s="41"/>
     </row>
@@ -5132,16 +5261,16 @@
         <v>45599</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F5" s="41"/>
     </row>
@@ -5150,16 +5279,16 @@
         <v>45600</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F6" s="41"/>
     </row>
@@ -5168,16 +5297,16 @@
         <v>45601</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F7" s="43"/>
     </row>
@@ -5186,16 +5315,16 @@
         <v>45602</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F8" s="43"/>
     </row>
@@ -5204,16 +5333,16 @@
         <v>45603</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F9" s="43"/>
     </row>
@@ -5222,16 +5351,16 @@
         <v>45604</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F10" s="43"/>
     </row>
@@ -5240,16 +5369,16 @@
         <v>45605</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F11" s="43"/>
     </row>
@@ -5258,16 +5387,16 @@
         <v>45607</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F12" s="43"/>
     </row>
@@ -5276,16 +5405,16 @@
         <v>45607</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F13" s="43"/>
     </row>
@@ -5294,16 +5423,16 @@
         <v>45608</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F14" s="43"/>
     </row>
@@ -5312,16 +5441,16 @@
         <v>45609</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F15" s="43"/>
     </row>
@@ -5330,16 +5459,16 @@
         <v>45610</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F16" s="43"/>
     </row>
@@ -5348,16 +5477,16 @@
         <v>45611</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F17" s="41"/>
     </row>
@@ -5366,16 +5495,16 @@
         <v>45612</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F18" s="41"/>
     </row>
@@ -5384,16 +5513,16 @@
         <v>45613</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F19" s="41"/>
     </row>
@@ -5402,16 +5531,16 @@
         <v>45614</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F20" s="41"/>
     </row>
@@ -5420,16 +5549,16 @@
         <v>45615</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F21" s="43"/>
     </row>
@@ -5438,16 +5567,16 @@
         <v>45616</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F22" s="43"/>
     </row>
@@ -5456,16 +5585,16 @@
         <v>45617</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F23" s="43"/>
     </row>
@@ -5474,16 +5603,16 @@
         <v>45618</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F24" s="43"/>
     </row>
@@ -5492,16 +5621,16 @@
         <v>45619</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F25" s="43"/>
     </row>
@@ -5510,34 +5639,34 @@
         <v>45620</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F26" s="43"/>
     </row>
     <row r="27" ht="84" spans="1:6">
       <c r="A27" s="9" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F27" s="43"/>
     </row>
@@ -5546,16 +5675,16 @@
         <v>45622</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F28" s="43"/>
     </row>
@@ -5564,16 +5693,16 @@
         <v>45623</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F29" s="43"/>
     </row>
@@ -5582,16 +5711,16 @@
         <v>45624</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F30" s="43"/>
     </row>
@@ -5600,16 +5729,16 @@
         <v>45625</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="41" t="s">
         <v>8</v>
-      </c>
-      <c r="D31" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="41" t="s">
-        <v>10</v>
       </c>
       <c r="F31" s="43"/>
     </row>
@@ -5618,22 +5747,22 @@
         <v>45626</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="41" t="s">
         <v>8</v>
-      </c>
-      <c r="D32" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="41" t="s">
-        <v>10</v>
       </c>
       <c r="F32" s="43"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="14" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -5720,7 +5849,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -5739,13 +5868,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="E2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" ht="86" customHeight="1" spans="1:6">
@@ -5753,16 +5882,16 @@
         <v>45566</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -5771,19 +5900,19 @@
         <v>45567</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" ht="70" spans="1:6">
@@ -5791,16 +5920,16 @@
         <v>45568</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -5809,16 +5938,16 @@
         <v>45569</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F6" s="8"/>
     </row>
@@ -5827,16 +5956,16 @@
         <v>45570</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -5845,16 +5974,16 @@
         <v>45571</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -5863,13 +5992,13 @@
         <v>45572</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="8"/>
@@ -5879,13 +6008,13 @@
         <v>45573</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="8"/>
@@ -5895,13 +6024,13 @@
         <v>45574</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="8"/>
@@ -5911,13 +6040,13 @@
         <v>45575</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="8"/>
@@ -5927,16 +6056,16 @@
         <v>45576</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -5945,16 +6074,16 @@
         <v>45577</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -5963,16 +6092,16 @@
         <v>45578</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -5981,16 +6110,16 @@
         <v>45579</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -5999,16 +6128,16 @@
         <v>45580</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -6017,16 +6146,16 @@
         <v>45581</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -6035,16 +6164,16 @@
         <v>45582</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -6053,16 +6182,16 @@
         <v>45583</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -6071,16 +6200,16 @@
         <v>45584</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -6089,16 +6218,16 @@
         <v>45585</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -6107,16 +6236,16 @@
         <v>45586</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -6125,16 +6254,16 @@
         <v>45587</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -6143,16 +6272,16 @@
         <v>45588</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -6161,16 +6290,16 @@
         <v>45589</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -6179,16 +6308,16 @@
         <v>45590</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -6197,16 +6326,16 @@
         <v>45591</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -6215,16 +6344,16 @@
         <v>45592</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -6233,16 +6362,16 @@
         <v>45593</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -6251,16 +6380,16 @@
         <v>45594</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -6269,16 +6398,16 @@
         <v>45595</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -6287,16 +6416,16 @@
         <v>45595</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F33" s="14"/>
     </row>
@@ -6305,22 +6434,22 @@
         <v>45595</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -6407,7 +6536,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -6426,13 +6555,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="E2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" ht="65" customHeight="1" spans="1:6">
@@ -6440,16 +6569,16 @@
         <v>45536</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -6458,16 +6587,16 @@
         <v>45537</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F4" s="11"/>
     </row>
@@ -6476,16 +6605,16 @@
         <v>45538</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -6494,19 +6623,19 @@
         <v>45539</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" ht="56" spans="1:6">
@@ -6514,19 +6643,19 @@
         <v>45540</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" ht="56" spans="1:6">
@@ -6534,19 +6663,19 @@
         <v>45541</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" ht="70" spans="1:6">
@@ -6554,19 +6683,19 @@
         <v>45542</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" ht="70" spans="1:6">
@@ -6574,19 +6703,19 @@
         <v>45543</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" ht="56" spans="1:6">
@@ -6594,19 +6723,19 @@
         <v>45544</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" ht="56" spans="1:6">
@@ -6614,19 +6743,19 @@
         <v>45545</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" ht="56" spans="1:6">
@@ -6634,19 +6763,19 @@
         <v>45546</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" ht="56" spans="1:6">
@@ -6654,19 +6783,19 @@
         <v>45547</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" ht="56" spans="1:6">
@@ -6674,16 +6803,16 @@
         <v>45548</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -6692,16 +6821,16 @@
         <v>45549</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -6710,16 +6839,16 @@
         <v>45550</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -6728,16 +6857,16 @@
         <v>45551</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -6746,16 +6875,16 @@
         <v>45552</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -6764,16 +6893,16 @@
         <v>45553</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -6782,16 +6911,16 @@
         <v>45554</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -6800,16 +6929,16 @@
         <v>45555</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -6818,16 +6947,16 @@
         <v>45556</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -6836,16 +6965,16 @@
         <v>45557</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -6854,16 +6983,16 @@
         <v>45558</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -6872,16 +7001,16 @@
         <v>45559</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -6890,16 +7019,16 @@
         <v>45560</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -6908,16 +7037,16 @@
         <v>45561</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -6926,16 +7055,16 @@
         <v>45562</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -6944,16 +7073,16 @@
         <v>45563</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -6962,16 +7091,16 @@
         <v>45564</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -6980,16 +7109,16 @@
         <v>45565</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -7080,7 +7209,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -7099,13 +7228,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="E2" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" ht="28" spans="1:6">
@@ -7122,10 +7251,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -7142,10 +7271,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:6">
@@ -7162,10 +7291,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7182,10 +7311,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7203,7 +7332,7 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7221,7 +7350,7 @@
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="8" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -7238,10 +7367,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7259,7 +7388,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -7277,7 +7406,7 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:6">
@@ -7294,10 +7423,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" ht="42" spans="1:6">
@@ -7314,10 +7443,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" ht="42" spans="1:6">
@@ -7334,10 +7463,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" ht="42" spans="1:6">
@@ -7354,10 +7483,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" ht="42" spans="1:6">
@@ -7374,10 +7503,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" ht="42" spans="1:6">
@@ -7394,10 +7523,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -7414,10 +7543,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" ht="42" spans="1:6">
@@ -7434,10 +7563,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" ht="42" spans="1:6">
@@ -7454,10 +7583,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" ht="42" spans="1:6">
@@ -7474,10 +7603,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" ht="42" spans="1:6">
@@ -7494,10 +7623,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" ht="42" spans="1:6">
@@ -7514,10 +7643,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" ht="42" spans="1:6">
@@ -7534,10 +7663,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" ht="42" spans="1:6">
@@ -7554,10 +7683,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" ht="42" spans="1:6">
@@ -7574,10 +7703,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" ht="42" spans="1:6">
@@ -7594,7 +7723,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -7612,7 +7741,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -7630,7 +7759,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -7648,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -7666,7 +7795,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -7684,7 +7813,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -7702,13 +7831,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -7797,7 +7926,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7809,28 +7938,28 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="G2" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -7941,7 +8070,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -7965,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="H8" s="8"/>
     </row>
@@ -8033,7 +8162,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="H11" s="10"/>
     </row>
@@ -8079,7 +8208,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="H13" s="8"/>
     </row>
@@ -8103,7 +8232,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="H14" s="8"/>
     </row>
@@ -8127,7 +8256,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="H15" s="8"/>
     </row>
@@ -8151,7 +8280,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="H16" s="8"/>
     </row>
@@ -8197,7 +8326,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -8265,7 +8394,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="H21" s="8"/>
     </row>
@@ -8289,7 +8418,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="H22" s="8"/>
     </row>
@@ -8313,7 +8442,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="H23" s="8"/>
     </row>
@@ -8358,7 +8487,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="H25" s="8"/>
     </row>
@@ -8382,7 +8511,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="H26" s="8"/>
     </row>
@@ -8406,7 +8535,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H27" s="8"/>
     </row>
@@ -8427,7 +8556,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -8449,10 +8578,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="H29" s="8"/>
     </row>
@@ -8473,7 +8602,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -8556,7 +8685,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -8651,7 +8780,7 @@
   <sheetData>
     <row r="1" ht="48" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8661,22 +8790,22 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8764,15 +8893,15 @@
         <v>45452</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="10" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -8780,10 +8909,10 @@
         <v>45453</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -8794,14 +8923,14 @@
         <v>45454</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -8810,14 +8939,14 @@
         <v>45455</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -8826,14 +8955,14 @@
         <v>45456</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -8842,14 +8971,14 @@
         <v>45457</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -8858,17 +8987,17 @@
         <v>45458</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -8876,14 +9005,14 @@
         <v>45459</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>215</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -8892,14 +9021,14 @@
         <v>45460</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -8908,10 +9037,10 @@
         <v>45461</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -8922,14 +9051,14 @@
         <v>45462</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -8938,14 +9067,14 @@
         <v>45463</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -8954,14 +9083,14 @@
         <v>45464</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -8970,16 +9099,16 @@
         <v>45465</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="D24" s="11">
         <v>2</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -9000,14 +9129,14 @@
         <v>45467</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -9016,10 +9145,10 @@
         <v>45468</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="D27" s="8">
         <v>2</v>
@@ -9032,10 +9161,10 @@
         <v>45469</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
@@ -9048,10 +9177,10 @@
         <v>45470</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
@@ -9064,10 +9193,10 @@
         <v>45471</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -9081,11 +9210,11 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -9097,19 +9226,19 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D32" s="8">
         <v>1</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="F32" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>

--- a/00-doc/src/00_todo/00_todo.xlsx
+++ b/00-doc/src/00_todo/00_todo.xlsx
@@ -7,13 +7,14 @@
     <workbookView windowWidth="18350" windowHeight="8080"/>
   </bookViews>
   <sheets>
-    <sheet name="2024-12" sheetId="7" r:id="rId1"/>
-    <sheet name="2024-11" sheetId="6" r:id="rId2"/>
-    <sheet name="2024-10" sheetId="5" r:id="rId3"/>
-    <sheet name="2024-09" sheetId="4" r:id="rId4"/>
-    <sheet name="2024-08" sheetId="3" r:id="rId5"/>
-    <sheet name="2024-07" sheetId="2" r:id="rId6"/>
-    <sheet name="2024-06" sheetId="1" r:id="rId7"/>
+    <sheet name="2025-01" sheetId="8" r:id="rId1"/>
+    <sheet name="2024-12" sheetId="7" r:id="rId2"/>
+    <sheet name="2024-11" sheetId="6" r:id="rId3"/>
+    <sheet name="2024-10" sheetId="5" r:id="rId4"/>
+    <sheet name="2024-09" sheetId="4" r:id="rId5"/>
+    <sheet name="2024-08" sheetId="3" r:id="rId6"/>
+    <sheet name="2024-07" sheetId="2" r:id="rId7"/>
+    <sheet name="2024-06" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="253">
   <si>
     <t>month goals：
 1、oral、listen everyday
@@ -59,6 +60,71 @@
     <t>1、6：00 get up
 2、23：00 sleep
 3、workout</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1、300 words
+2、0.5 listen test
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">6、oral practise </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1、vue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2、vue project 1: hospital  --10%
+summary: cant focus. waste half-day</t>
+    </r>
+  </si>
+  <si>
+    <t>1、proficient in idea
+2、java thread pool usage
+3、review git
+4、jobwizard write cv automatic
+1、apply Hong Kong deposit card
+2、tech：Scrum
+1 react project
+1.portfolio(personal website)
+2.docker &amp; k8s</t>
+  </si>
+  <si>
+    <t>1. react project 1</t>
+  </si>
+  <si>
+    <t>1. react project 2</t>
+  </si>
+  <si>
+    <t>1. react portfolio &amp; deploy
+2. rewrite resume</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>#########################################################################################
+1、5k everyday，then do extra thing。100k every month -》10 year 30m commitment
+2、every second consist of life，money can be back time not
+3、be positive，be concentrated(dont feel time), be postive
+4. accelerate anything predict, once target set, must finish
+#########################################################################################</t>
   </si>
   <si>
     <r>
@@ -340,25 +406,6 @@
   </si>
   <si>
     <t>2.react --50%</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1、300 words
-2、oral practise </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-3、1 listen test
-4、0.5h attentive listen
-5、1h tech listen
-</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">1.waste in absentminded
@@ -3075,7 +3122,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-409]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3130,6 +3177,14 @@
     <font>
       <strike/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3687,137 +3742,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3980,8 +4035,14 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4259,6 +4320,53 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2089150</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>67945</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6825615" y="13103860"/>
+          <a:ext cx="3931285" cy="2026285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4557,8 +4665,8 @@
   <sheetPr/>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:E26"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -4599,9 +4707,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="86" customHeight="1" spans="1:6">
-      <c r="A3" s="20">
-        <v>45627</v>
+    <row r="3" ht="196" customHeight="1" spans="1:6">
+      <c r="A3" s="9">
+        <v>45658</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>6</v>
@@ -4609,7 +4717,7 @@
       <c r="C3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="39" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="47"/>
@@ -4617,403 +4725,269 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="84" spans="1:6">
+    <row r="4" spans="1:6">
       <c r="A4" s="20">
-        <v>45628</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="39" t="s">
+        <v>45659</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="48"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="41"/>
     </row>
-    <row r="5" ht="70" spans="1:6">
+    <row r="5" spans="1:6">
       <c r="A5" s="20">
-        <v>45629</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="40" t="s">
+        <v>45660</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="E5" s="47"/>
+      <c r="F5" s="41"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="9">
+        <v>45661</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="47"/>
+      <c r="F6" s="41"/>
+    </row>
+    <row r="7" ht="73" customHeight="1" spans="1:6">
+      <c r="A7" s="9">
+        <v>45662</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" ht="70" spans="1:6">
-      <c r="A6" s="20">
-        <v>45630</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="41"/>
-    </row>
-    <row r="7" ht="84" spans="1:6">
-      <c r="A7" s="20">
-        <v>45631</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="46"/>
       <c r="E7" s="47"/>
       <c r="F7" s="43"/>
     </row>
-    <row r="8" ht="84" spans="1:6">
+    <row r="8" ht="65" customHeight="1" spans="1:6">
       <c r="A8" s="20">
-        <v>45632</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="48"/>
+        <v>45663</v>
+      </c>
+      <c r="B8" s="39"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="43"/>
     </row>
-    <row r="9" ht="84" spans="1:6">
-      <c r="A9" s="9">
-        <v>45633</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" ht="84" spans="1:6">
-      <c r="A10" s="9">
-        <v>45634</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="48"/>
+    <row r="9" spans="1:6">
+      <c r="A9" s="20">
+        <v>45664</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="49"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="20">
+        <v>45665</v>
+      </c>
+      <c r="B10" s="39"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="43"/>
     </row>
-    <row r="11" ht="84" spans="1:6">
+    <row r="11" spans="1:6">
       <c r="A11" s="20">
-        <v>45635</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>21</v>
-      </c>
+        <v>45666</v>
+      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="48"/>
       <c r="F11" s="43"/>
     </row>
-    <row r="12" ht="84" spans="1:6">
+    <row r="12" spans="1:6">
       <c r="A12" s="20">
-        <v>45636</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>22</v>
-      </c>
+        <v>45667</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="48"/>
       <c r="F12" s="43"/>
     </row>
-    <row r="13" ht="84" spans="1:6">
-      <c r="A13" s="20">
-        <v>45637</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>23</v>
-      </c>
+    <row r="13" spans="1:6">
+      <c r="A13" s="9">
+        <v>45668</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="48"/>
       <c r="F13" s="43"/>
     </row>
-    <row r="14" ht="84" spans="1:6">
-      <c r="A14" s="20">
-        <v>45638</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="51"/>
+    <row r="14" spans="1:6">
+      <c r="A14" s="9">
+        <v>45669</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
       <c r="F14" s="43"/>
     </row>
-    <row r="15" ht="84" spans="1:6">
+    <row r="15" spans="1:6">
       <c r="A15" s="20">
-        <v>45639</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="47"/>
+        <v>45670</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="48"/>
       <c r="F15" s="43"/>
     </row>
-    <row r="16" ht="84" spans="1:6">
-      <c r="A16" s="9">
-        <v>45640</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>26</v>
-      </c>
+    <row r="16" spans="1:6">
+      <c r="A16" s="20">
+        <v>45671</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="48"/>
       <c r="F16" s="43"/>
     </row>
-    <row r="17" ht="84" spans="1:6">
-      <c r="A17" s="9">
-        <v>45641</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="51"/>
+    <row r="17" spans="1:6">
+      <c r="A17" s="20">
+        <v>45672</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
       <c r="F17" s="41"/>
     </row>
-    <row r="18" ht="84" spans="1:6">
+    <row r="18" spans="1:6">
       <c r="A18" s="20">
-        <v>45642</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="47"/>
+        <v>45673</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="48"/>
       <c r="F18" s="41"/>
     </row>
-    <row r="19" ht="84" spans="1:6">
+    <row r="19" spans="1:6">
       <c r="A19" s="20">
-        <v>45643</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="47"/>
+        <v>45674</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="48"/>
       <c r="F19" s="41"/>
     </row>
-    <row r="20" ht="84" spans="1:6">
-      <c r="A20" s="20">
-        <v>45644</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="47"/>
+    <row r="20" spans="1:6">
+      <c r="A20" s="9">
+        <v>45675</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="41"/>
     </row>
     <row r="21" ht="40" customHeight="1" spans="1:6">
-      <c r="A21" s="20">
-        <v>45645</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="47"/>
+      <c r="A21" s="9">
+        <v>45676</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="48"/>
       <c r="F21" s="43"/>
     </row>
     <row r="22" ht="45" customHeight="1" spans="1:6">
       <c r="A22" s="20">
-        <v>45646</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="43"/>
+        <v>45677</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="43" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="23" ht="66" customHeight="1" spans="1:6">
-      <c r="A23" s="9">
-        <v>45647</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="41" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" ht="84" spans="1:6">
-      <c r="A24" s="9">
-        <v>45648</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="47"/>
+      <c r="A23" s="20">
+        <v>45678</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="41"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="20">
+        <v>45679</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="48"/>
       <c r="F24" s="43"/>
     </row>
     <row r="25" ht="80" customHeight="1" spans="1:6">
       <c r="A25" s="20">
-        <v>45649</v>
-      </c>
-      <c r="B25" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="47"/>
+        <v>45680</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="48"/>
       <c r="F25" s="43"/>
     </row>
-    <row r="26" ht="98" spans="1:6">
+    <row r="26" spans="1:6">
       <c r="A26" s="20">
-        <v>45650</v>
-      </c>
-      <c r="B26" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="47"/>
-      <c r="F26" s="43" t="s">
-        <v>38</v>
-      </c>
+        <v>45681</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="43"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="20">
-        <v>45651</v>
+      <c r="A27" s="9">
+        <v>45682</v>
       </c>
       <c r="B27" s="39"/>
       <c r="C27" s="42"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="47"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="48"/>
       <c r="F27" s="43"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="20">
-        <v>45652</v>
+      <c r="A28" s="9">
+        <v>45683</v>
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="40"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="47"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="48"/>
       <c r="F28" s="43"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="20">
-        <v>45653</v>
+        <v>45684</v>
       </c>
       <c r="B29" s="39"/>
       <c r="C29" s="42"/>
@@ -5022,8 +4996,8 @@
       <c r="F29" s="43"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="9">
-        <v>45654</v>
+      <c r="A30" s="20">
+        <v>45685</v>
       </c>
       <c r="B30" s="39"/>
       <c r="C30" s="42"/>
@@ -5032,8 +5006,8 @@
       <c r="F30" s="43"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="9">
-        <v>45655</v>
+      <c r="A31" s="20">
+        <v>45686</v>
       </c>
       <c r="B31" s="39"/>
       <c r="C31" s="42"/>
@@ -5043,7 +5017,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="20">
-        <v>45656</v>
+        <v>45687</v>
       </c>
       <c r="B32" s="39"/>
       <c r="C32" s="42"/>
@@ -5053,25 +5027,25 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="20">
-        <v>45657</v>
+        <v>45688</v>
       </c>
       <c r="B33" s="52"/>
       <c r="C33" s="52"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="54"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="52"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="54"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="52"/>
       <c r="C34" s="52"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="54"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="52"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -5117,13 +5091,13 @@
     </row>
     <row r="42" customFormat="1" spans="1:4">
       <c r="A42" s="14"/>
-      <c r="B42"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="23"/>
       <c r="D42" s="14"/>
     </row>
     <row r="43" customFormat="1" spans="1:4">
       <c r="A43" s="14"/>
-      <c r="B43"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="23"/>
       <c r="D43" s="14"/>
     </row>
@@ -5174,6 +5148,625 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.3636363636364" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="29.9090909090909" style="23" customWidth="1"/>
+    <col min="4" max="4" width="35.5454545454545" customWidth="1"/>
+    <col min="5" max="5" width="26.4545454545455" customWidth="1"/>
+    <col min="6" max="6" width="34.6363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="67" customHeight="1" spans="1:6">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+    </row>
+    <row r="2" ht="50" customHeight="1" spans="1:6">
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="86" customHeight="1" spans="1:6">
+      <c r="A3" s="20">
+        <v>45627</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="47"/>
+      <c r="F3" s="41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="84" spans="1:6">
+      <c r="A4" s="20">
+        <v>45628</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="48"/>
+      <c r="F4" s="41"/>
+    </row>
+    <row r="5" ht="70" spans="1:6">
+      <c r="A5" s="20">
+        <v>45629</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="48"/>
+      <c r="F5" s="41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" ht="70" spans="1:6">
+      <c r="A6" s="20">
+        <v>45630</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="48"/>
+      <c r="F6" s="41"/>
+    </row>
+    <row r="7" ht="84" spans="1:6">
+      <c r="A7" s="20">
+        <v>45631</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="43"/>
+    </row>
+    <row r="8" ht="84" spans="1:6">
+      <c r="A8" s="20">
+        <v>45632</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="48"/>
+      <c r="F8" s="43"/>
+    </row>
+    <row r="9" ht="84" spans="1:6">
+      <c r="A9" s="9">
+        <v>45633</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" ht="84" spans="1:6">
+      <c r="A10" s="9">
+        <v>45634</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="48"/>
+      <c r="F10" s="43"/>
+    </row>
+    <row r="11" ht="84" spans="1:6">
+      <c r="A11" s="20">
+        <v>45635</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="48"/>
+      <c r="F11" s="43"/>
+    </row>
+    <row r="12" ht="84" spans="1:6">
+      <c r="A12" s="20">
+        <v>45636</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="48"/>
+      <c r="F12" s="43"/>
+    </row>
+    <row r="13" ht="84" spans="1:6">
+      <c r="A13" s="20">
+        <v>45637</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="48"/>
+      <c r="F13" s="43"/>
+    </row>
+    <row r="14" ht="84" spans="1:6">
+      <c r="A14" s="20">
+        <v>45638</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="51"/>
+      <c r="F14" s="43"/>
+    </row>
+    <row r="15" ht="84" spans="1:6">
+      <c r="A15" s="20">
+        <v>45639</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="47"/>
+      <c r="F15" s="43"/>
+    </row>
+    <row r="16" ht="84" spans="1:6">
+      <c r="A16" s="9">
+        <v>45640</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="48"/>
+      <c r="F16" s="43"/>
+    </row>
+    <row r="17" ht="84" spans="1:6">
+      <c r="A17" s="9">
+        <v>45641</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="51"/>
+      <c r="F17" s="41"/>
+    </row>
+    <row r="18" ht="84" spans="1:6">
+      <c r="A18" s="20">
+        <v>45642</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="47"/>
+      <c r="F18" s="41"/>
+    </row>
+    <row r="19" ht="84" spans="1:6">
+      <c r="A19" s="20">
+        <v>45643</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="47"/>
+      <c r="F19" s="41"/>
+    </row>
+    <row r="20" ht="84" spans="1:6">
+      <c r="A20" s="20">
+        <v>45644</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="47"/>
+      <c r="F20" s="41"/>
+    </row>
+    <row r="21" ht="40" customHeight="1" spans="1:6">
+      <c r="A21" s="20">
+        <v>45645</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="47"/>
+      <c r="F21" s="43"/>
+    </row>
+    <row r="22" ht="45" customHeight="1" spans="1:6">
+      <c r="A22" s="20">
+        <v>45646</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="47"/>
+      <c r="F22" s="43"/>
+    </row>
+    <row r="23" ht="66" customHeight="1" spans="1:6">
+      <c r="A23" s="9">
+        <v>45647</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="47"/>
+      <c r="F23" s="41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" ht="84" spans="1:6">
+      <c r="A24" s="9">
+        <v>45648</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="47"/>
+      <c r="F24" s="43"/>
+    </row>
+    <row r="25" ht="80" customHeight="1" spans="1:6">
+      <c r="A25" s="20">
+        <v>45649</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="47"/>
+      <c r="F25" s="43"/>
+    </row>
+    <row r="26" ht="98" spans="1:6">
+      <c r="A26" s="20">
+        <v>45650</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="47"/>
+      <c r="F26" s="43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="20">
+        <v>45651</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="43"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="20">
+        <v>45652</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="43"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="20">
+        <v>45653</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="43"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="9">
+        <v>45654</v>
+      </c>
+      <c r="B30" s="39"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="43"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="9">
+        <v>45655</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="43"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="20">
+        <v>45656</v>
+      </c>
+      <c r="B32" s="39"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="43"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="20">
+        <v>45657</v>
+      </c>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="52"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="52"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="52"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" customFormat="1" spans="1:4">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+    </row>
+    <row r="37" customFormat="1" spans="1:4">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+    </row>
+    <row r="38" customFormat="1" spans="1:4">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" customFormat="1" spans="1:4">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+    </row>
+    <row r="40" customFormat="1" spans="1:4">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+    </row>
+    <row r="41" customFormat="1" spans="1:4">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+    </row>
+    <row r="42" customFormat="1" spans="1:4">
+      <c r="A42" s="14"/>
+      <c r="B42"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="14"/>
+    </row>
+    <row r="43" customFormat="1" spans="1:4">
+      <c r="A43" s="14"/>
+      <c r="B43"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A35:D43"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5192,7 +5785,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -5211,10 +5804,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -5228,13 +5821,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F3" s="41"/>
     </row>
@@ -5246,13 +5839,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F4" s="41"/>
     </row>
@@ -5264,13 +5857,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F5" s="41"/>
     </row>
@@ -5282,13 +5875,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F6" s="41"/>
     </row>
@@ -5300,13 +5893,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F7" s="43"/>
     </row>
@@ -5318,13 +5911,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F8" s="43"/>
     </row>
@@ -5336,13 +5929,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F9" s="43"/>
     </row>
@@ -5354,13 +5947,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F10" s="43"/>
     </row>
@@ -5372,13 +5965,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F11" s="43"/>
     </row>
@@ -5390,13 +5983,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F12" s="43"/>
     </row>
@@ -5408,13 +6001,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F13" s="43"/>
     </row>
@@ -5426,13 +6019,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F14" s="43"/>
     </row>
@@ -5444,13 +6037,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F15" s="43"/>
     </row>
@@ -5462,13 +6055,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F16" s="43"/>
     </row>
@@ -5480,13 +6073,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F17" s="41"/>
     </row>
@@ -5498,13 +6091,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F18" s="41"/>
     </row>
@@ -5516,13 +6109,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F19" s="41"/>
     </row>
@@ -5534,13 +6127,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F20" s="41"/>
     </row>
@@ -5552,13 +6145,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F21" s="43"/>
     </row>
@@ -5570,13 +6163,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F22" s="43"/>
     </row>
@@ -5588,13 +6181,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F23" s="43"/>
     </row>
@@ -5606,13 +6199,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F24" s="43"/>
     </row>
@@ -5624,13 +6217,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F25" s="43"/>
     </row>
@@ -5642,31 +6235,31 @@
         <v>6</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F26" s="43"/>
     </row>
     <row r="27" ht="84" spans="1:6">
       <c r="A27" s="9" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B27" s="39" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F27" s="43"/>
     </row>
@@ -5678,13 +6271,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F28" s="43"/>
     </row>
@@ -5696,13 +6289,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F29" s="43"/>
     </row>
@@ -5714,13 +6307,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F30" s="43"/>
     </row>
@@ -5732,13 +6325,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F31" s="43"/>
     </row>
@@ -5750,19 +6343,19 @@
         <v>6</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F32" s="43"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="14" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -5828,7 +6421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F43"/>
@@ -5849,7 +6442,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -5868,10 +6461,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -5882,16 +6475,16 @@
         <v>45566</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -5900,19 +6493,19 @@
         <v>45567</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" ht="70" spans="1:6">
@@ -5923,13 +6516,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -5941,13 +6534,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F6" s="8"/>
     </row>
@@ -5959,13 +6552,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -5977,13 +6570,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -5995,10 +6588,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="8"/>
@@ -6011,10 +6604,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="8"/>
@@ -6027,10 +6620,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="8"/>
@@ -6043,10 +6636,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="8"/>
@@ -6059,13 +6652,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -6077,13 +6670,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -6095,13 +6688,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -6113,13 +6706,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -6131,13 +6724,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -6149,13 +6742,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -6167,13 +6760,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -6185,13 +6778,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -6203,13 +6796,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -6221,13 +6814,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D22" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>102</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>95</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -6239,13 +6832,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -6257,13 +6850,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -6275,13 +6868,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -6293,13 +6886,13 @@
         <v>6</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -6311,13 +6904,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -6329,13 +6922,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -6347,13 +6940,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -6365,13 +6958,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -6383,13 +6976,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -6401,13 +6994,13 @@
         <v>6</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -6419,13 +7012,13 @@
         <v>6</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F33" s="14"/>
     </row>
@@ -6437,19 +7030,19 @@
         <v>6</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -6515,7 +7108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F41"/>
@@ -6536,7 +7129,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -6555,10 +7148,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -6572,13 +7165,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -6590,13 +7183,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F4" s="11"/>
     </row>
@@ -6608,13 +7201,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -6626,16 +7219,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" ht="56" spans="1:6">
@@ -6646,16 +7239,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" ht="56" spans="1:6">
@@ -6666,16 +7259,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" ht="70" spans="1:6">
@@ -6683,19 +7276,19 @@
         <v>45542</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C9" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="35" t="s">
-        <v>117</v>
-      </c>
       <c r="E9" s="11" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" ht="70" spans="1:6">
@@ -6706,16 +7299,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D10" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>120</v>
-      </c>
       <c r="F10" s="8" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" ht="56" spans="1:6">
@@ -6726,16 +7319,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" ht="56" spans="1:6">
@@ -6746,16 +7339,16 @@
         <v>6</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" ht="56" spans="1:6">
@@ -6766,16 +7359,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" ht="56" spans="1:6">
@@ -6786,16 +7379,16 @@
         <v>6</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" ht="56" spans="1:6">
@@ -6803,16 +7396,16 @@
         <v>45548</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -6824,13 +7417,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -6842,13 +7435,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -6860,13 +7453,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -6878,13 +7471,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -6893,16 +7486,16 @@
         <v>45553</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -6911,16 +7504,16 @@
         <v>45554</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -6929,16 +7522,16 @@
         <v>45555</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -6947,16 +7540,16 @@
         <v>45556</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -6968,13 +7561,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -6986,13 +7579,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -7004,13 +7597,13 @@
         <v>6</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -7022,13 +7615,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -7040,13 +7633,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -7058,13 +7651,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -7076,13 +7669,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -7094,13 +7687,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -7112,13 +7705,13 @@
         <v>6</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -7188,7 +7781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F42"/>
@@ -7209,7 +7802,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -7228,10 +7821,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -7251,10 +7844,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -7271,10 +7864,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:6">
@@ -7291,10 +7884,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7311,10 +7904,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7332,7 +7925,7 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7350,7 +7943,7 @@
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="8" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -7367,10 +7960,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7388,7 +7981,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -7406,7 +7999,7 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:6">
@@ -7423,10 +8016,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" ht="42" spans="1:6">
@@ -7443,10 +8036,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" ht="42" spans="1:6">
@@ -7463,10 +8056,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" ht="42" spans="1:6">
@@ -7483,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" ht="42" spans="1:6">
@@ -7503,10 +8096,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" ht="42" spans="1:6">
@@ -7523,10 +8116,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -7543,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" ht="42" spans="1:6">
@@ -7563,10 +8156,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" ht="42" spans="1:6">
@@ -7583,10 +8176,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" ht="42" spans="1:6">
@@ -7603,10 +8196,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" ht="42" spans="1:6">
@@ -7623,10 +8216,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" ht="42" spans="1:6">
@@ -7643,10 +8236,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" ht="42" spans="1:6">
@@ -7663,10 +8256,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" ht="42" spans="1:6">
@@ -7683,10 +8276,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" ht="42" spans="1:6">
@@ -7703,10 +8296,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" ht="42" spans="1:6">
@@ -7723,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -7741,7 +8334,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -7759,7 +8352,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -7777,7 +8370,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -7795,7 +8388,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -7813,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -7831,13 +8424,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -7903,7 +8496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H42"/>
@@ -7926,7 +8519,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7938,25 +8531,25 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>5</v>
@@ -8070,7 +8663,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -8094,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="H8" s="8"/>
     </row>
@@ -8162,7 +8755,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="H11" s="10"/>
     </row>
@@ -8208,7 +8801,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="H13" s="8"/>
     </row>
@@ -8232,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="H14" s="8"/>
     </row>
@@ -8256,7 +8849,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="H15" s="8"/>
     </row>
@@ -8280,7 +8873,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="H16" s="8"/>
     </row>
@@ -8326,7 +8919,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -8394,7 +8987,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="H21" s="8"/>
     </row>
@@ -8418,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="H22" s="8"/>
     </row>
@@ -8442,7 +9035,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="H23" s="8"/>
     </row>
@@ -8487,7 +9080,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="H25" s="8"/>
     </row>
@@ -8511,7 +9104,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="H26" s="8"/>
     </row>
@@ -8535,7 +9128,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="H27" s="8"/>
     </row>
@@ -8556,7 +9149,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -8578,10 +9171,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="H29" s="8"/>
     </row>
@@ -8602,7 +9195,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -8685,7 +9278,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -8759,7 +9352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F41"/>
@@ -8780,7 +9373,7 @@
   <sheetData>
     <row r="1" ht="48" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8790,19 +9383,19 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -8893,15 +9486,15 @@
         <v>45452</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="10" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -8909,10 +9502,10 @@
         <v>45453</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -8923,14 +9516,14 @@
         <v>45454</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -8939,14 +9532,14 @@
         <v>45455</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -8955,14 +9548,14 @@
         <v>45456</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -8971,14 +9564,14 @@
         <v>45457</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -8987,17 +9580,17 @@
         <v>45458</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -9005,14 +9598,14 @@
         <v>45459</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -9021,14 +9614,14 @@
         <v>45460</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -9037,10 +9630,10 @@
         <v>45461</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -9051,14 +9644,14 @@
         <v>45462</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -9067,14 +9660,14 @@
         <v>45463</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -9083,14 +9676,14 @@
         <v>45464</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -9099,16 +9692,16 @@
         <v>45465</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D24" s="11">
         <v>2</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -9129,14 +9722,14 @@
         <v>45467</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -9145,10 +9738,10 @@
         <v>45468</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="D27" s="8">
         <v>2</v>
@@ -9161,10 +9754,10 @@
         <v>45469</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
@@ -9177,10 +9770,10 @@
         <v>45470</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
@@ -9193,10 +9786,10 @@
         <v>45471</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -9210,11 +9803,11 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -9226,19 +9819,19 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D32" s="8">
         <v>1</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="F32" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>

--- a/00-doc/src/00_todo/00_todo.xlsx
+++ b/00-doc/src/00_todo/00_todo.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="254">
   <si>
     <t>month goals：
 1、oral、listen everyday
@@ -63,6 +63,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">1、300 words
 2、0.5 listen test
 </t>
@@ -80,6 +86,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1、vue</t>
     </r>
     <r>
@@ -106,13 +119,17 @@
 2.docker &amp; k8s</t>
   </si>
   <si>
-    <t>1. react project 1</t>
-  </si>
-  <si>
-    <t>1. react project 2</t>
-  </si>
-  <si>
-    <t>1. react portfolio &amp; deploy
+    <t>1. vue project 1</t>
+  </si>
+  <si>
+    <t>1. vue project zhenxuan  -&gt; 42e</t>
+  </si>
+  <si>
+    <t>1. vue project zhenxuan  -&gt; 52e</t>
+  </si>
+  <si>
+    <t>1. vue project zhenxuan  -&gt; 64e
+1. react portfolio &amp; deploy
 2. rewrite resume</t>
   </si>
   <si>
@@ -4666,7 +4683,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
+      <selection activeCell="D8" sqref="D8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -4738,7 +4755,7 @@
       <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="20">
+      <c r="A5" s="9">
         <v>45660</v>
       </c>
       <c r="B5" s="39"/>
@@ -4756,7 +4773,7 @@
       <c r="B6" s="39"/>
       <c r="C6" s="42"/>
       <c r="D6" s="46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" s="47"/>
       <c r="F6" s="41"/>
@@ -4768,7 +4785,7 @@
       <c r="B7" s="39"/>
       <c r="C7" s="42"/>
       <c r="D7" s="46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="47"/>
       <c r="F7" s="43"/>
@@ -4922,7 +4939,7 @@
       <c r="D22" s="39"/>
       <c r="E22" s="48"/>
       <c r="F22" s="43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" ht="66" customHeight="1" spans="1:6">
@@ -5045,7 +5062,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -5200,14 +5217,14 @@
         <v>6</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="84" spans="1:6">
@@ -5218,10 +5235,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="41"/>
@@ -5234,14 +5251,14 @@
         <v>6</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="70" spans="1:6">
@@ -5252,10 +5269,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="41"/>
@@ -5268,7 +5285,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="46"/>
       <c r="E7" s="47"/>
@@ -5282,10 +5299,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="43"/>
@@ -5298,14 +5315,14 @@
         <v>6</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" ht="84" spans="1:6">
@@ -5316,10 +5333,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="43"/>
@@ -5332,10 +5349,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="43"/>
@@ -5348,10 +5365,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="43"/>
@@ -5364,10 +5381,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="43"/>
@@ -5380,10 +5397,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" s="51"/>
       <c r="F14" s="43"/>
@@ -5396,10 +5413,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" s="47"/>
       <c r="F15" s="43"/>
@@ -5412,10 +5429,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="43"/>
@@ -5428,10 +5445,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E17" s="51"/>
       <c r="F17" s="41"/>
@@ -5444,10 +5461,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" s="47"/>
       <c r="F18" s="41"/>
@@ -5460,10 +5477,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" s="47"/>
       <c r="F19" s="41"/>
@@ -5476,10 +5493,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" s="47"/>
       <c r="F20" s="41"/>
@@ -5492,10 +5509,10 @@
         <v>6</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E21" s="47"/>
       <c r="F21" s="43"/>
@@ -5508,10 +5525,10 @@
         <v>6</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E22" s="47"/>
       <c r="F22" s="43"/>
@@ -5524,14 +5541,14 @@
         <v>6</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E23" s="47"/>
       <c r="F23" s="41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" ht="84" spans="1:6">
@@ -5542,10 +5559,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E24" s="47"/>
       <c r="F24" s="43"/>
@@ -5558,10 +5575,10 @@
         <v>6</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E25" s="47"/>
       <c r="F25" s="43"/>
@@ -5574,14 +5591,14 @@
         <v>6</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" s="47"/>
       <c r="F26" s="43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5664,7 +5681,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -5785,7 +5802,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -5804,10 +5821,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -5821,13 +5838,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F3" s="41"/>
     </row>
@@ -5839,13 +5856,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F4" s="41"/>
     </row>
@@ -5857,13 +5874,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F5" s="41"/>
     </row>
@@ -5875,13 +5892,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F6" s="41"/>
     </row>
@@ -5893,13 +5910,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F7" s="43"/>
     </row>
@@ -5911,13 +5928,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F8" s="43"/>
     </row>
@@ -5929,13 +5946,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F9" s="43"/>
     </row>
@@ -5947,13 +5964,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10" s="43"/>
     </row>
@@ -5965,13 +5982,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F11" s="43"/>
     </row>
@@ -5983,13 +6000,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F12" s="43"/>
     </row>
@@ -6001,13 +6018,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F13" s="43"/>
     </row>
@@ -6019,13 +6036,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F14" s="43"/>
     </row>
@@ -6037,13 +6054,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="43"/>
     </row>
@@ -6055,13 +6072,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F16" s="43"/>
     </row>
@@ -6073,13 +6090,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F17" s="41"/>
     </row>
@@ -6091,13 +6108,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F18" s="41"/>
     </row>
@@ -6109,13 +6126,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F19" s="41"/>
     </row>
@@ -6127,13 +6144,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F20" s="41"/>
     </row>
@@ -6145,13 +6162,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="43"/>
     </row>
@@ -6163,13 +6180,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F22" s="43"/>
     </row>
@@ -6181,13 +6198,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" s="43"/>
     </row>
@@ -6199,13 +6216,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F24" s="43"/>
     </row>
@@ -6217,13 +6234,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F25" s="43"/>
     </row>
@@ -6235,31 +6252,31 @@
         <v>6</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F26" s="43"/>
     </row>
     <row r="27" ht="84" spans="1:6">
       <c r="A27" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="41" t="s">
         <v>60</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>59</v>
       </c>
       <c r="F27" s="43"/>
     </row>
@@ -6271,13 +6288,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F28" s="43"/>
     </row>
@@ -6289,13 +6306,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F29" s="43"/>
     </row>
@@ -6307,13 +6324,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" s="43"/>
     </row>
@@ -6325,13 +6342,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F31" s="43"/>
     </row>
@@ -6343,19 +6360,19 @@
         <v>6</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F32" s="43"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -6442,7 +6459,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -6461,10 +6478,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -6475,16 +6492,16 @@
         <v>45566</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -6493,19 +6510,19 @@
         <v>45567</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" ht="70" spans="1:6">
@@ -6516,13 +6533,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -6534,13 +6551,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F6" s="8"/>
     </row>
@@ -6552,13 +6569,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -6570,13 +6587,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -6588,10 +6605,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="8"/>
@@ -6604,10 +6621,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="8"/>
@@ -6620,10 +6637,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="8"/>
@@ -6636,10 +6653,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="8"/>
@@ -6652,13 +6669,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -6670,13 +6687,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -6688,13 +6705,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -6706,13 +6723,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -6724,13 +6741,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -6742,13 +6759,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -6760,13 +6777,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="33" t="s">
-        <v>109</v>
-      </c>
       <c r="E19" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -6778,13 +6795,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="33" t="s">
-        <v>109</v>
-      </c>
       <c r="E20" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -6796,13 +6813,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="33" t="s">
-        <v>109</v>
-      </c>
       <c r="E21" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -6814,13 +6831,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -6832,13 +6849,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -6850,13 +6867,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -6868,13 +6885,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -6886,13 +6903,13 @@
         <v>6</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -6904,13 +6921,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -6922,13 +6939,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -6940,13 +6957,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -6958,13 +6975,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -6976,13 +6993,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -6994,13 +7011,13 @@
         <v>6</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -7012,13 +7029,13 @@
         <v>6</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F33" s="14"/>
     </row>
@@ -7030,19 +7047,19 @@
         <v>6</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -7129,7 +7146,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -7148,10 +7165,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -7165,13 +7182,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -7183,13 +7200,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F4" s="11"/>
     </row>
@@ -7201,13 +7218,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>124</v>
-      </c>
       <c r="E5" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -7219,16 +7236,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="35" t="s">
-        <v>124</v>
-      </c>
       <c r="E6" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" ht="56" spans="1:6">
@@ -7239,16 +7256,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="35" t="s">
-        <v>124</v>
-      </c>
       <c r="E7" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" ht="56" spans="1:6">
@@ -7259,16 +7276,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D8" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="9" ht="70" spans="1:6">
@@ -7276,19 +7293,19 @@
         <v>45542</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" ht="70" spans="1:6">
@@ -7299,16 +7316,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="11" ht="56" spans="1:6">
@@ -7319,16 +7336,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" ht="56" spans="1:6">
@@ -7339,16 +7356,16 @@
         <v>6</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" ht="56" spans="1:6">
@@ -7359,16 +7376,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="14" ht="56" spans="1:6">
@@ -7379,16 +7396,16 @@
         <v>6</v>
       </c>
       <c r="C14" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="15" ht="56" spans="1:6">
@@ -7396,16 +7413,16 @@
         <v>45548</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -7417,13 +7434,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -7435,13 +7452,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -7453,13 +7470,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -7471,13 +7488,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -7486,16 +7503,16 @@
         <v>45553</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -7504,16 +7521,16 @@
         <v>45554</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -7522,16 +7539,16 @@
         <v>45555</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -7540,16 +7557,16 @@
         <v>45556</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -7561,13 +7578,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -7579,13 +7596,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -7597,13 +7614,13 @@
         <v>6</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -7615,13 +7632,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -7633,13 +7650,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -7651,13 +7668,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -7669,13 +7686,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -7687,13 +7704,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -7705,13 +7722,13 @@
         <v>6</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -7802,7 +7819,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -7821,10 +7838,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -7844,10 +7861,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -7864,10 +7881,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:6">
@@ -7884,10 +7901,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7904,10 +7921,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7925,7 +7942,7 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7943,7 +7960,7 @@
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -7960,10 +7977,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>188</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7981,7 +7998,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -7999,7 +8016,7 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:6">
@@ -8016,10 +8033,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" ht="42" spans="1:6">
@@ -8036,10 +8053,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" ht="42" spans="1:6">
@@ -8056,10 +8073,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" ht="42" spans="1:6">
@@ -8076,10 +8093,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" ht="42" spans="1:6">
@@ -8096,10 +8113,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" ht="42" spans="1:6">
@@ -8116,10 +8133,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -8136,10 +8153,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" ht="42" spans="1:6">
@@ -8156,10 +8173,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>194</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="20" ht="42" spans="1:6">
@@ -8176,10 +8193,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" ht="42" spans="1:6">
@@ -8196,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" ht="42" spans="1:6">
@@ -8216,10 +8233,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" ht="42" spans="1:6">
@@ -8236,10 +8253,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" ht="42" spans="1:6">
@@ -8256,10 +8273,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" ht="42" spans="1:6">
@@ -8276,10 +8293,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" ht="42" spans="1:6">
@@ -8296,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="27" ht="42" spans="1:6">
@@ -8316,7 +8333,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -8334,7 +8351,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -8352,7 +8369,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -8370,7 +8387,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -8388,7 +8405,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -8406,7 +8423,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -8424,13 +8441,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -8519,7 +8536,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8531,25 +8548,25 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>5</v>
@@ -8663,7 +8680,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -8687,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H8" s="8"/>
     </row>
@@ -8755,7 +8772,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H11" s="10"/>
     </row>
@@ -8801,7 +8818,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H13" s="8"/>
     </row>
@@ -8825,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H14" s="8"/>
     </row>
@@ -8849,7 +8866,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H15" s="8"/>
     </row>
@@ -8873,7 +8890,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H16" s="8"/>
     </row>
@@ -8919,7 +8936,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -8987,7 +9004,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H21" s="8"/>
     </row>
@@ -9011,7 +9028,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H22" s="8"/>
     </row>
@@ -9035,7 +9052,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H23" s="8"/>
     </row>
@@ -9080,7 +9097,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H25" s="8"/>
     </row>
@@ -9104,7 +9121,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H26" s="8"/>
     </row>
@@ -9128,7 +9145,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H27" s="8"/>
     </row>
@@ -9149,7 +9166,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -9171,10 +9188,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H29" s="8"/>
     </row>
@@ -9195,7 +9212,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -9278,7 +9295,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -9373,7 +9390,7 @@
   <sheetData>
     <row r="1" ht="48" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9383,19 +9400,19 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -9486,15 +9503,15 @@
         <v>45452</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -9502,10 +9519,10 @@
         <v>45453</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -9516,14 +9533,14 @@
         <v>45454</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -9532,14 +9549,14 @@
         <v>45455</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -9548,14 +9565,14 @@
         <v>45456</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -9564,14 +9581,14 @@
         <v>45457</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -9580,17 +9597,17 @@
         <v>45458</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -9598,14 +9615,14 @@
         <v>45459</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -9614,14 +9631,14 @@
         <v>45460</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -9630,10 +9647,10 @@
         <v>45461</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -9644,14 +9661,14 @@
         <v>45462</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -9660,14 +9677,14 @@
         <v>45463</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -9676,14 +9693,14 @@
         <v>45464</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -9692,16 +9709,16 @@
         <v>45465</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D24" s="11">
         <v>2</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -9722,14 +9739,14 @@
         <v>45467</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -9738,10 +9755,10 @@
         <v>45468</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D27" s="8">
         <v>2</v>
@@ -9754,10 +9771,10 @@
         <v>45469</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
@@ -9770,10 +9787,10 @@
         <v>45470</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
@@ -9786,10 +9803,10 @@
         <v>45471</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -9803,11 +9820,11 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -9819,19 +9836,19 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D32" s="8">
         <v>1</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F32" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>

--- a/00-doc/src/00_todo/00_todo.xlsx
+++ b/00-doc/src/00_todo/00_todo.xlsx
@@ -7,14 +7,15 @@
     <workbookView windowWidth="18350" windowHeight="8080"/>
   </bookViews>
   <sheets>
-    <sheet name="2025-01" sheetId="8" r:id="rId1"/>
-    <sheet name="2024-12" sheetId="7" r:id="rId2"/>
-    <sheet name="2024-11" sheetId="6" r:id="rId3"/>
-    <sheet name="2024-10" sheetId="5" r:id="rId4"/>
-    <sheet name="2024-09" sheetId="4" r:id="rId5"/>
-    <sheet name="2024-08" sheetId="3" r:id="rId6"/>
-    <sheet name="2024-07" sheetId="2" r:id="rId7"/>
-    <sheet name="2024-06" sheetId="1" r:id="rId8"/>
+    <sheet name="2025-02" sheetId="9" r:id="rId1"/>
+    <sheet name="2025-01" sheetId="8" r:id="rId2"/>
+    <sheet name="2024-12" sheetId="7" r:id="rId3"/>
+    <sheet name="2024-11" sheetId="6" r:id="rId4"/>
+    <sheet name="2024-10" sheetId="5" r:id="rId5"/>
+    <sheet name="2024-09" sheetId="4" r:id="rId6"/>
+    <sheet name="2024-08" sheetId="3" r:id="rId7"/>
+    <sheet name="2024-07" sheetId="2" r:id="rId8"/>
+    <sheet name="2024-06" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="256">
   <si>
     <t>month goals：
 1、oral、listen everyday
@@ -133,7 +134,10 @@
 2. rewrite resume</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>离职回家</t>
+  </si>
+  <si>
+    <t>研究crypto钱包</t>
   </si>
   <si>
     <t>#########################################################################################
@@ -142,6 +146,9 @@
 3、be positive，be concentrated(dont feel time), be postive
 4. accelerate anything predict, once target set, must finish
 #########################################################################################</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <r>
@@ -4400,6 +4407,53 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6825615" y="13103860"/>
+          <a:ext cx="3931285" cy="2026285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2089150</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>67945</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -4682,8 +4736,8 @@
   <sheetPr/>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:E8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -4726,7 +4780,7 @@
     </row>
     <row r="3" ht="196" customHeight="1" spans="1:6">
       <c r="A3" s="9">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>6</v>
@@ -4743,8 +4797,8 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="20">
-        <v>45659</v>
+      <c r="A4" s="9">
+        <v>45690</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="40"/>
@@ -4755,8 +4809,8 @@
       <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9">
-        <v>45660</v>
+      <c r="A5" s="20">
+        <v>45691</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
@@ -4767,8 +4821,8 @@
       <c r="F5" s="41"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="9">
-        <v>45661</v>
+      <c r="A6" s="20">
+        <v>45692</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="42"/>
@@ -4779,8 +4833,8 @@
       <c r="F6" s="41"/>
     </row>
     <row r="7" ht="73" customHeight="1" spans="1:6">
-      <c r="A7" s="9">
-        <v>45662</v>
+      <c r="A7" s="20">
+        <v>45693</v>
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="42"/>
@@ -4792,7 +4846,7 @@
     </row>
     <row r="8" ht="65" customHeight="1" spans="1:6">
       <c r="A8" s="20">
-        <v>45663</v>
+        <v>45694</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="42"/>
@@ -4802,27 +4856,27 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="20">
-        <v>45664</v>
+        <v>45695</v>
       </c>
       <c r="B9" s="39"/>
       <c r="C9" s="42"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="49"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="20">
-        <v>45665</v>
+      <c r="A10" s="9">
+        <v>45696</v>
       </c>
       <c r="B10" s="39"/>
       <c r="C10" s="42"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="48"/>
       <c r="F10" s="43"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="20">
-        <v>45666</v>
+      <c r="A11" s="9">
+        <v>45697</v>
       </c>
       <c r="B11" s="39"/>
       <c r="C11" s="42"/>
@@ -4832,7 +4886,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="20">
-        <v>45667</v>
+        <v>45698</v>
       </c>
       <c r="B12" s="39"/>
       <c r="C12" s="42"/>
@@ -4841,8 +4895,8 @@
       <c r="F12" s="43"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="9">
-        <v>45668</v>
+      <c r="A13" s="20">
+        <v>45699</v>
       </c>
       <c r="B13" s="39"/>
       <c r="C13" s="42"/>
@@ -4851,160 +4905,162 @@
       <c r="F13" s="43"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="9">
-        <v>45669</v>
+      <c r="A14" s="20">
+        <v>45700</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="42"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
       <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="20">
-        <v>45670</v>
+        <v>45701</v>
       </c>
       <c r="B15" s="39"/>
       <c r="C15" s="42"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="48"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
       <c r="F15" s="43"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="20">
-        <v>45671</v>
+        <v>45702</v>
       </c>
       <c r="B16" s="39"/>
       <c r="C16" s="42"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="48"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47"/>
       <c r="F16" s="43"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="20">
-        <v>45672</v>
+      <c r="A17" s="9">
+        <v>45703</v>
       </c>
       <c r="B17" s="39"/>
       <c r="C17" s="42"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="55"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="51"/>
       <c r="F17" s="41"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="20">
-        <v>45673</v>
+      <c r="A18" s="9">
+        <v>45704</v>
       </c>
       <c r="B18" s="39"/>
       <c r="C18" s="42"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="48"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="47"/>
       <c r="F18" s="41"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="20">
-        <v>45674</v>
+        <v>45705</v>
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="42"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="48"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="47"/>
       <c r="F19" s="41"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="9">
-        <v>45675</v>
+      <c r="A20" s="20">
+        <v>45706</v>
       </c>
       <c r="B20" s="39"/>
       <c r="C20" s="42"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="48"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="47"/>
       <c r="F20" s="41"/>
     </row>
     <row r="21" ht="40" customHeight="1" spans="1:6">
-      <c r="A21" s="9">
-        <v>45676</v>
+      <c r="A21" s="20">
+        <v>45707</v>
       </c>
       <c r="B21" s="39"/>
       <c r="C21" s="42"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="48"/>
+      <c r="D21" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="47"/>
       <c r="F21" s="43"/>
     </row>
     <row r="22" ht="45" customHeight="1" spans="1:6">
       <c r="A22" s="20">
-        <v>45677</v>
+        <v>45708</v>
       </c>
       <c r="B22" s="39"/>
       <c r="C22" s="42"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="43" t="s">
-        <v>14</v>
-      </c>
+      <c r="D22" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="47"/>
+      <c r="F22" s="43"/>
     </row>
     <row r="23" ht="66" customHeight="1" spans="1:6">
       <c r="A23" s="20">
-        <v>45678</v>
+        <v>45709</v>
       </c>
       <c r="B23" s="39"/>
       <c r="C23" s="42"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="48"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="47"/>
       <c r="F23" s="41"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="20">
-        <v>45679</v>
+      <c r="A24" s="9">
+        <v>45710</v>
       </c>
       <c r="B24" s="39"/>
       <c r="C24" s="42"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="48"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="47"/>
       <c r="F24" s="43"/>
     </row>
     <row r="25" ht="80" customHeight="1" spans="1:6">
-      <c r="A25" s="20">
-        <v>45680</v>
+      <c r="A25" s="9">
+        <v>45711</v>
       </c>
       <c r="B25" s="39"/>
       <c r="C25" s="42"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="48"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="47"/>
       <c r="F25" s="43"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="20">
-        <v>45681</v>
+        <v>45712</v>
       </c>
       <c r="B26" s="39"/>
       <c r="C26" s="40"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="48"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="47"/>
       <c r="F26" s="43"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="9">
-        <v>45682</v>
+      <c r="A27" s="20">
+        <v>45713</v>
       </c>
       <c r="B27" s="39"/>
       <c r="C27" s="42"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="48"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="47"/>
       <c r="F27" s="43"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="9">
-        <v>45683</v>
+      <c r="A28" s="20">
+        <v>45714</v>
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="40"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="48"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="47"/>
       <c r="F28" s="43"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="20">
-        <v>45684</v>
+        <v>45715</v>
       </c>
       <c r="B29" s="39"/>
       <c r="C29" s="42"/>
@@ -5014,7 +5070,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="20">
-        <v>45685</v>
+        <v>45716</v>
       </c>
       <c r="B30" s="39"/>
       <c r="C30" s="42"/>
@@ -5023,9 +5079,7 @@
       <c r="F30" s="43"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="20">
-        <v>45686</v>
-      </c>
+      <c r="A31" s="20"/>
       <c r="B31" s="39"/>
       <c r="C31" s="42"/>
       <c r="D31" s="46"/>
@@ -5033,9 +5087,7 @@
       <c r="F31" s="43"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="20">
-        <v>45687</v>
-      </c>
+      <c r="A32" s="20"/>
       <c r="B32" s="39"/>
       <c r="C32" s="42"/>
       <c r="D32" s="46"/>
@@ -5043,9 +5095,7 @@
       <c r="F32" s="43"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="20">
-        <v>45688</v>
-      </c>
+      <c r="A33" s="20"/>
       <c r="B33" s="52"/>
       <c r="C33" s="52"/>
       <c r="D33" s="56"/>
@@ -5062,7 +5112,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -5167,8 +5217,8 @@
   <sheetPr/>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:E8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -5209,421 +5259,287 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="86" customHeight="1" spans="1:6">
-      <c r="A3" s="20">
-        <v>45627</v>
+    <row r="3" ht="196" customHeight="1" spans="1:6">
+      <c r="A3" s="9">
+        <v>45658</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>8</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="41" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" ht="84" spans="1:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="20">
-        <v>45628</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="48"/>
+        <v>45659</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="47"/>
       <c r="F4" s="41"/>
     </row>
-    <row r="5" ht="70" spans="1:6">
-      <c r="A5" s="20">
-        <v>45629</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="41" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" ht="70" spans="1:6">
-      <c r="A6" s="20">
-        <v>45630</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="48"/>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9">
+        <v>45660</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="47"/>
+      <c r="F5" s="41"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="9">
+        <v>45661</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="47"/>
       <c r="F6" s="41"/>
     </row>
-    <row r="7" ht="84" spans="1:6">
-      <c r="A7" s="20">
-        <v>45631</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="46"/>
+    <row r="7" ht="73" customHeight="1" spans="1:6">
+      <c r="A7" s="9">
+        <v>45662</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="46" t="s">
+        <v>13</v>
+      </c>
       <c r="E7" s="47"/>
       <c r="F7" s="43"/>
     </row>
-    <row r="8" ht="84" spans="1:6">
+    <row r="8" ht="65" customHeight="1" spans="1:6">
       <c r="A8" s="20">
-        <v>45632</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="48"/>
+        <v>45663</v>
+      </c>
+      <c r="B8" s="39"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="43"/>
     </row>
-    <row r="9" ht="84" spans="1:6">
-      <c r="A9" s="9">
-        <v>45633</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" ht="84" spans="1:6">
-      <c r="A10" s="9">
-        <v>45634</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="48"/>
+    <row r="9" spans="1:6">
+      <c r="A9" s="20">
+        <v>45664</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="49"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="20">
+        <v>45665</v>
+      </c>
+      <c r="B10" s="39"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="43"/>
     </row>
-    <row r="11" ht="84" spans="1:6">
+    <row r="11" spans="1:6">
       <c r="A11" s="20">
-        <v>45635</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>30</v>
-      </c>
+        <v>45666</v>
+      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="48"/>
       <c r="F11" s="43"/>
     </row>
-    <row r="12" ht="84" spans="1:6">
+    <row r="12" spans="1:6">
       <c r="A12" s="20">
-        <v>45636</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>31</v>
-      </c>
+        <v>45667</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="48"/>
       <c r="F12" s="43"/>
     </row>
-    <row r="13" ht="84" spans="1:6">
-      <c r="A13" s="20">
-        <v>45637</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>32</v>
-      </c>
+    <row r="13" spans="1:6">
+      <c r="A13" s="9">
+        <v>45668</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="48"/>
       <c r="F13" s="43"/>
     </row>
-    <row r="14" ht="84" spans="1:6">
-      <c r="A14" s="20">
-        <v>45638</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="51"/>
+    <row r="14" spans="1:6">
+      <c r="A14" s="9">
+        <v>45669</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
       <c r="F14" s="43"/>
     </row>
-    <row r="15" ht="84" spans="1:6">
+    <row r="15" spans="1:6">
       <c r="A15" s="20">
-        <v>45639</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="47"/>
+        <v>45670</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="48"/>
       <c r="F15" s="43"/>
     </row>
-    <row r="16" ht="84" spans="1:6">
-      <c r="A16" s="9">
-        <v>45640</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>35</v>
-      </c>
+    <row r="16" spans="1:6">
+      <c r="A16" s="20">
+        <v>45671</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="48"/>
       <c r="F16" s="43"/>
     </row>
-    <row r="17" ht="84" spans="1:6">
-      <c r="A17" s="9">
-        <v>45641</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="51"/>
+    <row r="17" spans="1:6">
+      <c r="A17" s="20">
+        <v>45672</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
       <c r="F17" s="41"/>
     </row>
-    <row r="18" ht="84" spans="1:6">
+    <row r="18" spans="1:6">
       <c r="A18" s="20">
-        <v>45642</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="47"/>
+        <v>45673</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="48"/>
       <c r="F18" s="41"/>
     </row>
-    <row r="19" ht="84" spans="1:6">
+    <row r="19" spans="1:6">
       <c r="A19" s="20">
-        <v>45643</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="47"/>
+        <v>45674</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="48"/>
       <c r="F19" s="41"/>
     </row>
-    <row r="20" ht="84" spans="1:6">
-      <c r="A20" s="20">
-        <v>45644</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="47"/>
+    <row r="20" spans="1:6">
+      <c r="A20" s="9">
+        <v>45675</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="41"/>
     </row>
     <row r="21" ht="40" customHeight="1" spans="1:6">
-      <c r="A21" s="20">
-        <v>45645</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="47"/>
+      <c r="A21" s="9">
+        <v>45676</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="48"/>
       <c r="F21" s="43"/>
     </row>
     <row r="22" ht="45" customHeight="1" spans="1:6">
       <c r="A22" s="20">
-        <v>45646</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="43"/>
+        <v>45677</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="43" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="23" ht="66" customHeight="1" spans="1:6">
-      <c r="A23" s="9">
-        <v>45647</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" ht="84" spans="1:6">
-      <c r="A24" s="9">
-        <v>45648</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="47"/>
+      <c r="A23" s="20">
+        <v>45678</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="41"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="20">
+        <v>45679</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="48"/>
       <c r="F24" s="43"/>
     </row>
     <row r="25" ht="80" customHeight="1" spans="1:6">
       <c r="A25" s="20">
-        <v>45649</v>
-      </c>
-      <c r="B25" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="47"/>
+        <v>45680</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="48"/>
       <c r="F25" s="43"/>
     </row>
-    <row r="26" ht="98" spans="1:6">
+    <row r="26" spans="1:6">
       <c r="A26" s="20">
-        <v>45650</v>
-      </c>
-      <c r="B26" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="47"/>
-      <c r="F26" s="43" t="s">
-        <v>46</v>
-      </c>
+        <v>45681</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="43"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="20">
-        <v>45651</v>
+      <c r="A27" s="9">
+        <v>45682</v>
       </c>
       <c r="B27" s="39"/>
       <c r="C27" s="42"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="47"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="48"/>
       <c r="F27" s="43"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="20">
-        <v>45652</v>
+      <c r="A28" s="9">
+        <v>45683</v>
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="40"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="47"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="48"/>
       <c r="F28" s="43"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="20">
-        <v>45653</v>
+        <v>45684</v>
       </c>
       <c r="B29" s="39"/>
       <c r="C29" s="42"/>
@@ -5632,8 +5548,8 @@
       <c r="F29" s="43"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="9">
-        <v>45654</v>
+      <c r="A30" s="20">
+        <v>45685</v>
       </c>
       <c r="B30" s="39"/>
       <c r="C30" s="42"/>
@@ -5642,8 +5558,8 @@
       <c r="F30" s="43"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="9">
-        <v>45655</v>
+      <c r="A31" s="20">
+        <v>45686</v>
       </c>
       <c r="B31" s="39"/>
       <c r="C31" s="42"/>
@@ -5653,7 +5569,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="20">
-        <v>45656</v>
+        <v>45687</v>
       </c>
       <c r="B32" s="39"/>
       <c r="C32" s="42"/>
@@ -5663,25 +5579,25 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="20">
-        <v>45657</v>
+        <v>45688</v>
       </c>
       <c r="B33" s="52"/>
       <c r="C33" s="52"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
       <c r="F33" s="52"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="52"/>
       <c r="B34" s="52"/>
       <c r="C34" s="52"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
       <c r="F34" s="52"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -5727,13 +5643,13 @@
     </row>
     <row r="42" customFormat="1" spans="1:4">
       <c r="A42" s="14"/>
-      <c r="B42"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="23"/>
       <c r="D42" s="14"/>
     </row>
     <row r="43" customFormat="1" spans="1:4">
       <c r="A43" s="14"/>
-      <c r="B43"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="23"/>
       <c r="D43" s="14"/>
     </row>
@@ -5784,6 +5700,625 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.3636363636364" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="29.9090909090909" style="23" customWidth="1"/>
+    <col min="4" max="4" width="35.5454545454545" customWidth="1"/>
+    <col min="5" max="5" width="26.4545454545455" customWidth="1"/>
+    <col min="6" max="6" width="34.6363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="67" customHeight="1" spans="1:6">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+    </row>
+    <row r="2" ht="50" customHeight="1" spans="1:6">
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="86" customHeight="1" spans="1:6">
+      <c r="A3" s="20">
+        <v>45627</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="47"/>
+      <c r="F3" s="41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" ht="84" spans="1:6">
+      <c r="A4" s="20">
+        <v>45628</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="48"/>
+      <c r="F4" s="41"/>
+    </row>
+    <row r="5" ht="70" spans="1:6">
+      <c r="A5" s="20">
+        <v>45629</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="48"/>
+      <c r="F5" s="41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" ht="70" spans="1:6">
+      <c r="A6" s="20">
+        <v>45630</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="48"/>
+      <c r="F6" s="41"/>
+    </row>
+    <row r="7" ht="84" spans="1:6">
+      <c r="A7" s="20">
+        <v>45631</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="43"/>
+    </row>
+    <row r="8" ht="84" spans="1:6">
+      <c r="A8" s="20">
+        <v>45632</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="48"/>
+      <c r="F8" s="43"/>
+    </row>
+    <row r="9" ht="84" spans="1:6">
+      <c r="A9" s="9">
+        <v>45633</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" ht="84" spans="1:6">
+      <c r="A10" s="9">
+        <v>45634</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="48"/>
+      <c r="F10" s="43"/>
+    </row>
+    <row r="11" ht="84" spans="1:6">
+      <c r="A11" s="20">
+        <v>45635</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="48"/>
+      <c r="F11" s="43"/>
+    </row>
+    <row r="12" ht="84" spans="1:6">
+      <c r="A12" s="20">
+        <v>45636</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="48"/>
+      <c r="F12" s="43"/>
+    </row>
+    <row r="13" ht="84" spans="1:6">
+      <c r="A13" s="20">
+        <v>45637</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="48"/>
+      <c r="F13" s="43"/>
+    </row>
+    <row r="14" ht="84" spans="1:6">
+      <c r="A14" s="20">
+        <v>45638</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="51"/>
+      <c r="F14" s="43"/>
+    </row>
+    <row r="15" ht="84" spans="1:6">
+      <c r="A15" s="20">
+        <v>45639</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="47"/>
+      <c r="F15" s="43"/>
+    </row>
+    <row r="16" ht="84" spans="1:6">
+      <c r="A16" s="9">
+        <v>45640</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="48"/>
+      <c r="F16" s="43"/>
+    </row>
+    <row r="17" ht="84" spans="1:6">
+      <c r="A17" s="9">
+        <v>45641</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="51"/>
+      <c r="F17" s="41"/>
+    </row>
+    <row r="18" ht="84" spans="1:6">
+      <c r="A18" s="20">
+        <v>45642</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="47"/>
+      <c r="F18" s="41"/>
+    </row>
+    <row r="19" ht="84" spans="1:6">
+      <c r="A19" s="20">
+        <v>45643</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="47"/>
+      <c r="F19" s="41"/>
+    </row>
+    <row r="20" ht="84" spans="1:6">
+      <c r="A20" s="20">
+        <v>45644</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="47"/>
+      <c r="F20" s="41"/>
+    </row>
+    <row r="21" ht="40" customHeight="1" spans="1:6">
+      <c r="A21" s="20">
+        <v>45645</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="47"/>
+      <c r="F21" s="43"/>
+    </row>
+    <row r="22" ht="45" customHeight="1" spans="1:6">
+      <c r="A22" s="20">
+        <v>45646</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="47"/>
+      <c r="F22" s="43"/>
+    </row>
+    <row r="23" ht="66" customHeight="1" spans="1:6">
+      <c r="A23" s="9">
+        <v>45647</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="47"/>
+      <c r="F23" s="41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" ht="84" spans="1:6">
+      <c r="A24" s="9">
+        <v>45648</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="47"/>
+      <c r="F24" s="43"/>
+    </row>
+    <row r="25" ht="80" customHeight="1" spans="1:6">
+      <c r="A25" s="20">
+        <v>45649</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="47"/>
+      <c r="F25" s="43"/>
+    </row>
+    <row r="26" ht="98" spans="1:6">
+      <c r="A26" s="20">
+        <v>45650</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="47"/>
+      <c r="F26" s="43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="20">
+        <v>45651</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="43"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="20">
+        <v>45652</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="43"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="20">
+        <v>45653</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="43"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="9">
+        <v>45654</v>
+      </c>
+      <c r="B30" s="39"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="43"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="9">
+        <v>45655</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="43"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="20">
+        <v>45656</v>
+      </c>
+      <c r="B32" s="39"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="43"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="20">
+        <v>45657</v>
+      </c>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="52"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="52"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="52"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" customFormat="1" spans="1:4">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+    </row>
+    <row r="37" customFormat="1" spans="1:4">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+    </row>
+    <row r="38" customFormat="1" spans="1:4">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" customFormat="1" spans="1:4">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+    </row>
+    <row r="40" customFormat="1" spans="1:4">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+    </row>
+    <row r="41" customFormat="1" spans="1:4">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+    </row>
+    <row r="42" customFormat="1" spans="1:4">
+      <c r="A42" s="14"/>
+      <c r="B42"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="14"/>
+    </row>
+    <row r="43" customFormat="1" spans="1:4">
+      <c r="A43" s="14"/>
+      <c r="B43"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A35:D43"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5802,7 +6337,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -5821,10 +6356,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -5838,13 +6373,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F3" s="41"/>
     </row>
@@ -5856,13 +6391,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F4" s="41"/>
     </row>
@@ -5874,13 +6409,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F5" s="41"/>
     </row>
@@ -5892,13 +6427,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F6" s="41"/>
     </row>
@@ -5910,13 +6445,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F7" s="43"/>
     </row>
@@ -5928,13 +6463,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F8" s="43"/>
     </row>
@@ -5946,13 +6481,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F9" s="43"/>
     </row>
@@ -5964,13 +6499,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F10" s="43"/>
     </row>
@@ -5982,13 +6517,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F11" s="43"/>
     </row>
@@ -6000,13 +6535,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F12" s="43"/>
     </row>
@@ -6018,13 +6553,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F13" s="43"/>
     </row>
@@ -6036,13 +6571,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F14" s="43"/>
     </row>
@@ -6054,13 +6589,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F15" s="43"/>
     </row>
@@ -6072,13 +6607,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F16" s="43"/>
     </row>
@@ -6090,13 +6625,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F17" s="41"/>
     </row>
@@ -6108,13 +6643,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F18" s="41"/>
     </row>
@@ -6126,13 +6661,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F19" s="41"/>
     </row>
@@ -6144,13 +6679,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F20" s="41"/>
     </row>
@@ -6162,13 +6697,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F21" s="43"/>
     </row>
@@ -6180,13 +6715,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F22" s="43"/>
     </row>
@@ -6198,13 +6733,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F23" s="43"/>
     </row>
@@ -6216,13 +6751,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F24" s="43"/>
     </row>
@@ -6234,13 +6769,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F25" s="43"/>
     </row>
@@ -6252,31 +6787,31 @@
         <v>6</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F26" s="43"/>
     </row>
     <row r="27" ht="84" spans="1:6">
       <c r="A27" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B27" s="39" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F27" s="43"/>
     </row>
@@ -6288,13 +6823,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="41" t="s">
         <v>62</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="41" t="s">
-        <v>60</v>
       </c>
       <c r="F28" s="43"/>
     </row>
@@ -6306,13 +6841,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F29" s="43"/>
     </row>
@@ -6324,13 +6859,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F30" s="43"/>
     </row>
@@ -6342,13 +6877,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F31" s="43"/>
     </row>
@@ -6360,19 +6895,19 @@
         <v>6</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F32" s="43"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -6438,7 +6973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F43"/>
@@ -6459,7 +6994,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -6478,10 +7013,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -6492,16 +7027,16 @@
         <v>45566</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -6510,19 +7045,19 @@
         <v>45567</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" ht="70" spans="1:6">
@@ -6533,13 +7068,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -6551,13 +7086,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F6" s="8"/>
     </row>
@@ -6569,13 +7104,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -6587,13 +7122,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>85</v>
-      </c>
       <c r="E8" s="33" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -6605,10 +7140,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="8"/>
@@ -6621,10 +7156,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="8"/>
@@ -6637,10 +7172,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="8"/>
@@ -6653,10 +7188,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="8"/>
@@ -6669,13 +7204,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -6687,13 +7222,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -6705,13 +7240,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -6723,13 +7258,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -6741,13 +7276,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -6759,13 +7294,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -6777,13 +7312,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -6795,13 +7330,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -6813,13 +7348,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -6831,13 +7366,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -6849,13 +7384,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -6867,13 +7402,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -6885,13 +7420,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -6903,13 +7438,13 @@
         <v>6</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -6921,13 +7456,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -6939,13 +7474,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -6957,13 +7492,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -6975,13 +7510,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -6993,13 +7528,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -7011,13 +7546,13 @@
         <v>6</v>
       </c>
       <c r="C32" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>117</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -7029,13 +7564,13 @@
         <v>6</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F33" s="14"/>
     </row>
@@ -7047,19 +7582,19 @@
         <v>6</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -7125,7 +7660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F41"/>
@@ -7146,7 +7681,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -7165,10 +7700,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -7182,13 +7717,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -7200,13 +7735,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F4" s="11"/>
     </row>
@@ -7218,13 +7753,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -7236,16 +7771,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" ht="56" spans="1:6">
@@ -7256,16 +7791,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" ht="56" spans="1:6">
@@ -7276,16 +7811,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="9" ht="70" spans="1:6">
@@ -7293,19 +7828,19 @@
         <v>45542</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" ht="70" spans="1:6">
@@ -7316,16 +7851,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D10" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" ht="56" spans="1:6">
@@ -7336,16 +7871,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" ht="56" spans="1:6">
@@ -7356,16 +7891,16 @@
         <v>6</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" ht="56" spans="1:6">
@@ -7376,16 +7911,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" ht="56" spans="1:6">
@@ -7396,16 +7931,16 @@
         <v>6</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D14" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="15" ht="56" spans="1:6">
@@ -7413,16 +7948,16 @@
         <v>45548</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -7434,13 +7969,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -7452,13 +7987,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -7470,13 +8005,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -7488,13 +8023,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -7503,16 +8038,16 @@
         <v>45553</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -7521,16 +8056,16 @@
         <v>45554</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -7539,16 +8074,16 @@
         <v>45555</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -7557,16 +8092,16 @@
         <v>45556</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -7578,13 +8113,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="D24" s="33" t="s">
-        <v>163</v>
-      </c>
       <c r="E24" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -7596,13 +8131,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -7614,13 +8149,13 @@
         <v>6</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -7632,13 +8167,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -7650,13 +8185,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -7668,13 +8203,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -7686,13 +8221,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -7704,13 +8239,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -7722,13 +8257,13 @@
         <v>6</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -7798,7 +8333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F42"/>
@@ -7819,7 +8354,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -7838,10 +8373,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -7861,10 +8396,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -7881,10 +8416,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:6">
@@ -7901,10 +8436,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7921,10 +8456,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7942,7 +8477,7 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7960,7 +8495,7 @@
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -7977,10 +8512,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7998,7 +8533,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8016,7 +8551,7 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:6">
@@ -8033,10 +8568,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="13" ht="42" spans="1:6">
@@ -8053,10 +8588,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" ht="42" spans="1:6">
@@ -8073,10 +8608,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" ht="42" spans="1:6">
@@ -8093,10 +8628,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" ht="42" spans="1:6">
@@ -8113,10 +8648,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" ht="42" spans="1:6">
@@ -8133,10 +8668,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -8153,10 +8688,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" ht="42" spans="1:6">
@@ -8173,10 +8708,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" ht="42" spans="1:6">
@@ -8193,10 +8728,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>196</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="21" ht="42" spans="1:6">
@@ -8213,10 +8748,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" ht="42" spans="1:6">
@@ -8233,10 +8768,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" ht="42" spans="1:6">
@@ -8253,10 +8788,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" ht="42" spans="1:6">
@@ -8273,10 +8808,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" ht="42" spans="1:6">
@@ -8293,10 +8828,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" ht="42" spans="1:6">
@@ -8313,10 +8848,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" ht="42" spans="1:6">
@@ -8333,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -8351,7 +8886,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -8369,7 +8904,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -8387,7 +8922,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -8405,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -8423,7 +8958,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -8441,13 +8976,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -8513,7 +9048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H42"/>
@@ -8536,7 +9071,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8548,25 +9083,25 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>5</v>
@@ -8680,7 +9215,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -8704,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H8" s="8"/>
     </row>
@@ -8772,7 +9307,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H11" s="10"/>
     </row>
@@ -8818,7 +9353,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H13" s="8"/>
     </row>
@@ -8842,7 +9377,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H14" s="8"/>
     </row>
@@ -8866,7 +9401,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H15" s="8"/>
     </row>
@@ -8890,7 +9425,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H16" s="8"/>
     </row>
@@ -8936,7 +9471,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -9004,7 +9539,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H21" s="8"/>
     </row>
@@ -9028,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H22" s="8"/>
     </row>
@@ -9052,7 +9587,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H23" s="8"/>
     </row>
@@ -9097,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H25" s="8"/>
     </row>
@@ -9121,7 +9656,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H26" s="8"/>
     </row>
@@ -9145,7 +9680,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H27" s="8"/>
     </row>
@@ -9166,7 +9701,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -9188,10 +9723,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H29" s="8"/>
     </row>
@@ -9212,7 +9747,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -9295,7 +9830,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -9369,7 +9904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F41"/>
@@ -9390,7 +9925,7 @@
   <sheetData>
     <row r="1" ht="48" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9400,19 +9935,19 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -9503,15 +10038,15 @@
         <v>45452</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="10" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -9519,10 +10054,10 @@
         <v>45453</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -9533,14 +10068,14 @@
         <v>45454</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -9549,14 +10084,14 @@
         <v>45455</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -9565,14 +10100,14 @@
         <v>45456</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -9581,14 +10116,14 @@
         <v>45457</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -9597,17 +10132,17 @@
         <v>45458</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -9615,14 +10150,14 @@
         <v>45459</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -9631,14 +10166,14 @@
         <v>45460</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -9647,10 +10182,10 @@
         <v>45461</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -9661,14 +10196,14 @@
         <v>45462</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -9677,14 +10212,14 @@
         <v>45463</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -9693,14 +10228,14 @@
         <v>45464</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -9709,16 +10244,16 @@
         <v>45465</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D24" s="11">
         <v>2</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -9739,14 +10274,14 @@
         <v>45467</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -9755,10 +10290,10 @@
         <v>45468</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D27" s="8">
         <v>2</v>
@@ -9771,10 +10306,10 @@
         <v>45469</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
@@ -9787,10 +10322,10 @@
         <v>45470</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
@@ -9803,10 +10338,10 @@
         <v>45471</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -9820,11 +10355,11 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -9836,19 +10371,19 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D32" s="8">
         <v>1</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F32" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>

--- a/00-doc/src/00_todo/00_todo.xlsx
+++ b/00-doc/src/00_todo/00_todo.xlsx
@@ -4387,6 +4387,130 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="Image"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14884400"/>
+          <a:ext cx="203200" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="Image"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="933450" y="14884400"/>
+          <a:ext cx="203200" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>157480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>580390</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>140335</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1555750" y="14864080"/>
+          <a:ext cx="3361690" cy="4961255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4734,10 +4858,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:E23"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -5167,6 +5291,9 @@
       <c r="B43" s="14"/>
       <c r="C43" s="23"/>
       <c r="D43" s="14"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45"/>
     </row>
   </sheetData>
   <mergeCells count="35">

--- a/00-doc/src/00_todo/00_todo.xlsx
+++ b/00-doc/src/00_todo/00_todo.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="257">
   <si>
     <t>month goals：
 1、oral、listen everyday
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>研究crypto钱包</t>
+  </si>
+  <si>
+    <t>偷懒，无法集中注意力，晃荡</t>
   </si>
   <si>
     <t>#########################################################################################
@@ -4860,8 +4863,8 @@
   <sheetPr/>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51:D52"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -5128,7 +5131,9 @@
       </c>
       <c r="B23" s="39"/>
       <c r="C23" s="42"/>
-      <c r="D23" s="46"/>
+      <c r="D23" s="46" t="s">
+        <v>16</v>
+      </c>
       <c r="E23" s="47"/>
       <c r="F23" s="41"/>
     </row>
@@ -5236,7 +5241,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -5601,7 +5606,7 @@
       <c r="D22" s="39"/>
       <c r="E22" s="48"/>
       <c r="F22" s="43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="66" customHeight="1" spans="1:6">
@@ -5724,7 +5729,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -5879,14 +5884,14 @@
         <v>6</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="84" spans="1:6">
@@ -5897,10 +5902,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="41"/>
@@ -5913,14 +5918,14 @@
         <v>6</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" ht="70" spans="1:6">
@@ -5931,10 +5936,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="41"/>
@@ -5947,7 +5952,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="46"/>
       <c r="E7" s="47"/>
@@ -5961,10 +5966,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="43"/>
@@ -5977,14 +5982,14 @@
         <v>6</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" ht="84" spans="1:6">
@@ -5995,10 +6000,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="43"/>
@@ -6011,10 +6016,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="43"/>
@@ -6027,10 +6032,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="43"/>
@@ -6043,10 +6048,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="43"/>
@@ -6059,10 +6064,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" s="51"/>
       <c r="F14" s="43"/>
@@ -6075,10 +6080,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="47"/>
       <c r="F15" s="43"/>
@@ -6091,10 +6096,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="43"/>
@@ -6107,10 +6112,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E17" s="51"/>
       <c r="F17" s="41"/>
@@ -6123,10 +6128,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E18" s="47"/>
       <c r="F18" s="41"/>
@@ -6139,10 +6144,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E19" s="47"/>
       <c r="F19" s="41"/>
@@ -6155,10 +6160,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E20" s="47"/>
       <c r="F20" s="41"/>
@@ -6171,10 +6176,10 @@
         <v>6</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E21" s="47"/>
       <c r="F21" s="43"/>
@@ -6187,10 +6192,10 @@
         <v>6</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E22" s="47"/>
       <c r="F22" s="43"/>
@@ -6203,14 +6208,14 @@
         <v>6</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E23" s="47"/>
       <c r="F23" s="41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" ht="84" spans="1:6">
@@ -6221,10 +6226,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E24" s="47"/>
       <c r="F24" s="43"/>
@@ -6237,10 +6242,10 @@
         <v>6</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E25" s="47"/>
       <c r="F25" s="43"/>
@@ -6253,14 +6258,14 @@
         <v>6</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E26" s="47"/>
       <c r="F26" s="43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6343,7 +6348,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -6464,7 +6469,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -6483,10 +6488,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -6500,13 +6505,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F3" s="41"/>
     </row>
@@ -6518,13 +6523,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F4" s="41"/>
     </row>
@@ -6536,13 +6541,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F5" s="41"/>
     </row>
@@ -6554,13 +6559,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F6" s="41"/>
     </row>
@@ -6572,13 +6577,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F7" s="43"/>
     </row>
@@ -6590,13 +6595,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F8" s="43"/>
     </row>
@@ -6608,13 +6613,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F9" s="43"/>
     </row>
@@ -6626,13 +6631,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="43"/>
     </row>
@@ -6644,13 +6649,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" s="43"/>
     </row>
@@ -6662,13 +6667,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F12" s="43"/>
     </row>
@@ -6680,13 +6685,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F13" s="43"/>
     </row>
@@ -6698,13 +6703,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F14" s="43"/>
     </row>
@@ -6716,13 +6721,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F15" s="43"/>
     </row>
@@ -6734,13 +6739,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F16" s="43"/>
     </row>
@@ -6752,13 +6757,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F17" s="41"/>
     </row>
@@ -6770,13 +6775,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F18" s="41"/>
     </row>
@@ -6788,13 +6793,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F19" s="41"/>
     </row>
@@ -6806,13 +6811,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F20" s="41"/>
     </row>
@@ -6824,13 +6829,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F21" s="43"/>
     </row>
@@ -6842,13 +6847,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F22" s="43"/>
     </row>
@@ -6860,13 +6865,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F23" s="43"/>
     </row>
@@ -6878,13 +6883,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24" s="43"/>
     </row>
@@ -6896,13 +6901,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F25" s="43"/>
     </row>
@@ -6914,31 +6919,31 @@
         <v>6</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F26" s="43"/>
     </row>
     <row r="27" ht="84" spans="1:6">
       <c r="A27" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="41" t="s">
         <v>63</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>62</v>
       </c>
       <c r="F27" s="43"/>
     </row>
@@ -6950,13 +6955,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F28" s="43"/>
     </row>
@@ -6968,13 +6973,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F29" s="43"/>
     </row>
@@ -6986,13 +6991,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F30" s="43"/>
     </row>
@@ -7004,13 +7009,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F31" s="43"/>
     </row>
@@ -7022,19 +7027,19 @@
         <v>6</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F32" s="43"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -7121,7 +7126,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -7140,10 +7145,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -7154,16 +7159,16 @@
         <v>45566</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -7172,19 +7177,19 @@
         <v>45567</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" ht="70" spans="1:6">
@@ -7195,13 +7200,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -7213,13 +7218,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F6" s="8"/>
     </row>
@@ -7231,13 +7236,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -7249,13 +7254,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -7267,10 +7272,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="8"/>
@@ -7283,10 +7288,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="8"/>
@@ -7299,10 +7304,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="8"/>
@@ -7315,10 +7320,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="8"/>
@@ -7331,13 +7336,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -7349,13 +7354,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -7367,13 +7372,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -7385,13 +7390,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -7403,13 +7408,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -7421,13 +7426,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -7439,13 +7444,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="33" t="s">
-        <v>112</v>
-      </c>
       <c r="E19" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -7457,13 +7462,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="33" t="s">
-        <v>112</v>
-      </c>
       <c r="E20" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -7475,13 +7480,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="33" t="s">
-        <v>112</v>
-      </c>
       <c r="E21" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -7493,13 +7498,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -7511,13 +7516,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -7529,13 +7534,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -7547,13 +7552,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -7565,13 +7570,13 @@
         <v>6</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -7583,13 +7588,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -7601,13 +7606,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -7619,13 +7624,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -7637,13 +7642,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -7655,13 +7660,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -7673,13 +7678,13 @@
         <v>6</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -7691,13 +7696,13 @@
         <v>6</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F33" s="14"/>
     </row>
@@ -7709,19 +7714,19 @@
         <v>6</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -7808,7 +7813,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -7827,10 +7832,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -7844,13 +7849,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -7862,13 +7867,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F4" s="11"/>
     </row>
@@ -7880,13 +7885,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>127</v>
-      </c>
       <c r="E5" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -7898,16 +7903,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="D6" s="35" t="s">
-        <v>127</v>
-      </c>
       <c r="E6" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" ht="56" spans="1:6">
@@ -7918,16 +7923,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="35" t="s">
-        <v>127</v>
-      </c>
       <c r="E7" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" ht="56" spans="1:6">
@@ -7938,16 +7943,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D8" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="9" ht="70" spans="1:6">
@@ -7955,19 +7960,19 @@
         <v>45542</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" ht="70" spans="1:6">
@@ -7978,16 +7983,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="11" ht="56" spans="1:6">
@@ -7998,16 +8003,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" ht="56" spans="1:6">
@@ -8018,16 +8023,16 @@
         <v>6</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" ht="56" spans="1:6">
@@ -8038,16 +8043,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="14" ht="56" spans="1:6">
@@ -8058,16 +8063,16 @@
         <v>6</v>
       </c>
       <c r="C14" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="15" ht="56" spans="1:6">
@@ -8075,16 +8080,16 @@
         <v>45548</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -8096,13 +8101,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -8114,13 +8119,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -8132,13 +8137,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -8150,13 +8155,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -8165,16 +8170,16 @@
         <v>45553</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -8183,16 +8188,16 @@
         <v>45554</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -8201,16 +8206,16 @@
         <v>45555</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -8219,16 +8224,16 @@
         <v>45556</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -8240,13 +8245,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -8258,13 +8263,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -8276,13 +8281,13 @@
         <v>6</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -8294,13 +8299,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -8312,13 +8317,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -8330,13 +8335,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -8348,13 +8353,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -8366,13 +8371,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -8384,13 +8389,13 @@
         <v>6</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -8481,7 +8486,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -8500,10 +8505,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -8523,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -8543,10 +8548,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:6">
@@ -8563,10 +8568,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8583,10 +8588,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8604,7 +8609,7 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8622,7 +8627,7 @@
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8639,10 +8644,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>191</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -8660,7 +8665,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8678,7 +8683,7 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:6">
@@ -8695,10 +8700,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" ht="42" spans="1:6">
@@ -8715,10 +8720,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" ht="42" spans="1:6">
@@ -8735,10 +8740,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" ht="42" spans="1:6">
@@ -8755,10 +8760,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" ht="42" spans="1:6">
@@ -8775,10 +8780,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" ht="42" spans="1:6">
@@ -8795,10 +8800,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -8815,10 +8820,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" ht="42" spans="1:6">
@@ -8835,10 +8840,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>197</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="20" ht="42" spans="1:6">
@@ -8855,10 +8860,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" ht="42" spans="1:6">
@@ -8875,10 +8880,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" ht="42" spans="1:6">
@@ -8895,10 +8900,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" ht="42" spans="1:6">
@@ -8915,10 +8920,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" ht="42" spans="1:6">
@@ -8935,10 +8940,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" ht="42" spans="1:6">
@@ -8955,10 +8960,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" ht="42" spans="1:6">
@@ -8975,10 +8980,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="27" ht="42" spans="1:6">
@@ -8995,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -9013,7 +9018,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -9031,7 +9036,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -9049,7 +9054,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -9067,7 +9072,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -9085,7 +9090,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -9103,13 +9108,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -9198,7 +9203,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9210,25 +9215,25 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>5</v>
@@ -9342,7 +9347,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -9366,7 +9371,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H8" s="8"/>
     </row>
@@ -9434,7 +9439,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H11" s="10"/>
     </row>
@@ -9480,7 +9485,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H13" s="8"/>
     </row>
@@ -9504,7 +9509,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H14" s="8"/>
     </row>
@@ -9528,7 +9533,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H15" s="8"/>
     </row>
@@ -9552,7 +9557,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H16" s="8"/>
     </row>
@@ -9598,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -9666,7 +9671,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H21" s="8"/>
     </row>
@@ -9690,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H22" s="8"/>
     </row>
@@ -9714,7 +9719,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H23" s="8"/>
     </row>
@@ -9759,7 +9764,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H25" s="8"/>
     </row>
@@ -9783,7 +9788,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H26" s="8"/>
     </row>
@@ -9807,7 +9812,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H27" s="8"/>
     </row>
@@ -9828,7 +9833,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -9850,10 +9855,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H29" s="8"/>
     </row>
@@ -9874,7 +9879,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -9957,7 +9962,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -10052,7 +10057,7 @@
   <sheetData>
     <row r="1" ht="48" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10062,19 +10067,19 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -10165,15 +10170,15 @@
         <v>45452</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -10181,10 +10186,10 @@
         <v>45453</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -10195,14 +10200,14 @@
         <v>45454</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -10211,14 +10216,14 @@
         <v>45455</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -10227,14 +10232,14 @@
         <v>45456</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -10243,14 +10248,14 @@
         <v>45457</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -10259,17 +10264,17 @@
         <v>45458</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -10277,14 +10282,14 @@
         <v>45459</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -10293,14 +10298,14 @@
         <v>45460</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -10309,10 +10314,10 @@
         <v>45461</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -10323,14 +10328,14 @@
         <v>45462</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -10339,14 +10344,14 @@
         <v>45463</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -10355,14 +10360,14 @@
         <v>45464</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -10371,16 +10376,16 @@
         <v>45465</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D24" s="11">
         <v>2</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -10401,14 +10406,14 @@
         <v>45467</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -10417,10 +10422,10 @@
         <v>45468</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D27" s="8">
         <v>2</v>
@@ -10433,10 +10438,10 @@
         <v>45469</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
@@ -10449,10 +10454,10 @@
         <v>45470</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
@@ -10465,10 +10470,10 @@
         <v>45471</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -10482,11 +10487,11 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -10498,19 +10503,19 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D32" s="8">
         <v>1</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F32" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>

--- a/00-doc/src/00_todo/00_todo.xlsx
+++ b/00-doc/src/00_todo/00_todo.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="259">
   <si>
     <t>month goals：
 1、oral、listen everyday
@@ -84,6 +84,29 @@
       </rPr>
       <t xml:space="preserve">6、oral practise </t>
     </r>
+  </si>
+  <si>
+    <t>离职回家</t>
+  </si>
+  <si>
+    <t>研究crypto钱包</t>
+  </si>
+  <si>
+    <t>偷懒，无法集中注意力，晃荡</t>
+  </si>
+  <si>
+    <t>晃荡，无法集中，看Terry人生故事</t>
+  </si>
+  <si>
+    <t>#########################################################################################
+1、5k everyday，then do extra thing。100k every month -》10 year 30m commitment
+2、every second consist of life，money can be back time not
+3、be positive，be concentrated(dont feel time), be postive
+4. accelerate anything predict, once target set, must finish
+#########################################################################################</t>
+  </si>
+  <si>
+    <t>昨天越來越多，明天越來越少，好好的享受人生，做自己，FIRE</t>
   </si>
   <si>
     <r>
@@ -132,23 +155,6 @@
     <t>1. vue project zhenxuan  -&gt; 64e
 1. react portfolio &amp; deploy
 2. rewrite resume</t>
-  </si>
-  <si>
-    <t>离职回家</t>
-  </si>
-  <si>
-    <t>研究crypto钱包</t>
-  </si>
-  <si>
-    <t>偷懒，无法集中注意力，晃荡</t>
-  </si>
-  <si>
-    <t>#########################################################################################
-1、5k everyday，then do extra thing。100k every month -》10 year 30m commitment
-2、every second consist of life，money can be back time not
-3、be positive，be concentrated(dont feel time), be postive
-4. accelerate anything predict, once target set, must finish
-#########################################################################################</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -4861,10 +4867,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -4915,13 +4921,9 @@
       <c r="C3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="39" t="s">
-        <v>8</v>
-      </c>
+      <c r="D3" s="39"/>
       <c r="E3" s="47"/>
-      <c r="F3" s="41" t="s">
-        <v>9</v>
-      </c>
+      <c r="F3" s="41"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9">
@@ -4929,9 +4931,7 @@
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="40"/>
-      <c r="D4" s="46" t="s">
-        <v>10</v>
-      </c>
+      <c r="D4" s="46"/>
       <c r="E4" s="47"/>
       <c r="F4" s="41"/>
     </row>
@@ -4941,9 +4941,7 @@
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="46" t="s">
-        <v>11</v>
-      </c>
+      <c r="D5" s="46"/>
       <c r="E5" s="47"/>
       <c r="F5" s="41"/>
     </row>
@@ -4953,9 +4951,7 @@
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="42"/>
-      <c r="D6" s="46" t="s">
-        <v>12</v>
-      </c>
+      <c r="D6" s="46"/>
       <c r="E6" s="47"/>
       <c r="F6" s="41"/>
     </row>
@@ -4965,9 +4961,7 @@
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="42"/>
-      <c r="D7" s="46" t="s">
-        <v>13</v>
-      </c>
+      <c r="D7" s="46"/>
       <c r="E7" s="47"/>
       <c r="F7" s="43"/>
     </row>
@@ -5107,10 +5101,10 @@
       </c>
       <c r="B21" s="39"/>
       <c r="C21" s="42"/>
-      <c r="D21" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="47"/>
+      <c r="D21" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="51"/>
       <c r="F21" s="43"/>
     </row>
     <row r="22" ht="45" customHeight="1" spans="1:6">
@@ -5120,7 +5114,7 @@
       <c r="B22" s="39"/>
       <c r="C22" s="42"/>
       <c r="D22" s="46" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E22" s="47"/>
       <c r="F22" s="43"/>
@@ -5132,7 +5126,7 @@
       <c r="B23" s="39"/>
       <c r="C23" s="42"/>
       <c r="D23" s="46" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E23" s="47"/>
       <c r="F23" s="41"/>
@@ -5143,7 +5137,9 @@
       </c>
       <c r="B24" s="39"/>
       <c r="C24" s="42"/>
-      <c r="D24" s="46"/>
+      <c r="D24" s="46" t="s">
+        <v>11</v>
+      </c>
       <c r="E24" s="47"/>
       <c r="F24" s="43"/>
     </row>
@@ -5241,7 +5237,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -5299,6 +5295,11 @@
     </row>
     <row r="45" spans="1:1">
       <c r="A45"/>
+    </row>
+    <row r="48" spans="5:5">
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -5349,8 +5350,8 @@
   <sheetPr/>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -5402,11 +5403,11 @@
         <v>7</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="41" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5416,7 +5417,7 @@
       <c r="B4" s="39"/>
       <c r="C4" s="40"/>
       <c r="D4" s="46" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E4" s="47"/>
       <c r="F4" s="41"/>
@@ -5428,7 +5429,7 @@
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
       <c r="D5" s="46" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E5" s="47"/>
       <c r="F5" s="41"/>
@@ -5440,7 +5441,7 @@
       <c r="B6" s="39"/>
       <c r="C6" s="42"/>
       <c r="D6" s="46" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E6" s="47"/>
       <c r="F6" s="41"/>
@@ -5452,7 +5453,7 @@
       <c r="B7" s="39"/>
       <c r="C7" s="42"/>
       <c r="D7" s="46" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E7" s="47"/>
       <c r="F7" s="43"/>
@@ -5606,7 +5607,7 @@
       <c r="D22" s="39"/>
       <c r="E22" s="48"/>
       <c r="F22" s="43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="66" customHeight="1" spans="1:6">
@@ -5729,7 +5730,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -5884,14 +5885,14 @@
         <v>6</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="41" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="84" spans="1:6">
@@ -5902,10 +5903,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="41"/>
@@ -5918,14 +5919,14 @@
         <v>6</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="41" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" ht="70" spans="1:6">
@@ -5936,10 +5937,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="41"/>
@@ -5952,7 +5953,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" s="46"/>
       <c r="E7" s="47"/>
@@ -5966,10 +5967,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="43"/>
@@ -5982,14 +5983,14 @@
         <v>6</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="49" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" ht="84" spans="1:6">
@@ -6000,10 +6001,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="43"/>
@@ -6016,10 +6017,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="43"/>
@@ -6032,10 +6033,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="43"/>
@@ -6048,10 +6049,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="43"/>
@@ -6064,10 +6065,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E14" s="51"/>
       <c r="F14" s="43"/>
@@ -6080,10 +6081,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15" s="47"/>
       <c r="F15" s="43"/>
@@ -6096,10 +6097,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="43"/>
@@ -6112,10 +6113,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E17" s="51"/>
       <c r="F17" s="41"/>
@@ -6128,10 +6129,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E18" s="47"/>
       <c r="F18" s="41"/>
@@ -6144,10 +6145,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E19" s="47"/>
       <c r="F19" s="41"/>
@@ -6160,10 +6161,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E20" s="47"/>
       <c r="F20" s="41"/>
@@ -6176,10 +6177,10 @@
         <v>6</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E21" s="47"/>
       <c r="F21" s="43"/>
@@ -6192,10 +6193,10 @@
         <v>6</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E22" s="47"/>
       <c r="F22" s="43"/>
@@ -6208,14 +6209,14 @@
         <v>6</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E23" s="47"/>
       <c r="F23" s="41" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" ht="84" spans="1:6">
@@ -6226,10 +6227,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E24" s="47"/>
       <c r="F24" s="43"/>
@@ -6242,10 +6243,10 @@
         <v>6</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E25" s="47"/>
       <c r="F25" s="43"/>
@@ -6258,14 +6259,14 @@
         <v>6</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E26" s="47"/>
       <c r="F26" s="43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6348,7 +6349,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -6469,7 +6470,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -6488,10 +6489,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -6505,13 +6506,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F3" s="41"/>
     </row>
@@ -6523,13 +6524,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F4" s="41"/>
     </row>
@@ -6541,13 +6542,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F5" s="41"/>
     </row>
@@ -6559,13 +6560,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F6" s="41"/>
     </row>
@@ -6577,13 +6578,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F7" s="43"/>
     </row>
@@ -6595,13 +6596,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F8" s="43"/>
     </row>
@@ -6613,13 +6614,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F9" s="43"/>
     </row>
@@ -6631,13 +6632,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F10" s="43"/>
     </row>
@@ -6649,13 +6650,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F11" s="43"/>
     </row>
@@ -6667,13 +6668,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F12" s="43"/>
     </row>
@@ -6685,13 +6686,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F13" s="43"/>
     </row>
@@ -6703,13 +6704,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F14" s="43"/>
     </row>
@@ -6721,13 +6722,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F15" s="43"/>
     </row>
@@ -6739,13 +6740,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F16" s="43"/>
     </row>
@@ -6757,13 +6758,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F17" s="41"/>
     </row>
@@ -6775,13 +6776,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F18" s="41"/>
     </row>
@@ -6793,13 +6794,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F19" s="41"/>
     </row>
@@ -6811,13 +6812,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F20" s="41"/>
     </row>
@@ -6829,13 +6830,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F21" s="43"/>
     </row>
@@ -6847,13 +6848,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F22" s="43"/>
     </row>
@@ -6865,13 +6866,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F23" s="43"/>
     </row>
@@ -6883,13 +6884,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F24" s="43"/>
     </row>
@@ -6901,13 +6902,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F25" s="43"/>
     </row>
@@ -6919,31 +6920,31 @@
         <v>6</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F26" s="43"/>
     </row>
     <row r="27" ht="84" spans="1:6">
       <c r="A27" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27" s="39" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F27" s="43"/>
     </row>
@@ -6955,13 +6956,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="41" t="s">
         <v>65</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="41" t="s">
-        <v>63</v>
       </c>
       <c r="F28" s="43"/>
     </row>
@@ -6973,13 +6974,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F29" s="43"/>
     </row>
@@ -6991,13 +6992,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F30" s="43"/>
     </row>
@@ -7009,13 +7010,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F31" s="43"/>
     </row>
@@ -7027,19 +7028,19 @@
         <v>6</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F32" s="43"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -7126,7 +7127,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -7145,10 +7146,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -7159,16 +7160,16 @@
         <v>45566</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -7177,19 +7178,19 @@
         <v>45567</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" ht="70" spans="1:6">
@@ -7200,13 +7201,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -7218,13 +7219,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F6" s="8"/>
     </row>
@@ -7236,13 +7237,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -7254,13 +7255,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>88</v>
-      </c>
       <c r="E8" s="33" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -7272,10 +7273,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="8"/>
@@ -7288,10 +7289,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="8"/>
@@ -7304,10 +7305,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="8"/>
@@ -7320,10 +7321,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="8"/>
@@ -7336,13 +7337,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -7354,13 +7355,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -7372,13 +7373,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -7390,13 +7391,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -7408,13 +7409,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -7426,13 +7427,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -7444,13 +7445,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -7462,13 +7463,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -7480,13 +7481,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -7498,13 +7499,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -7516,13 +7517,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -7534,13 +7535,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -7552,13 +7553,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -7570,13 +7571,13 @@
         <v>6</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -7588,13 +7589,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -7606,13 +7607,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -7624,13 +7625,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -7642,13 +7643,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -7660,13 +7661,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -7678,13 +7679,13 @@
         <v>6</v>
       </c>
       <c r="C32" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>120</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -7696,13 +7697,13 @@
         <v>6</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F33" s="14"/>
     </row>
@@ -7714,19 +7715,19 @@
         <v>6</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -7813,7 +7814,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -7832,10 +7833,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -7849,13 +7850,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -7867,13 +7868,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F4" s="11"/>
     </row>
@@ -7885,13 +7886,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -7903,16 +7904,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" ht="56" spans="1:6">
@@ -7923,16 +7924,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" ht="56" spans="1:6">
@@ -7943,16 +7944,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="9" ht="70" spans="1:6">
@@ -7960,19 +7961,19 @@
         <v>45542</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" ht="70" spans="1:6">
@@ -7983,16 +7984,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D10" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="11" ht="56" spans="1:6">
@@ -8003,16 +8004,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" ht="56" spans="1:6">
@@ -8023,16 +8024,16 @@
         <v>6</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" ht="56" spans="1:6">
@@ -8043,16 +8044,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" ht="56" spans="1:6">
@@ -8063,16 +8064,16 @@
         <v>6</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D14" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="15" ht="56" spans="1:6">
@@ -8080,16 +8081,16 @@
         <v>45548</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -8101,13 +8102,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -8119,13 +8120,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -8137,13 +8138,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -8155,13 +8156,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -8170,16 +8171,16 @@
         <v>45553</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -8188,16 +8189,16 @@
         <v>45554</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -8206,16 +8207,16 @@
         <v>45555</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -8224,16 +8225,16 @@
         <v>45556</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -8245,13 +8246,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="D24" s="33" t="s">
-        <v>166</v>
-      </c>
       <c r="E24" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -8263,13 +8264,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -8281,13 +8282,13 @@
         <v>6</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -8299,13 +8300,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -8317,13 +8318,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -8335,13 +8336,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -8353,13 +8354,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -8371,13 +8372,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -8389,13 +8390,13 @@
         <v>6</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -8486,7 +8487,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -8505,10 +8506,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -8528,10 +8529,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -8548,10 +8549,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:6">
@@ -8568,10 +8569,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8588,10 +8589,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8609,7 +8610,7 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8627,7 +8628,7 @@
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8644,10 +8645,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -8665,7 +8666,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8683,7 +8684,7 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:6">
@@ -8700,10 +8701,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="13" ht="42" spans="1:6">
@@ -8720,10 +8721,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" ht="42" spans="1:6">
@@ -8740,10 +8741,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" ht="42" spans="1:6">
@@ -8760,10 +8761,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" ht="42" spans="1:6">
@@ -8780,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" ht="42" spans="1:6">
@@ -8800,10 +8801,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -8820,10 +8821,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" ht="42" spans="1:6">
@@ -8840,10 +8841,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" ht="42" spans="1:6">
@@ -8860,10 +8861,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="21" ht="42" spans="1:6">
@@ -8880,10 +8881,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" ht="42" spans="1:6">
@@ -8900,10 +8901,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" ht="42" spans="1:6">
@@ -8920,10 +8921,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" ht="42" spans="1:6">
@@ -8940,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" ht="42" spans="1:6">
@@ -8960,10 +8961,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" ht="42" spans="1:6">
@@ -8980,10 +8981,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" ht="42" spans="1:6">
@@ -9000,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -9018,7 +9019,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -9036,7 +9037,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -9054,7 +9055,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -9072,7 +9073,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -9090,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -9108,13 +9109,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -9203,7 +9204,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9215,25 +9216,25 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>5</v>
@@ -9347,7 +9348,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -9371,7 +9372,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H8" s="8"/>
     </row>
@@ -9439,7 +9440,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H11" s="10"/>
     </row>
@@ -9485,7 +9486,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H13" s="8"/>
     </row>
@@ -9509,7 +9510,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H14" s="8"/>
     </row>
@@ -9533,7 +9534,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H15" s="8"/>
     </row>
@@ -9557,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H16" s="8"/>
     </row>
@@ -9603,7 +9604,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -9671,7 +9672,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H21" s="8"/>
     </row>
@@ -9695,7 +9696,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H22" s="8"/>
     </row>
@@ -9719,7 +9720,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H23" s="8"/>
     </row>
@@ -9764,7 +9765,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H25" s="8"/>
     </row>
@@ -9788,7 +9789,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H26" s="8"/>
     </row>
@@ -9812,7 +9813,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H27" s="8"/>
     </row>
@@ -9833,7 +9834,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -9855,10 +9856,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H29" s="8"/>
     </row>
@@ -9879,7 +9880,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -9962,7 +9963,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -10057,7 +10058,7 @@
   <sheetData>
     <row r="1" ht="48" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10067,19 +10068,19 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -10170,15 +10171,15 @@
         <v>45452</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -10186,10 +10187,10 @@
         <v>45453</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -10200,14 +10201,14 @@
         <v>45454</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -10216,14 +10217,14 @@
         <v>45455</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -10232,14 +10233,14 @@
         <v>45456</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -10248,14 +10249,14 @@
         <v>45457</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -10264,17 +10265,17 @@
         <v>45458</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -10282,14 +10283,14 @@
         <v>45459</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -10298,14 +10299,14 @@
         <v>45460</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -10314,10 +10315,10 @@
         <v>45461</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -10328,14 +10329,14 @@
         <v>45462</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -10344,14 +10345,14 @@
         <v>45463</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -10360,14 +10361,14 @@
         <v>45464</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -10376,16 +10377,16 @@
         <v>45465</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D24" s="11">
         <v>2</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -10406,14 +10407,14 @@
         <v>45467</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -10422,10 +10423,10 @@
         <v>45468</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D27" s="8">
         <v>2</v>
@@ -10438,10 +10439,10 @@
         <v>45469</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
@@ -10454,10 +10455,10 @@
         <v>45470</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
@@ -10470,10 +10471,10 @@
         <v>45471</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -10487,11 +10488,11 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -10503,19 +10504,19 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D32" s="8">
         <v>1</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F32" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>

--- a/00-doc/src/00_todo/00_todo.xlsx
+++ b/00-doc/src/00_todo/00_todo.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="262">
   <si>
     <t>month goals：
 1、oral、listen everyday
@@ -96,6 +96,15 @@
   </si>
   <si>
     <t>晃荡，无法集中，看Terry人生故事</t>
+  </si>
+  <si>
+    <t>飞机回武汉</t>
+  </si>
+  <si>
+    <t>回家第1天：休息，去东湖</t>
+  </si>
+  <si>
+    <t>回家第2天：休息，在家</t>
   </si>
   <si>
     <t>#########################################################################################
@@ -4869,8 +4878,8 @@
   <sheetPr/>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:E12"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -5159,7 +5168,9 @@
       </c>
       <c r="B26" s="39"/>
       <c r="C26" s="40"/>
-      <c r="D26" s="46"/>
+      <c r="D26" s="46" t="s">
+        <v>12</v>
+      </c>
       <c r="E26" s="47"/>
       <c r="F26" s="43"/>
     </row>
@@ -5169,7 +5180,9 @@
       </c>
       <c r="B27" s="39"/>
       <c r="C27" s="42"/>
-      <c r="D27" s="46"/>
+      <c r="D27" s="46" t="s">
+        <v>13</v>
+      </c>
       <c r="E27" s="47"/>
       <c r="F27" s="43"/>
     </row>
@@ -5179,7 +5192,9 @@
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="40"/>
-      <c r="D28" s="46"/>
+      <c r="D28" s="46" t="s">
+        <v>14</v>
+      </c>
       <c r="E28" s="47"/>
       <c r="F28" s="43"/>
     </row>
@@ -5237,7 +5252,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -5298,7 +5313,7 @@
     </row>
     <row r="48" spans="5:5">
       <c r="E48" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -5403,11 +5418,11 @@
         <v>7</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="41" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5417,7 +5432,7 @@
       <c r="B4" s="39"/>
       <c r="C4" s="40"/>
       <c r="D4" s="46" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" s="47"/>
       <c r="F4" s="41"/>
@@ -5429,7 +5444,7 @@
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
       <c r="D5" s="46" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5" s="47"/>
       <c r="F5" s="41"/>
@@ -5441,7 +5456,7 @@
       <c r="B6" s="39"/>
       <c r="C6" s="42"/>
       <c r="D6" s="46" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E6" s="47"/>
       <c r="F6" s="41"/>
@@ -5453,7 +5468,7 @@
       <c r="B7" s="39"/>
       <c r="C7" s="42"/>
       <c r="D7" s="46" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E7" s="47"/>
       <c r="F7" s="43"/>
@@ -5607,7 +5622,7 @@
       <c r="D22" s="39"/>
       <c r="E22" s="48"/>
       <c r="F22" s="43" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="66" customHeight="1" spans="1:6">
@@ -5730,7 +5745,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -5885,14 +5900,14 @@
         <v>6</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="41" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" ht="84" spans="1:6">
@@ -5903,10 +5918,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="41"/>
@@ -5919,14 +5934,14 @@
         <v>6</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="41" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" ht="70" spans="1:6">
@@ -5937,10 +5952,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="41"/>
@@ -5953,7 +5968,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D7" s="46"/>
       <c r="E7" s="47"/>
@@ -5967,10 +5982,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="43"/>
@@ -5983,14 +5998,14 @@
         <v>6</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="49" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" ht="84" spans="1:6">
@@ -6001,10 +6016,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="43"/>
@@ -6017,10 +6032,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="43"/>
@@ -6033,10 +6048,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="43"/>
@@ -6049,10 +6064,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="43"/>
@@ -6065,10 +6080,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E14" s="51"/>
       <c r="F14" s="43"/>
@@ -6081,10 +6096,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E15" s="47"/>
       <c r="F15" s="43"/>
@@ -6097,10 +6112,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="43"/>
@@ -6113,10 +6128,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E17" s="51"/>
       <c r="F17" s="41"/>
@@ -6129,10 +6144,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E18" s="47"/>
       <c r="F18" s="41"/>
@@ -6145,10 +6160,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E19" s="47"/>
       <c r="F19" s="41"/>
@@ -6161,10 +6176,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E20" s="47"/>
       <c r="F20" s="41"/>
@@ -6177,10 +6192,10 @@
         <v>6</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E21" s="47"/>
       <c r="F21" s="43"/>
@@ -6193,10 +6208,10 @@
         <v>6</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E22" s="47"/>
       <c r="F22" s="43"/>
@@ -6209,14 +6224,14 @@
         <v>6</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E23" s="47"/>
       <c r="F23" s="41" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" ht="84" spans="1:6">
@@ -6227,10 +6242,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E24" s="47"/>
       <c r="F24" s="43"/>
@@ -6243,10 +6258,10 @@
         <v>6</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E25" s="47"/>
       <c r="F25" s="43"/>
@@ -6259,14 +6274,14 @@
         <v>6</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E26" s="47"/>
       <c r="F26" s="43" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6349,7 +6364,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -6470,7 +6485,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -6489,10 +6504,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -6506,13 +6521,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F3" s="41"/>
     </row>
@@ -6524,13 +6539,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F4" s="41"/>
     </row>
@@ -6542,13 +6557,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F5" s="41"/>
     </row>
@@ -6560,13 +6575,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F6" s="41"/>
     </row>
@@ -6578,13 +6593,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F7" s="43"/>
     </row>
@@ -6596,13 +6611,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F8" s="43"/>
     </row>
@@ -6614,13 +6629,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F9" s="43"/>
     </row>
@@ -6632,13 +6647,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F10" s="43"/>
     </row>
@@ -6650,13 +6665,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F11" s="43"/>
     </row>
@@ -6668,13 +6683,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F12" s="43"/>
     </row>
@@ -6686,13 +6701,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F13" s="43"/>
     </row>
@@ -6704,13 +6719,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F14" s="43"/>
     </row>
@@ -6722,13 +6737,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F15" s="43"/>
     </row>
@@ -6740,13 +6755,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F16" s="43"/>
     </row>
@@ -6758,13 +6773,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F17" s="41"/>
     </row>
@@ -6776,13 +6791,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F18" s="41"/>
     </row>
@@ -6794,13 +6809,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F19" s="41"/>
     </row>
@@ -6812,13 +6827,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F20" s="41"/>
     </row>
@@ -6830,13 +6845,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F21" s="43"/>
     </row>
@@ -6848,13 +6863,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F22" s="43"/>
     </row>
@@ -6866,13 +6881,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F23" s="43"/>
     </row>
@@ -6884,13 +6899,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F24" s="43"/>
     </row>
@@ -6902,13 +6917,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F25" s="43"/>
     </row>
@@ -6920,31 +6935,31 @@
         <v>6</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F26" s="43"/>
     </row>
     <row r="27" ht="84" spans="1:6">
       <c r="A27" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B27" s="39" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F27" s="43"/>
     </row>
@@ -6956,13 +6971,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F28" s="43"/>
     </row>
@@ -6974,13 +6989,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F29" s="43"/>
     </row>
@@ -6992,13 +7007,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F30" s="43"/>
     </row>
@@ -7010,13 +7025,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F31" s="43"/>
     </row>
@@ -7028,19 +7043,19 @@
         <v>6</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F32" s="43"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -7127,7 +7142,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -7146,10 +7161,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -7160,16 +7175,16 @@
         <v>45566</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -7178,19 +7193,19 @@
         <v>45567</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" ht="70" spans="1:6">
@@ -7201,13 +7216,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -7219,13 +7234,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F6" s="8"/>
     </row>
@@ -7237,13 +7252,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -7255,13 +7270,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -7273,10 +7288,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="8"/>
@@ -7289,10 +7304,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="8"/>
@@ -7305,10 +7320,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="8"/>
@@ -7321,10 +7336,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="8"/>
@@ -7337,13 +7352,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -7355,13 +7370,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -7373,13 +7388,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -7391,13 +7406,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -7409,13 +7424,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -7427,13 +7442,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -7445,13 +7460,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -7463,13 +7478,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -7481,13 +7496,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -7499,13 +7514,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -7517,13 +7532,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -7535,13 +7550,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -7553,13 +7568,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -7571,13 +7586,13 @@
         <v>6</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -7589,13 +7604,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -7607,13 +7622,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -7625,13 +7640,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -7643,13 +7658,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -7661,13 +7676,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -7679,13 +7694,13 @@
         <v>6</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -7697,13 +7712,13 @@
         <v>6</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F33" s="14"/>
     </row>
@@ -7715,19 +7730,19 @@
         <v>6</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -7814,7 +7829,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -7833,10 +7848,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -7850,13 +7865,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -7868,13 +7883,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F4" s="11"/>
     </row>
@@ -7886,13 +7901,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -7904,16 +7919,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" ht="56" spans="1:6">
@@ -7924,16 +7939,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" ht="56" spans="1:6">
@@ -7944,16 +7959,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" ht="70" spans="1:6">
@@ -7961,19 +7976,19 @@
         <v>45542</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" ht="70" spans="1:6">
@@ -7984,16 +7999,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" ht="56" spans="1:6">
@@ -8004,16 +8019,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D11" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="12" ht="56" spans="1:6">
@@ -8024,16 +8039,16 @@
         <v>6</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" ht="56" spans="1:6">
@@ -8044,16 +8059,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" ht="56" spans="1:6">
@@ -8064,16 +8079,16 @@
         <v>6</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" ht="56" spans="1:6">
@@ -8081,16 +8096,16 @@
         <v>45548</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -8102,13 +8117,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -8120,13 +8135,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -8138,13 +8153,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -8156,13 +8171,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -8171,16 +8186,16 @@
         <v>45553</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -8189,16 +8204,16 @@
         <v>45554</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -8207,16 +8222,16 @@
         <v>45555</v>
       </c>
       <c r="B22" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="C22" s="38" t="s">
-        <v>161</v>
-      </c>
       <c r="D22" s="33" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -8225,16 +8240,16 @@
         <v>45556</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -8246,13 +8261,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -8264,13 +8279,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -8282,13 +8297,13 @@
         <v>6</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -8300,13 +8315,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -8318,13 +8333,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -8336,13 +8351,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -8354,13 +8369,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -8372,13 +8387,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -8390,13 +8405,13 @@
         <v>6</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -8487,7 +8502,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -8506,10 +8521,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -8529,10 +8544,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -8549,10 +8564,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:6">
@@ -8569,10 +8584,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8589,10 +8604,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8610,7 +8625,7 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8628,7 +8643,7 @@
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="8" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8645,10 +8660,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -8666,7 +8681,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8684,7 +8699,7 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:6">
@@ -8701,10 +8716,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" ht="42" spans="1:6">
@@ -8721,10 +8736,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" ht="42" spans="1:6">
@@ -8741,10 +8756,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" ht="42" spans="1:6">
@@ -8761,10 +8776,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" ht="42" spans="1:6">
@@ -8781,10 +8796,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" ht="42" spans="1:6">
@@ -8801,10 +8816,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -8821,10 +8836,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" ht="42" spans="1:6">
@@ -8841,10 +8856,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" ht="42" spans="1:6">
@@ -8861,10 +8876,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" ht="42" spans="1:6">
@@ -8881,10 +8896,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" ht="42" spans="1:6">
@@ -8901,10 +8916,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" ht="42" spans="1:6">
@@ -8921,10 +8936,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" ht="42" spans="1:6">
@@ -8941,10 +8956,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" ht="42" spans="1:6">
@@ -8961,10 +8976,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" ht="42" spans="1:6">
@@ -8981,10 +8996,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" ht="42" spans="1:6">
@@ -9001,7 +9016,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -9019,7 +9034,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -9037,7 +9052,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -9055,7 +9070,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -9073,7 +9088,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -9091,7 +9106,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -9109,13 +9124,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -9204,7 +9219,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9216,25 +9231,25 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>5</v>
@@ -9348,7 +9363,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -9372,7 +9387,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H8" s="8"/>
     </row>
@@ -9440,7 +9455,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H11" s="10"/>
     </row>
@@ -9486,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H13" s="8"/>
     </row>
@@ -9510,7 +9525,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H14" s="8"/>
     </row>
@@ -9534,7 +9549,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H15" s="8"/>
     </row>
@@ -9558,7 +9573,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H16" s="8"/>
     </row>
@@ -9604,7 +9619,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -9672,7 +9687,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H21" s="8"/>
     </row>
@@ -9696,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H22" s="8"/>
     </row>
@@ -9720,7 +9735,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H23" s="8"/>
     </row>
@@ -9765,7 +9780,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H25" s="8"/>
     </row>
@@ -9789,7 +9804,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H26" s="8"/>
     </row>
@@ -9813,7 +9828,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H27" s="8"/>
     </row>
@@ -9834,7 +9849,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -9856,10 +9871,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H29" s="8"/>
     </row>
@@ -9880,7 +9895,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -9963,7 +9978,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -10058,7 +10073,7 @@
   <sheetData>
     <row r="1" ht="48" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10068,19 +10083,19 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -10171,15 +10186,15 @@
         <v>45452</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="10" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -10187,10 +10202,10 @@
         <v>45453</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -10201,14 +10216,14 @@
         <v>45454</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -10217,14 +10232,14 @@
         <v>45455</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -10233,14 +10248,14 @@
         <v>45456</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -10249,14 +10264,14 @@
         <v>45457</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -10265,17 +10280,17 @@
         <v>45458</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -10283,14 +10298,14 @@
         <v>45459</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -10299,14 +10314,14 @@
         <v>45460</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -10315,10 +10330,10 @@
         <v>45461</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -10329,14 +10344,14 @@
         <v>45462</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -10345,14 +10360,14 @@
         <v>45463</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -10361,14 +10376,14 @@
         <v>45464</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -10377,16 +10392,16 @@
         <v>45465</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D24" s="11">
         <v>2</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -10407,14 +10422,14 @@
         <v>45467</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -10423,10 +10438,10 @@
         <v>45468</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D27" s="8">
         <v>2</v>
@@ -10439,10 +10454,10 @@
         <v>45469</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
@@ -10455,10 +10470,10 @@
         <v>45470</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
@@ -10471,10 +10486,10 @@
         <v>45471</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -10488,11 +10503,11 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -10504,19 +10519,19 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D32" s="8">
         <v>1</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F32" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>

--- a/00-doc/src/00_todo/00_todo.xlsx
+++ b/00-doc/src/00_todo/00_todo.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="263">
   <si>
     <t>month goals：
 1、oral、listen everyday
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>回家第2天：休息，在家</t>
+  </si>
+  <si>
+    <t>回家第3天：休息，在家</t>
   </si>
   <si>
     <t>#########################################################################################
@@ -4878,8 +4881,8 @@
   <sheetPr/>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -5204,7 +5207,9 @@
       </c>
       <c r="B29" s="39"/>
       <c r="C29" s="42"/>
-      <c r="D29" s="46"/>
+      <c r="D29" s="46" t="s">
+        <v>15</v>
+      </c>
       <c r="E29" s="47"/>
       <c r="F29" s="43"/>
     </row>
@@ -5252,7 +5257,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -5313,7 +5318,7 @@
     </row>
     <row r="48" spans="5:5">
       <c r="E48" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -5418,11 +5423,11 @@
         <v>7</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5432,7 +5437,7 @@
       <c r="B4" s="39"/>
       <c r="C4" s="40"/>
       <c r="D4" s="46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="47"/>
       <c r="F4" s="41"/>
@@ -5444,7 +5449,7 @@
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
       <c r="D5" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="47"/>
       <c r="F5" s="41"/>
@@ -5456,7 +5461,7 @@
       <c r="B6" s="39"/>
       <c r="C6" s="42"/>
       <c r="D6" s="46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="47"/>
       <c r="F6" s="41"/>
@@ -5468,7 +5473,7 @@
       <c r="B7" s="39"/>
       <c r="C7" s="42"/>
       <c r="D7" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="47"/>
       <c r="F7" s="43"/>
@@ -5622,7 +5627,7 @@
       <c r="D22" s="39"/>
       <c r="E22" s="48"/>
       <c r="F22" s="43" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="66" customHeight="1" spans="1:6">
@@ -5745,7 +5750,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -5900,14 +5905,14 @@
         <v>6</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" ht="84" spans="1:6">
@@ -5918,10 +5923,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="41"/>
@@ -5934,14 +5939,14 @@
         <v>6</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" ht="70" spans="1:6">
@@ -5952,10 +5957,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="41"/>
@@ -5968,7 +5973,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" s="46"/>
       <c r="E7" s="47"/>
@@ -5982,10 +5987,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="43"/>
@@ -5998,14 +6003,14 @@
         <v>6</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" ht="84" spans="1:6">
@@ -6016,10 +6021,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="43"/>
@@ -6032,10 +6037,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="43"/>
@@ -6048,10 +6053,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="43"/>
@@ -6064,10 +6069,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="43"/>
@@ -6080,10 +6085,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E14" s="51"/>
       <c r="F14" s="43"/>
@@ -6096,10 +6101,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E15" s="47"/>
       <c r="F15" s="43"/>
@@ -6112,10 +6117,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="43"/>
@@ -6128,10 +6133,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E17" s="51"/>
       <c r="F17" s="41"/>
@@ -6144,10 +6149,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E18" s="47"/>
       <c r="F18" s="41"/>
@@ -6160,10 +6165,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19" s="47"/>
       <c r="F19" s="41"/>
@@ -6176,10 +6181,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20" s="47"/>
       <c r="F20" s="41"/>
@@ -6192,10 +6197,10 @@
         <v>6</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E21" s="47"/>
       <c r="F21" s="43"/>
@@ -6208,10 +6213,10 @@
         <v>6</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E22" s="47"/>
       <c r="F22" s="43"/>
@@ -6224,14 +6229,14 @@
         <v>6</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E23" s="47"/>
       <c r="F23" s="41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" ht="84" spans="1:6">
@@ -6242,10 +6247,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24" s="47"/>
       <c r="F24" s="43"/>
@@ -6258,10 +6263,10 @@
         <v>6</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E25" s="47"/>
       <c r="F25" s="43"/>
@@ -6274,14 +6279,14 @@
         <v>6</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E26" s="47"/>
       <c r="F26" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6364,7 +6369,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -6485,7 +6490,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -6504,10 +6509,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -6521,13 +6526,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F3" s="41"/>
     </row>
@@ -6539,13 +6544,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F4" s="41"/>
     </row>
@@ -6557,13 +6562,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F5" s="41"/>
     </row>
@@ -6575,13 +6580,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F6" s="41"/>
     </row>
@@ -6593,13 +6598,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F7" s="43"/>
     </row>
@@ -6611,13 +6616,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F8" s="43"/>
     </row>
@@ -6629,13 +6634,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F9" s="43"/>
     </row>
@@ -6647,13 +6652,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F10" s="43"/>
     </row>
@@ -6665,13 +6670,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F11" s="43"/>
     </row>
@@ -6683,13 +6688,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F12" s="43"/>
     </row>
@@ -6701,13 +6706,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F13" s="43"/>
     </row>
@@ -6719,13 +6724,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F14" s="43"/>
     </row>
@@ -6737,13 +6742,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F15" s="43"/>
     </row>
@@ -6755,13 +6760,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F16" s="43"/>
     </row>
@@ -6773,13 +6778,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F17" s="41"/>
     </row>
@@ -6791,13 +6796,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F18" s="41"/>
     </row>
@@ -6809,13 +6814,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F19" s="41"/>
     </row>
@@ -6827,13 +6832,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F20" s="41"/>
     </row>
@@ -6845,13 +6850,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F21" s="43"/>
     </row>
@@ -6863,13 +6868,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F22" s="43"/>
     </row>
@@ -6881,13 +6886,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F23" s="43"/>
     </row>
@@ -6899,13 +6904,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F24" s="43"/>
     </row>
@@ -6917,13 +6922,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F25" s="43"/>
     </row>
@@ -6935,31 +6940,31 @@
         <v>6</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F26" s="43"/>
     </row>
     <row r="27" ht="84" spans="1:6">
       <c r="A27" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="41" t="s">
         <v>69</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>68</v>
       </c>
       <c r="F27" s="43"/>
     </row>
@@ -6971,13 +6976,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F28" s="43"/>
     </row>
@@ -6989,13 +6994,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F29" s="43"/>
     </row>
@@ -7007,13 +7012,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F30" s="43"/>
     </row>
@@ -7025,13 +7030,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F31" s="43"/>
     </row>
@@ -7043,19 +7048,19 @@
         <v>6</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F32" s="43"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -7142,7 +7147,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -7161,10 +7166,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -7175,16 +7180,16 @@
         <v>45566</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -7193,19 +7198,19 @@
         <v>45567</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" ht="70" spans="1:6">
@@ -7216,13 +7221,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -7234,13 +7239,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F6" s="8"/>
     </row>
@@ -7252,13 +7257,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -7270,13 +7275,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -7288,10 +7293,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="8"/>
@@ -7304,10 +7309,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="8"/>
@@ -7320,10 +7325,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="8"/>
@@ -7336,10 +7341,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="8"/>
@@ -7352,13 +7357,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -7370,13 +7375,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -7388,13 +7393,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -7406,13 +7411,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -7424,13 +7429,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -7442,13 +7447,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -7460,13 +7465,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="33" t="s">
-        <v>118</v>
-      </c>
       <c r="E19" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -7478,13 +7483,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="33" t="s">
-        <v>118</v>
-      </c>
       <c r="E20" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -7496,13 +7501,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="33" t="s">
-        <v>118</v>
-      </c>
       <c r="E21" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -7514,13 +7519,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -7532,13 +7537,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -7550,13 +7555,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -7568,13 +7573,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -7586,13 +7591,13 @@
         <v>6</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -7604,13 +7609,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -7622,13 +7627,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -7640,13 +7645,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -7658,13 +7663,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -7676,13 +7681,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -7694,13 +7699,13 @@
         <v>6</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -7712,13 +7717,13 @@
         <v>6</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F33" s="14"/>
     </row>
@@ -7730,19 +7735,19 @@
         <v>6</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -7829,7 +7834,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -7848,10 +7853,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -7865,13 +7870,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -7883,13 +7888,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F4" s="11"/>
     </row>
@@ -7901,13 +7906,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>133</v>
-      </c>
       <c r="E5" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -7919,16 +7924,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="35" t="s">
-        <v>133</v>
-      </c>
       <c r="E6" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" ht="56" spans="1:6">
@@ -7939,16 +7944,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="35" t="s">
-        <v>133</v>
-      </c>
       <c r="E7" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" ht="56" spans="1:6">
@@ -7959,16 +7964,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D8" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="9" ht="70" spans="1:6">
@@ -7976,19 +7981,19 @@
         <v>45542</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" ht="70" spans="1:6">
@@ -7999,16 +8004,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="11" ht="56" spans="1:6">
@@ -8019,16 +8024,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" ht="56" spans="1:6">
@@ -8039,16 +8044,16 @@
         <v>6</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" ht="56" spans="1:6">
@@ -8059,16 +8064,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="14" ht="56" spans="1:6">
@@ -8079,16 +8084,16 @@
         <v>6</v>
       </c>
       <c r="C14" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="15" ht="56" spans="1:6">
@@ -8096,16 +8101,16 @@
         <v>45548</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -8117,13 +8122,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -8135,13 +8140,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -8153,13 +8158,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -8171,13 +8176,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -8186,16 +8191,16 @@
         <v>45553</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -8204,16 +8209,16 @@
         <v>45554</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -8222,16 +8227,16 @@
         <v>45555</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -8240,16 +8245,16 @@
         <v>45556</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -8261,13 +8266,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -8279,13 +8284,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -8297,13 +8302,13 @@
         <v>6</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -8315,13 +8320,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -8333,13 +8338,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -8351,13 +8356,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -8369,13 +8374,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -8387,13 +8392,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -8405,13 +8410,13 @@
         <v>6</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -8502,7 +8507,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -8521,10 +8526,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -8544,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -8564,10 +8569,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:6">
@@ -8584,10 +8589,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8604,10 +8609,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8625,7 +8630,7 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8643,7 +8648,7 @@
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8660,10 +8665,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>197</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -8681,7 +8686,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8699,7 +8704,7 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:6">
@@ -8716,10 +8721,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" ht="42" spans="1:6">
@@ -8736,10 +8741,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" ht="42" spans="1:6">
@@ -8756,10 +8761,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" ht="42" spans="1:6">
@@ -8776,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" ht="42" spans="1:6">
@@ -8796,10 +8801,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" ht="42" spans="1:6">
@@ -8816,10 +8821,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -8836,10 +8841,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" ht="42" spans="1:6">
@@ -8856,10 +8861,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>203</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="20" ht="42" spans="1:6">
@@ -8876,10 +8881,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" ht="42" spans="1:6">
@@ -8896,10 +8901,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" ht="42" spans="1:6">
@@ -8916,10 +8921,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" ht="42" spans="1:6">
@@ -8936,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" ht="42" spans="1:6">
@@ -8956,10 +8961,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" ht="42" spans="1:6">
@@ -8976,10 +8981,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" ht="42" spans="1:6">
@@ -8996,10 +9001,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="27" ht="42" spans="1:6">
@@ -9016,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -9034,7 +9039,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -9052,7 +9057,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -9070,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -9088,7 +9093,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -9106,7 +9111,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -9124,13 +9129,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -9219,7 +9224,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9231,25 +9236,25 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>5</v>
@@ -9363,7 +9368,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -9387,7 +9392,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H8" s="8"/>
     </row>
@@ -9455,7 +9460,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H11" s="10"/>
     </row>
@@ -9501,7 +9506,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H13" s="8"/>
     </row>
@@ -9525,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H14" s="8"/>
     </row>
@@ -9549,7 +9554,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H15" s="8"/>
     </row>
@@ -9573,7 +9578,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H16" s="8"/>
     </row>
@@ -9619,7 +9624,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -9687,7 +9692,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H21" s="8"/>
     </row>
@@ -9711,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H22" s="8"/>
     </row>
@@ -9735,7 +9740,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H23" s="8"/>
     </row>
@@ -9780,7 +9785,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H25" s="8"/>
     </row>
@@ -9804,7 +9809,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H26" s="8"/>
     </row>
@@ -9828,7 +9833,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H27" s="8"/>
     </row>
@@ -9849,7 +9854,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -9871,10 +9876,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H29" s="8"/>
     </row>
@@ -9895,7 +9900,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -9978,7 +9983,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -10073,7 +10078,7 @@
   <sheetData>
     <row r="1" ht="48" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10083,19 +10088,19 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -10186,15 +10191,15 @@
         <v>45452</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -10202,10 +10207,10 @@
         <v>45453</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -10216,14 +10221,14 @@
         <v>45454</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -10232,14 +10237,14 @@
         <v>45455</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -10248,14 +10253,14 @@
         <v>45456</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -10264,14 +10269,14 @@
         <v>45457</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -10280,17 +10285,17 @@
         <v>45458</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -10298,14 +10303,14 @@
         <v>45459</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -10314,14 +10319,14 @@
         <v>45460</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -10330,10 +10335,10 @@
         <v>45461</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -10344,14 +10349,14 @@
         <v>45462</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -10360,14 +10365,14 @@
         <v>45463</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -10376,14 +10381,14 @@
         <v>45464</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -10392,16 +10397,16 @@
         <v>45465</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D24" s="11">
         <v>2</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -10422,14 +10427,14 @@
         <v>45467</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -10438,10 +10443,10 @@
         <v>45468</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D27" s="8">
         <v>2</v>
@@ -10454,10 +10459,10 @@
         <v>45469</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
@@ -10470,10 +10475,10 @@
         <v>45470</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
@@ -10486,10 +10491,10 @@
         <v>45471</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -10503,11 +10508,11 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -10519,19 +10524,19 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D32" s="8">
         <v>1</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F32" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>

--- a/00-doc/src/00_todo/00_todo.xlsx
+++ b/00-doc/src/00_todo/00_todo.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="8080"/>
+    <workbookView windowWidth="18350" windowHeight="8080" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2025-02" sheetId="9" r:id="rId1"/>
-    <sheet name="2025-01" sheetId="8" r:id="rId2"/>
-    <sheet name="2024-12" sheetId="7" r:id="rId3"/>
-    <sheet name="2024-11" sheetId="6" r:id="rId4"/>
-    <sheet name="2024-10" sheetId="5" r:id="rId5"/>
-    <sheet name="2024-09" sheetId="4" r:id="rId6"/>
-    <sheet name="2024-08" sheetId="3" r:id="rId7"/>
-    <sheet name="2024-07" sheetId="2" r:id="rId8"/>
-    <sheet name="2024-06" sheetId="1" r:id="rId9"/>
+    <sheet name="2025-03" sheetId="10" r:id="rId1"/>
+    <sheet name="2025-02" sheetId="9" r:id="rId2"/>
+    <sheet name="2025-01" sheetId="8" r:id="rId3"/>
+    <sheet name="2024-12" sheetId="7" r:id="rId4"/>
+    <sheet name="2024-11" sheetId="6" r:id="rId5"/>
+    <sheet name="2024-10" sheetId="5" r:id="rId6"/>
+    <sheet name="2024-09" sheetId="4" r:id="rId7"/>
+    <sheet name="2024-08" sheetId="3" r:id="rId8"/>
+    <sheet name="2024-07" sheetId="2" r:id="rId9"/>
+    <sheet name="2024-06" sheetId="1" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="266">
   <si>
     <t>month goals：
 1、oral、listen everyday
@@ -63,51 +64,9 @@
 3、workout</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1、300 words
-2、0.5 listen test
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">6、oral practise </t>
-    </r>
-  </si>
-  <si>
-    <t>离职回家</t>
-  </si>
-  <si>
-    <t>研究crypto钱包</t>
-  </si>
-  <si>
-    <t>偷懒，无法集中注意力，晃荡</t>
-  </si>
-  <si>
-    <t>晃荡，无法集中，看Terry人生故事</t>
-  </si>
-  <si>
-    <t>飞机回武汉</t>
-  </si>
-  <si>
-    <t>回家第1天：休息，去东湖</t>
-  </si>
-  <si>
-    <t>回家第2天：休息，在家</t>
-  </si>
-  <si>
-    <t>回家第3天：休息，在家</t>
+    <t xml:space="preserve">1、300 words
+2、0.5h listen test
+6、oral practise </t>
   </si>
   <si>
     <t>#########################################################################################
@@ -119,6 +78,78 @@
   </si>
   <si>
     <t>昨天越來越多，明天越來越少，好好的享受人生，做自己，FIRE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1、300 words
+2、0.5 listen test
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">6、oral practise </t>
+    </r>
+  </si>
+  <si>
+    <t>年假：合约爆仓，40万</t>
+  </si>
+  <si>
+    <t>离职回家</t>
+  </si>
+  <si>
+    <t>研究crypto钱包</t>
+  </si>
+  <si>
+    <t>偷懒，无法集中注意力，晃荡</t>
+  </si>
+  <si>
+    <t>晃荡，无法集中，看Terry人生故事</t>
+  </si>
+  <si>
+    <t>飞机回武汉</t>
+  </si>
+  <si>
+    <t>回家第1天：休息，去东湖</t>
+  </si>
+  <si>
+    <t>回家第2天：休息，在家</t>
+  </si>
+  <si>
+    <t>回家第3天：休息，在家</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">回家第3天：休息，在家
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>合约爆仓50000元</t>
+    </r>
   </si>
   <si>
     <r>
@@ -4394,7 +4425,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6825615" y="13103860"/>
+          <a:off x="6825615" y="12735560"/>
           <a:ext cx="3931285" cy="2026285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4402,88 +4433,6 @@
         </a:prstGeom>
         <a:noFill/>
         <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="Image"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="14884400"/>
-          <a:ext cx="203200" cy="203200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3" descr="Image"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="933450" y="14884400"/>
-          <a:ext cx="203200" cy="203200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -4505,7 +4454,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4518,7 +4467,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1555750" y="14864080"/>
+          <a:off x="1555750" y="14495780"/>
           <a:ext cx="3361690" cy="4961255"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4565,6 +4514,177 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="6825615" y="13332460"/>
+          <a:ext cx="3931285" cy="2026285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="Image"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15113000"/>
+          <a:ext cx="203200" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="Image"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="933450" y="15113000"/>
+          <a:ext cx="203200" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>157480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>580390</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>140335</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1555750" y="15092680"/>
+          <a:ext cx="3361690" cy="4961255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2089150</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>67945</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="6825615" y="13103860"/>
           <a:ext cx="3931285" cy="2026285"/>
         </a:xfrm>
@@ -4582,7 +4702,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4881,8 +5001,8 @@
   <sheetPr/>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -4923,11 +5043,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="196" customHeight="1" spans="1:6">
+    <row r="3" ht="149" customHeight="1" spans="1:6">
       <c r="A3" s="9">
-        <v>45689</v>
-      </c>
-      <c r="B3" s="39" t="s">
+        <v>45717</v>
+      </c>
+      <c r="B3" s="46" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="40" t="s">
@@ -4939,7 +5059,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9">
-        <v>45690</v>
+        <v>45718</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="40"/>
@@ -4949,17 +5069,17 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="20">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="41"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="20">
-        <v>45692</v>
+        <v>45720</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="42"/>
@@ -4969,7 +5089,7 @@
     </row>
     <row r="7" ht="73" customHeight="1" spans="1:6">
       <c r="A7" s="20">
-        <v>45693</v>
+        <v>45721</v>
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="42"/>
@@ -4979,7 +5099,7 @@
     </row>
     <row r="8" ht="65" customHeight="1" spans="1:6">
       <c r="A8" s="20">
-        <v>45694</v>
+        <v>45722</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="42"/>
@@ -4989,7 +5109,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="20">
-        <v>45695</v>
+        <v>45723</v>
       </c>
       <c r="B9" s="39"/>
       <c r="C9" s="42"/>
@@ -4999,7 +5119,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="9">
-        <v>45696</v>
+        <v>45724</v>
       </c>
       <c r="B10" s="39"/>
       <c r="C10" s="42"/>
@@ -5009,7 +5129,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="9">
-        <v>45697</v>
+        <v>45725</v>
       </c>
       <c r="B11" s="39"/>
       <c r="C11" s="42"/>
@@ -5019,7 +5139,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="20">
-        <v>45698</v>
+        <v>45726</v>
       </c>
       <c r="B12" s="39"/>
       <c r="C12" s="42"/>
@@ -5029,7 +5149,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="20">
-        <v>45699</v>
+        <v>45727</v>
       </c>
       <c r="B13" s="39"/>
       <c r="C13" s="42"/>
@@ -5039,7 +5159,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="20">
-        <v>45700</v>
+        <v>45728</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="42"/>
@@ -5049,7 +5169,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="20">
-        <v>45701</v>
+        <v>45729</v>
       </c>
       <c r="B15" s="39"/>
       <c r="C15" s="42"/>
@@ -5059,7 +5179,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="20">
-        <v>45702</v>
+        <v>45730</v>
       </c>
       <c r="B16" s="39"/>
       <c r="C16" s="42"/>
@@ -5069,7 +5189,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="9">
-        <v>45703</v>
+        <v>45731</v>
       </c>
       <c r="B17" s="39"/>
       <c r="C17" s="42"/>
@@ -5079,7 +5199,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="9">
-        <v>45704</v>
+        <v>45732</v>
       </c>
       <c r="B18" s="39"/>
       <c r="C18" s="42"/>
@@ -5089,7 +5209,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="20">
-        <v>45705</v>
+        <v>45733</v>
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="42"/>
@@ -5099,7 +5219,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="20">
-        <v>45706</v>
+        <v>45734</v>
       </c>
       <c r="B20" s="39"/>
       <c r="C20" s="42"/>
@@ -5109,55 +5229,47 @@
     </row>
     <row r="21" ht="40" customHeight="1" spans="1:6">
       <c r="A21" s="20">
-        <v>45707</v>
+        <v>45735</v>
       </c>
       <c r="B21" s="39"/>
       <c r="C21" s="42"/>
-      <c r="D21" s="50" t="s">
-        <v>8</v>
-      </c>
+      <c r="D21" s="50"/>
       <c r="E21" s="51"/>
       <c r="F21" s="43"/>
     </row>
     <row r="22" ht="45" customHeight="1" spans="1:6">
       <c r="A22" s="20">
-        <v>45708</v>
+        <v>45736</v>
       </c>
       <c r="B22" s="39"/>
       <c r="C22" s="42"/>
-      <c r="D22" s="46" t="s">
-        <v>9</v>
-      </c>
+      <c r="D22" s="46"/>
       <c r="E22" s="47"/>
       <c r="F22" s="43"/>
     </row>
     <row r="23" ht="66" customHeight="1" spans="1:6">
       <c r="A23" s="20">
-        <v>45709</v>
+        <v>45737</v>
       </c>
       <c r="B23" s="39"/>
       <c r="C23" s="42"/>
-      <c r="D23" s="46" t="s">
-        <v>10</v>
-      </c>
+      <c r="D23" s="46"/>
       <c r="E23" s="47"/>
       <c r="F23" s="41"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="9">
-        <v>45710</v>
+        <v>45738</v>
       </c>
       <c r="B24" s="39"/>
       <c r="C24" s="42"/>
-      <c r="D24" s="46" t="s">
-        <v>11</v>
-      </c>
+      <c r="D24" s="46"/>
       <c r="E24" s="47"/>
       <c r="F24" s="43"/>
     </row>
-    <row r="25" ht="80" customHeight="1" spans="1:6">
+    <row r="25" ht="57" customHeight="1" spans="1:6">
       <c r="A25" s="9">
-        <v>45711</v>
+        <v>45739</v>
       </c>
       <c r="B25" s="39"/>
       <c r="C25" s="42"/>
@@ -5167,55 +5279,47 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="20">
-        <v>45712</v>
+        <v>45740</v>
       </c>
       <c r="B26" s="39"/>
       <c r="C26" s="40"/>
-      <c r="D26" s="46" t="s">
-        <v>12</v>
-      </c>
+      <c r="D26" s="46"/>
       <c r="E26" s="47"/>
       <c r="F26" s="43"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="20">
-        <v>45713</v>
+        <v>45741</v>
       </c>
       <c r="B27" s="39"/>
       <c r="C27" s="42"/>
-      <c r="D27" s="46" t="s">
-        <v>13</v>
-      </c>
+      <c r="D27" s="46"/>
       <c r="E27" s="47"/>
       <c r="F27" s="43"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="20">
-        <v>45714</v>
+        <v>45742</v>
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="40"/>
-      <c r="D28" s="46" t="s">
-        <v>14</v>
-      </c>
+      <c r="D28" s="46"/>
       <c r="E28" s="47"/>
       <c r="F28" s="43"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" ht="35" customHeight="1" spans="1:6">
       <c r="A29" s="20">
-        <v>45715</v>
+        <v>45743</v>
       </c>
       <c r="B29" s="39"/>
       <c r="C29" s="42"/>
-      <c r="D29" s="46" t="s">
-        <v>15</v>
-      </c>
+      <c r="D29" s="46"/>
       <c r="E29" s="47"/>
       <c r="F29" s="43"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" ht="34" customHeight="1" spans="1:6">
       <c r="A30" s="20">
-        <v>45716</v>
+        <v>45744</v>
       </c>
       <c r="B30" s="39"/>
       <c r="C30" s="42"/>
@@ -5224,7 +5328,9 @@
       <c r="F30" s="43"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="20"/>
+      <c r="A31" s="9">
+        <v>45745</v>
+      </c>
       <c r="B31" s="39"/>
       <c r="C31" s="42"/>
       <c r="D31" s="46"/>
@@ -5232,7 +5338,9 @@
       <c r="F31" s="43"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="20"/>
+      <c r="A32" s="9">
+        <v>45746</v>
+      </c>
       <c r="B32" s="39"/>
       <c r="C32" s="42"/>
       <c r="D32" s="46"/>
@@ -5240,7 +5348,9 @@
       <c r="F32" s="43"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="20"/>
+      <c r="A33" s="20">
+        <v>45747</v>
+      </c>
       <c r="B33" s="52"/>
       <c r="C33" s="52"/>
       <c r="D33" s="56"/>
@@ -5257,7 +5367,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -5318,7 +5428,7 @@
     </row>
     <row r="48" spans="5:5">
       <c r="E48" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -5365,13 +5475,566 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="15.4545454545455" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.0909090909091" customWidth="1"/>
+    <col min="3" max="3" width="21.6363636363636" customWidth="1"/>
+    <col min="4" max="4" width="17.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="41.3636363636364" customWidth="1"/>
+    <col min="6" max="6" width="34.6363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="48" customHeight="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" ht="63" customHeight="1" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7">
+        <v>45444</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7">
+        <v>45445</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7">
+        <v>45446</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="7">
+        <v>45447</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="7">
+        <v>45448</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="7">
+        <v>45449</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="7">
+        <v>45450</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="9">
+        <v>45451</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="9">
+        <v>45452</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="9">
+        <v>45453</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="7">
+        <v>45454</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="7">
+        <v>45455</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="7">
+        <v>45456</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" ht="28" spans="1:6">
+      <c r="A16" s="7">
+        <v>45457</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" ht="42" spans="1:6">
+      <c r="A17" s="9">
+        <v>45458</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" ht="42" spans="1:6">
+      <c r="A18" s="9">
+        <v>45459</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" ht="28" spans="1:6">
+      <c r="A19" s="7">
+        <v>45460</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="7">
+        <v>45461</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" ht="28" spans="1:6">
+      <c r="A21" s="7">
+        <v>45462</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="7">
+        <v>45463</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="7">
+        <v>45464</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" ht="28" spans="1:6">
+      <c r="A24" s="9">
+        <v>45465</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D24" s="11">
+        <v>2</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="9">
+        <v>45466</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8">
+        <v>2</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="7">
+        <v>45467</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D27" s="8">
+        <v>2</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="7">
+        <v>45469</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="7">
+        <v>45470</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="7">
+        <v>45471</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="9">
+        <v>45472</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="9">
+        <v>45473</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A34:F41"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -5414,73 +6077,63 @@
     </row>
     <row r="3" ht="196" customHeight="1" spans="1:6">
       <c r="A3" s="9">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>18</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D3" s="39"/>
       <c r="E3" s="47"/>
-      <c r="F3" s="41" t="s">
-        <v>19</v>
-      </c>
+      <c r="F3" s="41"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="20">
-        <v>45659</v>
+      <c r="A4" s="9">
+        <v>45690</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="40"/>
-      <c r="D4" s="46" t="s">
-        <v>20</v>
-      </c>
+      <c r="D4" s="46"/>
       <c r="E4" s="47"/>
       <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="9">
-        <v>45660</v>
+        <v>45691</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="47"/>
+      <c r="D5" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="51"/>
       <c r="F5" s="41"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9">
-        <v>45661</v>
+        <v>45692</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="42"/>
-      <c r="D6" s="46" t="s">
-        <v>22</v>
-      </c>
+      <c r="D6" s="46"/>
       <c r="E6" s="47"/>
       <c r="F6" s="41"/>
     </row>
     <row r="7" ht="73" customHeight="1" spans="1:6">
       <c r="A7" s="9">
-        <v>45662</v>
+        <v>45693</v>
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="42"/>
-      <c r="D7" s="46" t="s">
-        <v>23</v>
-      </c>
+      <c r="D7" s="46"/>
       <c r="E7" s="47"/>
       <c r="F7" s="43"/>
     </row>
     <row r="8" ht="65" customHeight="1" spans="1:6">
-      <c r="A8" s="20">
-        <v>45663</v>
+      <c r="A8" s="9">
+        <v>45694</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="42"/>
@@ -5489,28 +6142,28 @@
       <c r="F8" s="43"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="20">
-        <v>45664</v>
+      <c r="A9" s="9">
+        <v>45695</v>
       </c>
       <c r="B9" s="39"/>
       <c r="C9" s="42"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="49"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="20">
-        <v>45665</v>
+      <c r="A10" s="9">
+        <v>45696</v>
       </c>
       <c r="B10" s="39"/>
       <c r="C10" s="42"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="48"/>
       <c r="F10" s="43"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="20">
-        <v>45666</v>
+      <c r="A11" s="9">
+        <v>45697</v>
       </c>
       <c r="B11" s="39"/>
       <c r="C11" s="42"/>
@@ -5519,8 +6172,8 @@
       <c r="F11" s="43"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="20">
-        <v>45667</v>
+      <c r="A12" s="9">
+        <v>45698</v>
       </c>
       <c r="B12" s="39"/>
       <c r="C12" s="42"/>
@@ -5529,8 +6182,8 @@
       <c r="F12" s="43"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="9">
-        <v>45668</v>
+      <c r="A13" s="20">
+        <v>45699</v>
       </c>
       <c r="B13" s="39"/>
       <c r="C13" s="42"/>
@@ -5539,181 +6192,197 @@
       <c r="F13" s="43"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="9">
-        <v>45669</v>
+      <c r="A14" s="20">
+        <v>45700</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="42"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
       <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="20">
-        <v>45670</v>
+        <v>45701</v>
       </c>
       <c r="B15" s="39"/>
       <c r="C15" s="42"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="48"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
       <c r="F15" s="43"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="20">
-        <v>45671</v>
+        <v>45702</v>
       </c>
       <c r="B16" s="39"/>
       <c r="C16" s="42"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="48"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47"/>
       <c r="F16" s="43"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="20">
-        <v>45672</v>
+      <c r="A17" s="9">
+        <v>45703</v>
       </c>
       <c r="B17" s="39"/>
       <c r="C17" s="42"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="55"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="51"/>
       <c r="F17" s="41"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="20">
-        <v>45673</v>
+      <c r="A18" s="9">
+        <v>45704</v>
       </c>
       <c r="B18" s="39"/>
       <c r="C18" s="42"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="48"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="47"/>
       <c r="F18" s="41"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="20">
-        <v>45674</v>
+        <v>45705</v>
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="42"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="48"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="47"/>
       <c r="F19" s="41"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="9">
-        <v>45675</v>
+      <c r="A20" s="20">
+        <v>45706</v>
       </c>
       <c r="B20" s="39"/>
       <c r="C20" s="42"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="48"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="47"/>
       <c r="F20" s="41"/>
     </row>
     <row r="21" ht="40" customHeight="1" spans="1:6">
-      <c r="A21" s="9">
-        <v>45676</v>
+      <c r="A21" s="20">
+        <v>45707</v>
       </c>
       <c r="B21" s="39"/>
       <c r="C21" s="42"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="48"/>
+      <c r="D21" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="51"/>
       <c r="F21" s="43"/>
     </row>
     <row r="22" ht="45" customHeight="1" spans="1:6">
       <c r="A22" s="20">
-        <v>45677</v>
+        <v>45708</v>
       </c>
       <c r="B22" s="39"/>
       <c r="C22" s="42"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="43" t="s">
-        <v>24</v>
-      </c>
+      <c r="D22" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="47"/>
+      <c r="F22" s="43"/>
     </row>
     <row r="23" ht="66" customHeight="1" spans="1:6">
       <c r="A23" s="20">
-        <v>45678</v>
+        <v>45709</v>
       </c>
       <c r="B23" s="39"/>
       <c r="C23" s="42"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="48"/>
+      <c r="D23" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="47"/>
       <c r="F23" s="41"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="20">
-        <v>45679</v>
+      <c r="A24" s="9">
+        <v>45710</v>
       </c>
       <c r="B24" s="39"/>
       <c r="C24" s="42"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="48"/>
+      <c r="D24" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="47"/>
       <c r="F24" s="43"/>
     </row>
-    <row r="25" ht="80" customHeight="1" spans="1:6">
-      <c r="A25" s="20">
-        <v>45680</v>
+    <row r="25" ht="57" customHeight="1" spans="1:6">
+      <c r="A25" s="9">
+        <v>45711</v>
       </c>
       <c r="B25" s="39"/>
       <c r="C25" s="42"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="48"/>
+      <c r="D25" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="47"/>
       <c r="F25" s="43"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="20">
-        <v>45681</v>
+        <v>45712</v>
       </c>
       <c r="B26" s="39"/>
       <c r="C26" s="40"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="48"/>
+      <c r="D26" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="47"/>
       <c r="F26" s="43"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="9">
-        <v>45682</v>
+      <c r="A27" s="20">
+        <v>45713</v>
       </c>
       <c r="B27" s="39"/>
       <c r="C27" s="42"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="48"/>
+      <c r="D27" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="47"/>
       <c r="F27" s="43"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="9">
-        <v>45683</v>
+      <c r="A28" s="20">
+        <v>45714</v>
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="40"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="48"/>
+      <c r="D28" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="47"/>
       <c r="F28" s="43"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" ht="35" customHeight="1" spans="1:6">
       <c r="A29" s="20">
-        <v>45684</v>
+        <v>45715</v>
       </c>
       <c r="B29" s="39"/>
       <c r="C29" s="42"/>
-      <c r="D29" s="46"/>
+      <c r="D29" s="46" t="s">
+        <v>19</v>
+      </c>
       <c r="E29" s="47"/>
       <c r="F29" s="43"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" ht="34" customHeight="1" spans="1:6">
       <c r="A30" s="20">
-        <v>45685</v>
+        <v>45716</v>
       </c>
       <c r="B30" s="39"/>
       <c r="C30" s="42"/>
-      <c r="D30" s="46"/>
+      <c r="D30" s="46" t="s">
+        <v>20</v>
+      </c>
       <c r="E30" s="47"/>
       <c r="F30" s="43"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="20">
-        <v>45686</v>
-      </c>
+      <c r="A31" s="20"/>
       <c r="B31" s="39"/>
       <c r="C31" s="42"/>
       <c r="D31" s="46"/>
@@ -5721,9 +6390,7 @@
       <c r="F31" s="43"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="20">
-        <v>45687</v>
-      </c>
+      <c r="A32" s="20"/>
       <c r="B32" s="39"/>
       <c r="C32" s="42"/>
       <c r="D32" s="46"/>
@@ -5731,9 +6398,7 @@
       <c r="F32" s="43"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="20">
-        <v>45688</v>
-      </c>
+      <c r="A33" s="20"/>
       <c r="B33" s="52"/>
       <c r="C33" s="52"/>
       <c r="D33" s="56"/>
@@ -5750,7 +6415,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -5805,6 +6470,14 @@
       <c r="B43" s="14"/>
       <c r="C43" s="23"/>
       <c r="D43" s="14"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45"/>
+    </row>
+    <row r="48" spans="5:5">
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -5855,8 +6528,8 @@
   <sheetPr/>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -5897,421 +6570,287 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="86" customHeight="1" spans="1:6">
-      <c r="A3" s="20">
-        <v>45627</v>
+    <row r="3" ht="196" customHeight="1" spans="1:6">
+      <c r="A3" s="9">
+        <v>45658</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>26</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>21</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" ht="84" spans="1:6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="20">
-        <v>45628</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="40" t="s">
+        <v>45659</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="47"/>
+      <c r="F4" s="41"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9">
+        <v>45660</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="47"/>
+      <c r="F5" s="41"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="9">
+        <v>45661</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="41"/>
-    </row>
-    <row r="5" ht="70" spans="1:6">
-      <c r="A5" s="20">
-        <v>45629</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" ht="70" spans="1:6">
-      <c r="A6" s="20">
-        <v>45630</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="48"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="41"/>
     </row>
-    <row r="7" ht="84" spans="1:6">
-      <c r="A7" s="20">
-        <v>45631</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="46"/>
+    <row r="7" ht="73" customHeight="1" spans="1:6">
+      <c r="A7" s="9">
+        <v>45662</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="46" t="s">
+        <v>26</v>
+      </c>
       <c r="E7" s="47"/>
       <c r="F7" s="43"/>
     </row>
-    <row r="8" ht="84" spans="1:6">
+    <row r="8" ht="65" customHeight="1" spans="1:6">
       <c r="A8" s="20">
-        <v>45632</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="48"/>
+        <v>45663</v>
+      </c>
+      <c r="B8" s="39"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="43"/>
     </row>
-    <row r="9" ht="84" spans="1:6">
-      <c r="A9" s="9">
-        <v>45633</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" ht="84" spans="1:6">
-      <c r="A10" s="9">
-        <v>45634</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="48"/>
+    <row r="9" spans="1:6">
+      <c r="A9" s="20">
+        <v>45664</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="49"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="20">
+        <v>45665</v>
+      </c>
+      <c r="B10" s="39"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="43"/>
     </row>
-    <row r="11" ht="84" spans="1:6">
+    <row r="11" spans="1:6">
       <c r="A11" s="20">
-        <v>45635</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>39</v>
-      </c>
+        <v>45666</v>
+      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="48"/>
       <c r="F11" s="43"/>
     </row>
-    <row r="12" ht="84" spans="1:6">
+    <row r="12" spans="1:6">
       <c r="A12" s="20">
-        <v>45636</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>40</v>
-      </c>
+        <v>45667</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="48"/>
       <c r="F12" s="43"/>
     </row>
-    <row r="13" ht="84" spans="1:6">
-      <c r="A13" s="20">
-        <v>45637</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>41</v>
-      </c>
+    <row r="13" spans="1:6">
+      <c r="A13" s="9">
+        <v>45668</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="48"/>
       <c r="F13" s="43"/>
     </row>
-    <row r="14" ht="84" spans="1:6">
-      <c r="A14" s="20">
-        <v>45638</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="51"/>
+    <row r="14" spans="1:6">
+      <c r="A14" s="9">
+        <v>45669</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
       <c r="F14" s="43"/>
     </row>
-    <row r="15" ht="84" spans="1:6">
+    <row r="15" spans="1:6">
       <c r="A15" s="20">
-        <v>45639</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="47"/>
+        <v>45670</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="48"/>
       <c r="F15" s="43"/>
     </row>
-    <row r="16" ht="84" spans="1:6">
-      <c r="A16" s="9">
-        <v>45640</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>44</v>
-      </c>
+    <row r="16" spans="1:6">
+      <c r="A16" s="20">
+        <v>45671</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="48"/>
       <c r="F16" s="43"/>
     </row>
-    <row r="17" ht="84" spans="1:6">
-      <c r="A17" s="9">
-        <v>45641</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="51"/>
+    <row r="17" spans="1:6">
+      <c r="A17" s="20">
+        <v>45672</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
       <c r="F17" s="41"/>
     </row>
-    <row r="18" ht="84" spans="1:6">
+    <row r="18" spans="1:6">
       <c r="A18" s="20">
-        <v>45642</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="47"/>
+        <v>45673</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="48"/>
       <c r="F18" s="41"/>
     </row>
-    <row r="19" ht="84" spans="1:6">
+    <row r="19" spans="1:6">
       <c r="A19" s="20">
-        <v>45643</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="47"/>
+        <v>45674</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="48"/>
       <c r="F19" s="41"/>
     </row>
-    <row r="20" ht="84" spans="1:6">
-      <c r="A20" s="20">
-        <v>45644</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="47"/>
+    <row r="20" spans="1:6">
+      <c r="A20" s="9">
+        <v>45675</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="41"/>
     </row>
     <row r="21" ht="40" customHeight="1" spans="1:6">
-      <c r="A21" s="20">
-        <v>45645</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="47"/>
+      <c r="A21" s="9">
+        <v>45676</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="48"/>
       <c r="F21" s="43"/>
     </row>
     <row r="22" ht="45" customHeight="1" spans="1:6">
       <c r="A22" s="20">
-        <v>45646</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="43"/>
+        <v>45677</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="43" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="23" ht="66" customHeight="1" spans="1:6">
-      <c r="A23" s="9">
-        <v>45647</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" ht="84" spans="1:6">
-      <c r="A24" s="9">
-        <v>45648</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="47"/>
+      <c r="A23" s="20">
+        <v>45678</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="41"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="20">
+        <v>45679</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="48"/>
       <c r="F24" s="43"/>
     </row>
     <row r="25" ht="80" customHeight="1" spans="1:6">
       <c r="A25" s="20">
-        <v>45649</v>
-      </c>
-      <c r="B25" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="47"/>
+        <v>45680</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="48"/>
       <c r="F25" s="43"/>
     </row>
-    <row r="26" ht="98" spans="1:6">
+    <row r="26" spans="1:6">
       <c r="A26" s="20">
-        <v>45650</v>
-      </c>
-      <c r="B26" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="47"/>
-      <c r="F26" s="43" t="s">
-        <v>55</v>
-      </c>
+        <v>45681</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="43"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="20">
-        <v>45651</v>
+      <c r="A27" s="9">
+        <v>45682</v>
       </c>
       <c r="B27" s="39"/>
       <c r="C27" s="42"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="47"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="48"/>
       <c r="F27" s="43"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="20">
-        <v>45652</v>
+      <c r="A28" s="9">
+        <v>45683</v>
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="40"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="47"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="48"/>
       <c r="F28" s="43"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="20">
-        <v>45653</v>
+        <v>45684</v>
       </c>
       <c r="B29" s="39"/>
       <c r="C29" s="42"/>
@@ -6320,8 +6859,8 @@
       <c r="F29" s="43"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="9">
-        <v>45654</v>
+      <c r="A30" s="20">
+        <v>45685</v>
       </c>
       <c r="B30" s="39"/>
       <c r="C30" s="42"/>
@@ -6330,8 +6869,8 @@
       <c r="F30" s="43"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="9">
-        <v>45655</v>
+      <c r="A31" s="20">
+        <v>45686</v>
       </c>
       <c r="B31" s="39"/>
       <c r="C31" s="42"/>
@@ -6341,7 +6880,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="20">
-        <v>45656</v>
+        <v>45687</v>
       </c>
       <c r="B32" s="39"/>
       <c r="C32" s="42"/>
@@ -6351,25 +6890,25 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="20">
-        <v>45657</v>
+        <v>45688</v>
       </c>
       <c r="B33" s="52"/>
       <c r="C33" s="52"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
       <c r="F33" s="52"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="52"/>
       <c r="B34" s="52"/>
       <c r="C34" s="52"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
       <c r="F34" s="52"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -6415,13 +6954,13 @@
     </row>
     <row r="42" customFormat="1" spans="1:4">
       <c r="A42" s="14"/>
-      <c r="B42"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="23"/>
       <c r="D42" s="14"/>
     </row>
     <row r="43" customFormat="1" spans="1:4">
       <c r="A43" s="14"/>
-      <c r="B43"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="23"/>
       <c r="D43" s="14"/>
     </row>
@@ -6472,6 +7011,625 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.3636363636364" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="29.9090909090909" style="23" customWidth="1"/>
+    <col min="4" max="4" width="35.5454545454545" customWidth="1"/>
+    <col min="5" max="5" width="26.4545454545455" customWidth="1"/>
+    <col min="6" max="6" width="34.6363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="67" customHeight="1" spans="1:6">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+    </row>
+    <row r="2" ht="50" customHeight="1" spans="1:6">
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="86" customHeight="1" spans="1:6">
+      <c r="A3" s="20">
+        <v>45627</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="47"/>
+      <c r="F3" s="41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" ht="84" spans="1:6">
+      <c r="A4" s="20">
+        <v>45628</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="48"/>
+      <c r="F4" s="41"/>
+    </row>
+    <row r="5" ht="70" spans="1:6">
+      <c r="A5" s="20">
+        <v>45629</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="48"/>
+      <c r="F5" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" ht="70" spans="1:6">
+      <c r="A6" s="20">
+        <v>45630</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="48"/>
+      <c r="F6" s="41"/>
+    </row>
+    <row r="7" ht="84" spans="1:6">
+      <c r="A7" s="20">
+        <v>45631</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="43"/>
+    </row>
+    <row r="8" ht="84" spans="1:6">
+      <c r="A8" s="20">
+        <v>45632</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="48"/>
+      <c r="F8" s="43"/>
+    </row>
+    <row r="9" ht="84" spans="1:6">
+      <c r="A9" s="9">
+        <v>45633</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" ht="84" spans="1:6">
+      <c r="A10" s="9">
+        <v>45634</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="48"/>
+      <c r="F10" s="43"/>
+    </row>
+    <row r="11" ht="84" spans="1:6">
+      <c r="A11" s="20">
+        <v>45635</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="48"/>
+      <c r="F11" s="43"/>
+    </row>
+    <row r="12" ht="84" spans="1:6">
+      <c r="A12" s="20">
+        <v>45636</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="48"/>
+      <c r="F12" s="43"/>
+    </row>
+    <row r="13" ht="84" spans="1:6">
+      <c r="A13" s="20">
+        <v>45637</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="48"/>
+      <c r="F13" s="43"/>
+    </row>
+    <row r="14" ht="84" spans="1:6">
+      <c r="A14" s="20">
+        <v>45638</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="51"/>
+      <c r="F14" s="43"/>
+    </row>
+    <row r="15" ht="84" spans="1:6">
+      <c r="A15" s="20">
+        <v>45639</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="47"/>
+      <c r="F15" s="43"/>
+    </row>
+    <row r="16" ht="84" spans="1:6">
+      <c r="A16" s="9">
+        <v>45640</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="48"/>
+      <c r="F16" s="43"/>
+    </row>
+    <row r="17" ht="84" spans="1:6">
+      <c r="A17" s="9">
+        <v>45641</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="51"/>
+      <c r="F17" s="41"/>
+    </row>
+    <row r="18" ht="84" spans="1:6">
+      <c r="A18" s="20">
+        <v>45642</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="47"/>
+      <c r="F18" s="41"/>
+    </row>
+    <row r="19" ht="84" spans="1:6">
+      <c r="A19" s="20">
+        <v>45643</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="47"/>
+      <c r="F19" s="41"/>
+    </row>
+    <row r="20" ht="84" spans="1:6">
+      <c r="A20" s="20">
+        <v>45644</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="47"/>
+      <c r="F20" s="41"/>
+    </row>
+    <row r="21" ht="40" customHeight="1" spans="1:6">
+      <c r="A21" s="20">
+        <v>45645</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="47"/>
+      <c r="F21" s="43"/>
+    </row>
+    <row r="22" ht="45" customHeight="1" spans="1:6">
+      <c r="A22" s="20">
+        <v>45646</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="47"/>
+      <c r="F22" s="43"/>
+    </row>
+    <row r="23" ht="66" customHeight="1" spans="1:6">
+      <c r="A23" s="9">
+        <v>45647</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="47"/>
+      <c r="F23" s="41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" ht="84" spans="1:6">
+      <c r="A24" s="9">
+        <v>45648</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="47"/>
+      <c r="F24" s="43"/>
+    </row>
+    <row r="25" ht="80" customHeight="1" spans="1:6">
+      <c r="A25" s="20">
+        <v>45649</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="47"/>
+      <c r="F25" s="43"/>
+    </row>
+    <row r="26" ht="98" spans="1:6">
+      <c r="A26" s="20">
+        <v>45650</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="47"/>
+      <c r="F26" s="43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="20">
+        <v>45651</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="43"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="20">
+        <v>45652</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="43"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="20">
+        <v>45653</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="43"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="9">
+        <v>45654</v>
+      </c>
+      <c r="B30" s="39"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="43"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="9">
+        <v>45655</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="43"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="20">
+        <v>45656</v>
+      </c>
+      <c r="B32" s="39"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="43"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="20">
+        <v>45657</v>
+      </c>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="52"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="52"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="52"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" customFormat="1" spans="1:4">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+    </row>
+    <row r="37" customFormat="1" spans="1:4">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+    </row>
+    <row r="38" customFormat="1" spans="1:4">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" customFormat="1" spans="1:4">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+    </row>
+    <row r="40" customFormat="1" spans="1:4">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+    </row>
+    <row r="41" customFormat="1" spans="1:4">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+    </row>
+    <row r="42" customFormat="1" spans="1:4">
+      <c r="A42" s="14"/>
+      <c r="B42"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="14"/>
+    </row>
+    <row r="43" customFormat="1" spans="1:4">
+      <c r="A43" s="14"/>
+      <c r="B43"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A35:D43"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6490,7 +7648,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -6509,10 +7667,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -6526,13 +7684,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F3" s="41"/>
     </row>
@@ -6544,13 +7702,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F4" s="41"/>
     </row>
@@ -6562,13 +7720,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F5" s="41"/>
     </row>
@@ -6580,13 +7738,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F6" s="41"/>
     </row>
@@ -6598,13 +7756,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F7" s="43"/>
     </row>
@@ -6616,13 +7774,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F8" s="43"/>
     </row>
@@ -6634,13 +7792,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F9" s="43"/>
     </row>
@@ -6652,13 +7810,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F10" s="43"/>
     </row>
@@ -6670,13 +7828,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F11" s="43"/>
     </row>
@@ -6688,13 +7846,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F12" s="43"/>
     </row>
@@ -6706,13 +7864,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F13" s="43"/>
     </row>
@@ -6724,13 +7882,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F14" s="43"/>
     </row>
@@ -6742,13 +7900,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F15" s="43"/>
     </row>
@@ -6760,13 +7918,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F16" s="43"/>
     </row>
@@ -6778,13 +7936,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F17" s="41"/>
     </row>
@@ -6796,13 +7954,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F18" s="41"/>
     </row>
@@ -6814,13 +7972,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F19" s="41"/>
     </row>
@@ -6832,13 +7990,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F20" s="41"/>
     </row>
@@ -6850,13 +8008,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F21" s="43"/>
     </row>
@@ -6868,13 +8026,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F22" s="43"/>
     </row>
@@ -6886,13 +8044,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F23" s="43"/>
     </row>
@@ -6904,13 +8062,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F24" s="43"/>
     </row>
@@ -6922,13 +8080,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F25" s="43"/>
     </row>
@@ -6940,31 +8098,31 @@
         <v>6</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F26" s="43"/>
     </row>
     <row r="27" ht="84" spans="1:6">
       <c r="A27" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B27" s="39" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F27" s="43"/>
     </row>
@@ -6976,13 +8134,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F28" s="43"/>
     </row>
@@ -6994,13 +8152,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F29" s="43"/>
     </row>
@@ -7012,13 +8170,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F30" s="43"/>
     </row>
@@ -7030,13 +8188,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F31" s="43"/>
     </row>
@@ -7048,19 +8206,19 @@
         <v>6</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F32" s="43"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -7126,13 +8284,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -7147,7 +8305,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -7166,10 +8324,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -7180,16 +8338,16 @@
         <v>45566</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -7198,19 +8356,19 @@
         <v>45567</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" ht="70" spans="1:6">
@@ -7221,13 +8379,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -7239,13 +8397,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F6" s="8"/>
     </row>
@@ -7257,13 +8415,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -7275,13 +8433,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -7293,10 +8451,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="8"/>
@@ -7309,10 +8467,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="8"/>
@@ -7325,10 +8483,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="8"/>
@@ -7341,10 +8499,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="8"/>
@@ -7357,13 +8515,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -7375,13 +8533,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -7393,13 +8551,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -7411,13 +8569,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -7429,13 +8587,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -7447,13 +8605,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -7465,13 +8623,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -7483,13 +8641,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -7501,13 +8659,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -7519,13 +8677,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -7537,13 +8695,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -7555,13 +8713,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -7573,13 +8731,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -7591,13 +8749,13 @@
         <v>6</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -7609,13 +8767,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -7627,13 +8785,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -7645,13 +8803,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -7663,13 +8821,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -7681,13 +8839,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -7699,13 +8857,13 @@
         <v>6</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -7717,13 +8875,13 @@
         <v>6</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F33" s="14"/>
     </row>
@@ -7735,19 +8893,19 @@
         <v>6</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -7813,13 +8971,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -7834,7 +8992,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -7853,10 +9011,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -7870,13 +9028,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -7888,13 +9046,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F4" s="11"/>
     </row>
@@ -7906,13 +9064,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -7924,16 +9082,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" ht="56" spans="1:6">
@@ -7944,16 +9102,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" ht="56" spans="1:6">
@@ -7964,16 +9122,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" ht="70" spans="1:6">
@@ -7981,19 +9139,19 @@
         <v>45542</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" ht="70" spans="1:6">
@@ -8004,16 +9162,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" ht="56" spans="1:6">
@@ -8024,16 +9182,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D11" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" ht="56" spans="1:6">
@@ -8044,16 +9202,16 @@
         <v>6</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" ht="56" spans="1:6">
@@ -8064,16 +9222,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" ht="56" spans="1:6">
@@ -8084,16 +9242,16 @@
         <v>6</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" ht="56" spans="1:6">
@@ -8101,16 +9259,16 @@
         <v>45548</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -8122,13 +9280,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -8140,13 +9298,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -8158,13 +9316,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -8176,13 +9334,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -8191,16 +9349,16 @@
         <v>45553</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -8209,16 +9367,16 @@
         <v>45554</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -8227,16 +9385,16 @@
         <v>45555</v>
       </c>
       <c r="B22" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="38" t="s">
-        <v>165</v>
-      </c>
       <c r="D22" s="33" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -8245,16 +9403,16 @@
         <v>45556</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -8266,13 +9424,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -8284,13 +9442,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -8302,13 +9460,13 @@
         <v>6</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -8320,13 +9478,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -8338,13 +9496,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -8356,13 +9514,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -8374,13 +9532,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -8392,13 +9550,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -8410,13 +9568,13 @@
         <v>6</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -8486,7 +9644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F42"/>
@@ -8507,7 +9665,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -8526,10 +9684,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -8549,10 +9707,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -8569,10 +9727,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:6">
@@ -8589,10 +9747,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8609,10 +9767,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8630,7 +9788,7 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8648,7 +9806,7 @@
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8665,10 +9823,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -8686,7 +9844,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8704,7 +9862,7 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:6">
@@ -8721,10 +9879,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" ht="42" spans="1:6">
@@ -8741,10 +9899,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" ht="42" spans="1:6">
@@ -8761,10 +9919,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" ht="42" spans="1:6">
@@ -8781,10 +9939,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" ht="42" spans="1:6">
@@ -8801,10 +9959,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" ht="42" spans="1:6">
@@ -8821,10 +9979,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -8841,10 +9999,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" ht="42" spans="1:6">
@@ -8861,10 +10019,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" ht="42" spans="1:6">
@@ -8881,10 +10039,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" ht="42" spans="1:6">
@@ -8901,10 +10059,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" ht="42" spans="1:6">
@@ -8921,10 +10079,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" ht="42" spans="1:6">
@@ -8941,10 +10099,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" ht="42" spans="1:6">
@@ -8961,10 +10119,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" ht="42" spans="1:6">
@@ -8981,10 +10139,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" ht="42" spans="1:6">
@@ -9001,10 +10159,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" ht="42" spans="1:6">
@@ -9021,7 +10179,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -9039,7 +10197,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -9057,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -9075,7 +10233,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -9093,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -9111,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -9129,13 +10287,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -9201,7 +10359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H42"/>
@@ -9224,7 +10382,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9236,25 +10394,25 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>5</v>
@@ -9368,7 +10526,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -9392,7 +10550,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H8" s="8"/>
     </row>
@@ -9460,7 +10618,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H11" s="10"/>
     </row>
@@ -9506,7 +10664,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H13" s="8"/>
     </row>
@@ -9530,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H14" s="8"/>
     </row>
@@ -9554,7 +10712,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H15" s="8"/>
     </row>
@@ -9578,7 +10736,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H16" s="8"/>
     </row>
@@ -9624,7 +10782,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -9692,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H21" s="8"/>
     </row>
@@ -9716,7 +10874,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H22" s="8"/>
     </row>
@@ -9740,7 +10898,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H23" s="8"/>
     </row>
@@ -9785,7 +10943,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H25" s="8"/>
     </row>
@@ -9809,7 +10967,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H26" s="8"/>
     </row>
@@ -9833,7 +10991,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H27" s="8"/>
     </row>
@@ -9854,7 +11012,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -9876,10 +11034,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H29" s="8"/>
     </row>
@@ -9900,7 +11058,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -9983,7 +11141,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -10055,557 +11213,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F41"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="15.4545454545455" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="21.6363636363636" customWidth="1"/>
-    <col min="4" max="4" width="17.3636363636364" customWidth="1"/>
-    <col min="5" max="5" width="41.3636363636364" customWidth="1"/>
-    <col min="6" max="6" width="34.6363636363636" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="48" customHeight="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" ht="63" customHeight="1" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="7">
-        <v>45444</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="7">
-        <v>45445</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="7">
-        <v>45446</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="7">
-        <v>45447</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="7">
-        <v>45448</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="7">
-        <v>45449</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="7">
-        <v>45450</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="9">
-        <v>45451</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="9">
-        <v>45452</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="9">
-        <v>45453</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="7">
-        <v>45454</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="7">
-        <v>45455</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="7">
-        <v>45456</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" ht="28" spans="1:6">
-      <c r="A16" s="7">
-        <v>45457</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" ht="42" spans="1:6">
-      <c r="A17" s="9">
-        <v>45458</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" ht="42" spans="1:6">
-      <c r="A18" s="9">
-        <v>45459</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" ht="28" spans="1:6">
-      <c r="A19" s="7">
-        <v>45460</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="7">
-        <v>45461</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" ht="28" spans="1:6">
-      <c r="A21" s="7">
-        <v>45462</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="7">
-        <v>45463</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="7">
-        <v>45464</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" ht="28" spans="1:6">
-      <c r="A24" s="9">
-        <v>45465</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="D24" s="11">
-        <v>2</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="9">
-        <v>45466</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8">
-        <v>2</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="7">
-        <v>45467</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="7">
-        <v>45468</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="D27" s="8">
-        <v>2</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="7">
-        <v>45469</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="D28" s="8">
-        <v>1</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="7">
-        <v>45470</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D29" s="8">
-        <v>1</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="7">
-        <v>45471</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="9">
-        <v>45472</v>
-      </c>
-      <c r="B31" s="13">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="9">
-        <v>45473</v>
-      </c>
-      <c r="B32" s="13">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D32" s="8">
-        <v>1</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A34:F41"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/00-doc/src/00_todo/00_todo.xlsx
+++ b/00-doc/src/00_todo/00_todo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="8080" activeTab="1"/>
+    <workbookView windowWidth="18350" windowHeight="8080"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03" sheetId="10" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="268">
   <si>
     <t>month goals：
 1、oral、listen everyday
@@ -67,6 +67,13 @@
     <t xml:space="preserve">1、300 words
 2、0.5h listen test
 6、oral practise </t>
+  </si>
+  <si>
+    <t>回家第5天：休息，在家</t>
+  </si>
+  <si>
+    <t>大早离开武汉，回到深圳
+准备HSBC面试</t>
   </si>
   <si>
     <t>#########################################################################################
@@ -131,13 +138,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">回家第3天：休息，在家
+      <t xml:space="preserve">回家第4天：休息，在家
 </t>
     </r>
     <r>
@@ -4425,7 +4426,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6825615" y="12735560"/>
+          <a:off x="6825615" y="13040360"/>
           <a:ext cx="3931285" cy="2026285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4467,7 +4468,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1555750" y="14495780"/>
+          <a:off x="1555750" y="14800580"/>
           <a:ext cx="3361690" cy="4961255"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5001,8 +5002,8 @@
   <sheetPr/>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -5053,17 +5054,21 @@
       <c r="C3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="39"/>
+      <c r="D3" s="46" t="s">
+        <v>8</v>
+      </c>
       <c r="E3" s="47"/>
       <c r="F3" s="41"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" ht="38" customHeight="1" spans="1:6">
       <c r="A4" s="9">
         <v>45718</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="40"/>
-      <c r="D4" s="46"/>
+      <c r="D4" s="46" t="s">
+        <v>9</v>
+      </c>
       <c r="E4" s="47"/>
       <c r="F4" s="41"/>
     </row>
@@ -5367,7 +5372,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -5428,7 +5433,7 @@
     </row>
     <row r="48" spans="5:5">
       <c r="E48" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -5496,7 +5501,7 @@
   <sheetData>
     <row r="1" ht="48" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5506,19 +5511,19 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -5609,15 +5614,15 @@
         <v>45452</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5625,10 +5630,10 @@
         <v>45453</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -5639,14 +5644,14 @@
         <v>45454</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -5655,14 +5660,14 @@
         <v>45455</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -5671,14 +5676,14 @@
         <v>45456</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -5687,14 +5692,14 @@
         <v>45457</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -5703,17 +5708,17 @@
         <v>45458</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -5721,14 +5726,14 @@
         <v>45459</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -5737,14 +5742,14 @@
         <v>45460</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -5753,10 +5758,10 @@
         <v>45461</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -5767,14 +5772,14 @@
         <v>45462</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -5783,14 +5788,14 @@
         <v>45463</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -5799,14 +5804,14 @@
         <v>45464</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -5815,16 +5820,16 @@
         <v>45465</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D24" s="11">
         <v>2</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -5845,14 +5850,14 @@
         <v>45467</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -5861,10 +5866,10 @@
         <v>45468</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D27" s="8">
         <v>2</v>
@@ -5877,10 +5882,10 @@
         <v>45469</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
@@ -5893,10 +5898,10 @@
         <v>45470</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
@@ -5909,10 +5914,10 @@
         <v>45471</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -5926,11 +5931,11 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -5942,19 +5947,19 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D32" s="8">
         <v>1</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F32" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -6033,8 +6038,8 @@
   <sheetPr/>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:E8"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -6083,7 +6088,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="39"/>
       <c r="E3" s="47"/>
@@ -6106,7 +6111,7 @@
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
       <c r="D5" s="50" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" s="51"/>
       <c r="F5" s="41"/>
@@ -6268,7 +6273,7 @@
       <c r="B21" s="39"/>
       <c r="C21" s="42"/>
       <c r="D21" s="50" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E21" s="51"/>
       <c r="F21" s="43"/>
@@ -6280,7 +6285,7 @@
       <c r="B22" s="39"/>
       <c r="C22" s="42"/>
       <c r="D22" s="46" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E22" s="47"/>
       <c r="F22" s="43"/>
@@ -6292,7 +6297,7 @@
       <c r="B23" s="39"/>
       <c r="C23" s="42"/>
       <c r="D23" s="46" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E23" s="47"/>
       <c r="F23" s="41"/>
@@ -6304,7 +6309,7 @@
       <c r="B24" s="39"/>
       <c r="C24" s="42"/>
       <c r="D24" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E24" s="47"/>
       <c r="F24" s="43"/>
@@ -6316,7 +6321,7 @@
       <c r="B25" s="39"/>
       <c r="C25" s="42"/>
       <c r="D25" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E25" s="47"/>
       <c r="F25" s="43"/>
@@ -6327,10 +6332,10 @@
       </c>
       <c r="B26" s="39"/>
       <c r="C26" s="40"/>
-      <c r="D26" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="47"/>
+      <c r="D26" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="51"/>
       <c r="F26" s="43"/>
     </row>
     <row r="27" spans="1:6">
@@ -6340,7 +6345,7 @@
       <c r="B27" s="39"/>
       <c r="C27" s="42"/>
       <c r="D27" s="46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E27" s="47"/>
       <c r="F27" s="43"/>
@@ -6352,7 +6357,7 @@
       <c r="B28" s="39"/>
       <c r="C28" s="40"/>
       <c r="D28" s="46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E28" s="47"/>
       <c r="F28" s="43"/>
@@ -6364,7 +6369,7 @@
       <c r="B29" s="39"/>
       <c r="C29" s="42"/>
       <c r="D29" s="46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E29" s="47"/>
       <c r="F29" s="43"/>
@@ -6376,7 +6381,7 @@
       <c r="B30" s="39"/>
       <c r="C30" s="42"/>
       <c r="D30" s="46" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E30" s="47"/>
       <c r="F30" s="43"/>
@@ -6415,7 +6420,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -6476,7 +6481,7 @@
     </row>
     <row r="48" spans="5:5">
       <c r="E48" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -6578,14 +6583,14 @@
         <v>6</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="41" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6595,7 +6600,7 @@
       <c r="B4" s="39"/>
       <c r="C4" s="40"/>
       <c r="D4" s="46" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4" s="47"/>
       <c r="F4" s="41"/>
@@ -6607,7 +6612,7 @@
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
       <c r="D5" s="46" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" s="47"/>
       <c r="F5" s="41"/>
@@ -6619,7 +6624,7 @@
       <c r="B6" s="39"/>
       <c r="C6" s="42"/>
       <c r="D6" s="46" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6" s="47"/>
       <c r="F6" s="41"/>
@@ -6631,7 +6636,7 @@
       <c r="B7" s="39"/>
       <c r="C7" s="42"/>
       <c r="D7" s="46" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" s="47"/>
       <c r="F7" s="43"/>
@@ -6785,7 +6790,7 @@
       <c r="D22" s="39"/>
       <c r="E22" s="48"/>
       <c r="F22" s="43" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="66" customHeight="1" spans="1:6">
@@ -6908,7 +6913,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -7063,14 +7068,14 @@
         <v>6</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" ht="84" spans="1:6">
@@ -7081,10 +7086,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="41"/>
@@ -7097,14 +7102,14 @@
         <v>6</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="41" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" ht="70" spans="1:6">
@@ -7115,10 +7120,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="41"/>
@@ -7131,7 +7136,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7" s="46"/>
       <c r="E7" s="47"/>
@@ -7145,10 +7150,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="43"/>
@@ -7161,14 +7166,14 @@
         <v>6</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="49" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" ht="84" spans="1:6">
@@ -7179,10 +7184,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="43"/>
@@ -7195,10 +7200,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="43"/>
@@ -7211,10 +7216,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="43"/>
@@ -7227,10 +7232,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="43"/>
@@ -7243,10 +7248,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E14" s="51"/>
       <c r="F14" s="43"/>
@@ -7259,10 +7264,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E15" s="47"/>
       <c r="F15" s="43"/>
@@ -7275,10 +7280,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="43"/>
@@ -7291,10 +7296,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E17" s="51"/>
       <c r="F17" s="41"/>
@@ -7307,10 +7312,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E18" s="47"/>
       <c r="F18" s="41"/>
@@ -7323,10 +7328,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E19" s="47"/>
       <c r="F19" s="41"/>
@@ -7339,10 +7344,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E20" s="47"/>
       <c r="F20" s="41"/>
@@ -7355,10 +7360,10 @@
         <v>6</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E21" s="47"/>
       <c r="F21" s="43"/>
@@ -7371,10 +7376,10 @@
         <v>6</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E22" s="47"/>
       <c r="F22" s="43"/>
@@ -7387,14 +7392,14 @@
         <v>6</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E23" s="47"/>
       <c r="F23" s="41" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" ht="84" spans="1:6">
@@ -7405,10 +7410,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E24" s="47"/>
       <c r="F24" s="43"/>
@@ -7421,10 +7426,10 @@
         <v>6</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E25" s="47"/>
       <c r="F25" s="43"/>
@@ -7437,14 +7442,14 @@
         <v>6</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E26" s="47"/>
       <c r="F26" s="43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7527,7 +7532,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -7648,7 +7653,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -7667,10 +7672,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -7684,13 +7689,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F3" s="41"/>
     </row>
@@ -7702,13 +7707,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F4" s="41"/>
     </row>
@@ -7720,13 +7725,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F5" s="41"/>
     </row>
@@ -7738,13 +7743,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F6" s="41"/>
     </row>
@@ -7756,13 +7761,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F7" s="43"/>
     </row>
@@ -7774,13 +7779,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F8" s="43"/>
     </row>
@@ -7792,13 +7797,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F9" s="43"/>
     </row>
@@ -7810,13 +7815,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F10" s="43"/>
     </row>
@@ -7828,13 +7833,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F11" s="43"/>
     </row>
@@ -7846,13 +7851,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F12" s="43"/>
     </row>
@@ -7864,13 +7869,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F13" s="43"/>
     </row>
@@ -7882,13 +7887,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F14" s="43"/>
     </row>
@@ -7900,13 +7905,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F15" s="43"/>
     </row>
@@ -7918,13 +7923,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F16" s="43"/>
     </row>
@@ -7936,13 +7941,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F17" s="41"/>
     </row>
@@ -7954,13 +7959,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F18" s="41"/>
     </row>
@@ -7972,13 +7977,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F19" s="41"/>
     </row>
@@ -7990,13 +7995,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F20" s="41"/>
     </row>
@@ -8008,13 +8013,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F21" s="43"/>
     </row>
@@ -8026,13 +8031,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F22" s="43"/>
     </row>
@@ -8044,13 +8049,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F23" s="43"/>
     </row>
@@ -8062,13 +8067,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F24" s="43"/>
     </row>
@@ -8080,13 +8085,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F25" s="43"/>
     </row>
@@ -8098,31 +8103,31 @@
         <v>6</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F26" s="43"/>
     </row>
     <row r="27" ht="84" spans="1:6">
       <c r="A27" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B27" s="39" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F27" s="43"/>
     </row>
@@ -8134,13 +8139,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="41" t="s">
         <v>74</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="41" t="s">
-        <v>72</v>
       </c>
       <c r="F28" s="43"/>
     </row>
@@ -8152,13 +8157,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F29" s="43"/>
     </row>
@@ -8170,13 +8175,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F30" s="43"/>
     </row>
@@ -8188,13 +8193,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F31" s="43"/>
     </row>
@@ -8206,19 +8211,19 @@
         <v>6</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F32" s="43"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -8305,7 +8310,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -8324,10 +8329,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -8338,16 +8343,16 @@
         <v>45566</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -8356,19 +8361,19 @@
         <v>45567</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" ht="70" spans="1:6">
@@ -8379,13 +8384,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -8397,13 +8402,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F6" s="8"/>
     </row>
@@ -8415,13 +8420,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -8433,13 +8438,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>97</v>
-      </c>
       <c r="E8" s="33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -8451,10 +8456,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="8"/>
@@ -8467,10 +8472,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="8"/>
@@ -8483,10 +8488,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="8"/>
@@ -8499,10 +8504,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="8"/>
@@ -8515,13 +8520,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -8533,13 +8538,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -8551,13 +8556,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -8569,13 +8574,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -8587,13 +8592,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -8605,13 +8610,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -8623,13 +8628,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -8641,13 +8646,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -8659,13 +8664,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -8677,13 +8682,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -8695,13 +8700,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -8713,13 +8718,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -8731,13 +8736,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -8749,13 +8754,13 @@
         <v>6</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -8767,13 +8772,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -8785,13 +8790,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -8803,13 +8808,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -8821,13 +8826,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -8839,13 +8844,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -8857,13 +8862,13 @@
         <v>6</v>
       </c>
       <c r="C32" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>129</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -8875,13 +8880,13 @@
         <v>6</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F33" s="14"/>
     </row>
@@ -8893,19 +8898,19 @@
         <v>6</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -8992,7 +8997,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -9011,10 +9016,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -9028,13 +9033,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -9046,13 +9051,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F4" s="11"/>
     </row>
@@ -9064,13 +9069,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -9082,16 +9087,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" ht="56" spans="1:6">
@@ -9102,16 +9107,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" ht="56" spans="1:6">
@@ -9122,16 +9127,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="9" ht="70" spans="1:6">
@@ -9139,19 +9144,19 @@
         <v>45542</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" ht="70" spans="1:6">
@@ -9162,16 +9167,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D10" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="11" ht="56" spans="1:6">
@@ -9182,16 +9187,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" ht="56" spans="1:6">
@@ -9202,16 +9207,16 @@
         <v>6</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" ht="56" spans="1:6">
@@ -9222,16 +9227,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" ht="56" spans="1:6">
@@ -9242,16 +9247,16 @@
         <v>6</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D14" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="15" ht="56" spans="1:6">
@@ -9259,16 +9264,16 @@
         <v>45548</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -9280,13 +9285,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -9298,13 +9303,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -9316,13 +9321,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -9334,13 +9339,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -9349,16 +9354,16 @@
         <v>45553</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -9367,16 +9372,16 @@
         <v>45554</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -9385,16 +9390,16 @@
         <v>45555</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -9403,16 +9408,16 @@
         <v>45556</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -9424,13 +9429,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="D24" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="D24" s="33" t="s">
-        <v>175</v>
-      </c>
       <c r="E24" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -9442,13 +9447,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -9460,13 +9465,13 @@
         <v>6</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -9478,13 +9483,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -9496,13 +9501,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -9514,13 +9519,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -9532,13 +9537,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -9550,13 +9555,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -9568,13 +9573,13 @@
         <v>6</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -9665,7 +9670,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -9684,10 +9689,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -9707,10 +9712,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -9727,10 +9732,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:6">
@@ -9747,10 +9752,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9767,10 +9772,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9788,7 +9793,7 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9806,7 +9811,7 @@
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -9823,10 +9828,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -9844,7 +9849,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -9862,7 +9867,7 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:6">
@@ -9879,10 +9884,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>202</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="13" ht="42" spans="1:6">
@@ -9899,10 +9904,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" ht="42" spans="1:6">
@@ -9919,10 +9924,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" ht="42" spans="1:6">
@@ -9939,10 +9944,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" ht="42" spans="1:6">
@@ -9959,10 +9964,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" ht="42" spans="1:6">
@@ -9979,10 +9984,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -9999,10 +10004,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" ht="42" spans="1:6">
@@ -10019,10 +10024,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" ht="42" spans="1:6">
@@ -10039,10 +10044,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>208</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="21" ht="42" spans="1:6">
@@ -10059,10 +10064,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" ht="42" spans="1:6">
@@ -10079,10 +10084,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" ht="42" spans="1:6">
@@ -10099,10 +10104,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" ht="42" spans="1:6">
@@ -10119,10 +10124,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" ht="42" spans="1:6">
@@ -10139,10 +10144,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" ht="42" spans="1:6">
@@ -10159,10 +10164,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" ht="42" spans="1:6">
@@ -10179,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -10197,7 +10202,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -10215,7 +10220,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -10233,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -10251,7 +10256,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -10269,7 +10274,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -10287,13 +10292,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -10382,7 +10387,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10394,25 +10399,25 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>5</v>
@@ -10526,7 +10531,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -10550,7 +10555,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H8" s="8"/>
     </row>
@@ -10618,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H11" s="10"/>
     </row>
@@ -10664,7 +10669,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H13" s="8"/>
     </row>
@@ -10688,7 +10693,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H14" s="8"/>
     </row>
@@ -10712,7 +10717,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H15" s="8"/>
     </row>
@@ -10736,7 +10741,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H16" s="8"/>
     </row>
@@ -10782,7 +10787,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -10850,7 +10855,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H21" s="8"/>
     </row>
@@ -10874,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H22" s="8"/>
     </row>
@@ -10898,7 +10903,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H23" s="8"/>
     </row>
@@ -10943,7 +10948,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H25" s="8"/>
     </row>
@@ -10967,7 +10972,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H26" s="8"/>
     </row>
@@ -10991,7 +10996,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H27" s="8"/>
     </row>
@@ -11012,7 +11017,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -11034,10 +11039,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H29" s="8"/>
     </row>
@@ -11058,7 +11063,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -11141,7 +11146,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>

--- a/00-doc/src/00_todo/00_todo.xlsx
+++ b/00-doc/src/00_todo/00_todo.xlsx
@@ -138,6 +138,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">回家第4天：休息，在家
 </t>
     </r>
@@ -4426,7 +4432,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6825615" y="13040360"/>
+          <a:off x="6825615" y="12964160"/>
           <a:ext cx="3931285" cy="2026285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4468,7 +4474,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1555750" y="14800580"/>
+          <a:off x="1555750" y="14724380"/>
           <a:ext cx="3361690" cy="4961255"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5003,7 +5009,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -5044,7 +5050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="149" customHeight="1" spans="1:6">
+    <row r="3" ht="114" customHeight="1" spans="1:6">
       <c r="A3" s="9">
         <v>45717</v>
       </c>
@@ -5072,7 +5078,7 @@
       <c r="E4" s="47"/>
       <c r="F4" s="41"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" ht="43" customHeight="1" spans="1:6">
       <c r="A5" s="20">
         <v>45719</v>
       </c>

--- a/00-doc/src/00_todo/00_todo.xlsx
+++ b/00-doc/src/00_todo/00_todo.xlsx
@@ -5009,7 +5009,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D4" sqref="D4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>

--- a/00-doc/src/00_todo/00_todo.xlsx
+++ b/00-doc/src/00_todo/00_todo.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="272">
   <si>
     <t>month goals：
 1、oral、listen everyday
@@ -74,6 +74,27 @@
   <si>
     <t>大早离开武汉，回到深圳
 准备HSBC面试</t>
+  </si>
+  <si>
+    <t>1. HSBC L1 interview
+2. resign-work procedure
+oth: 
+1. jerk in evening, go to bed 9：40</t>
+  </si>
+  <si>
+    <t>nothing，sore eyes
+note: 
+1. jerk in morning、afternoon，go to bed 10：00</t>
+  </si>
+  <si>
+    <t>todo：
+1. upload 盘古 code，screenshot show my work experience
+2. certification AWS etc</t>
+  </si>
+  <si>
+    <t>nothing，sore eyes
+note: 
+1. jerk in morning</t>
   </si>
   <si>
     <t>#########################################################################################
@@ -3955,7 +3976,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4127,6 +4148,12 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4432,7 +4459,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6825615" y="12964160"/>
+          <a:off x="6825615" y="13903960"/>
           <a:ext cx="3931285" cy="2026285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4474,7 +4501,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1555750" y="14724380"/>
+          <a:off x="1555750" y="15664180"/>
           <a:ext cx="3361690" cy="4961255"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5008,8 +5035,8 @@
   <sheetPr/>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -5060,10 +5087,10 @@
       <c r="C3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="47"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="41"/>
     </row>
     <row r="4" ht="38" customHeight="1" spans="1:6">
@@ -5072,31 +5099,37 @@
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="40"/>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="47"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="41"/>
     </row>
-    <row r="5" ht="43" customHeight="1" spans="1:6">
+    <row r="5" ht="61" customHeight="1" spans="1:6">
       <c r="A5" s="20">
         <v>45719</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51"/>
+      <c r="D5" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="58"/>
       <c r="F5" s="41"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" ht="70" customHeight="1" spans="1:6">
       <c r="A6" s="20">
         <v>45720</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="42"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="41"/>
+      <c r="D6" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="58"/>
+      <c r="F6" s="41" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" ht="73" customHeight="1" spans="1:6">
       <c r="A7" s="20">
@@ -5104,8 +5137,10 @@
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="42"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47"/>
+      <c r="D7" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="58"/>
       <c r="F7" s="43"/>
     </row>
     <row r="8" ht="65" customHeight="1" spans="1:6">
@@ -5378,7 +5413,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -5439,7 +5474,7 @@
     </row>
     <row r="48" spans="5:5">
       <c r="E48" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -5507,7 +5542,7 @@
   <sheetData>
     <row r="1" ht="48" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5517,19 +5552,19 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -5620,15 +5655,15 @@
         <v>45452</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="10" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5636,10 +5671,10 @@
         <v>45453</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -5650,14 +5685,14 @@
         <v>45454</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -5666,14 +5701,14 @@
         <v>45455</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -5682,14 +5717,14 @@
         <v>45456</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -5698,14 +5733,14 @@
         <v>45457</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>249</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>245</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -5714,17 +5749,17 @@
         <v>45458</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -5732,14 +5767,14 @@
         <v>45459</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -5748,14 +5783,14 @@
         <v>45460</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -5764,10 +5799,10 @@
         <v>45461</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -5778,14 +5813,14 @@
         <v>45462</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -5794,14 +5829,14 @@
         <v>45463</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -5810,14 +5845,14 @@
         <v>45464</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -5826,16 +5861,16 @@
         <v>45465</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D24" s="11">
         <v>2</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -5856,14 +5891,14 @@
         <v>45467</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -5872,10 +5907,10 @@
         <v>45468</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D27" s="8">
         <v>2</v>
@@ -5888,10 +5923,10 @@
         <v>45469</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
@@ -5904,10 +5939,10 @@
         <v>45470</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
@@ -5920,10 +5955,10 @@
         <v>45471</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -5937,11 +5972,11 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -5953,19 +5988,19 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D32" s="8">
         <v>1</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F32" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -6094,7 +6129,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3" s="39"/>
       <c r="E3" s="47"/>
@@ -6117,7 +6152,7 @@
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
       <c r="D5" s="50" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E5" s="51"/>
       <c r="F5" s="41"/>
@@ -6279,7 +6314,7 @@
       <c r="B21" s="39"/>
       <c r="C21" s="42"/>
       <c r="D21" s="50" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E21" s="51"/>
       <c r="F21" s="43"/>
@@ -6291,7 +6326,7 @@
       <c r="B22" s="39"/>
       <c r="C22" s="42"/>
       <c r="D22" s="46" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E22" s="47"/>
       <c r="F22" s="43"/>
@@ -6303,7 +6338,7 @@
       <c r="B23" s="39"/>
       <c r="C23" s="42"/>
       <c r="D23" s="46" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E23" s="47"/>
       <c r="F23" s="41"/>
@@ -6315,7 +6350,7 @@
       <c r="B24" s="39"/>
       <c r="C24" s="42"/>
       <c r="D24" s="46" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E24" s="47"/>
       <c r="F24" s="43"/>
@@ -6327,7 +6362,7 @@
       <c r="B25" s="39"/>
       <c r="C25" s="42"/>
       <c r="D25" s="46" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E25" s="47"/>
       <c r="F25" s="43"/>
@@ -6339,7 +6374,7 @@
       <c r="B26" s="39"/>
       <c r="C26" s="40"/>
       <c r="D26" s="50" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E26" s="51"/>
       <c r="F26" s="43"/>
@@ -6351,7 +6386,7 @@
       <c r="B27" s="39"/>
       <c r="C27" s="42"/>
       <c r="D27" s="46" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E27" s="47"/>
       <c r="F27" s="43"/>
@@ -6363,7 +6398,7 @@
       <c r="B28" s="39"/>
       <c r="C28" s="40"/>
       <c r="D28" s="46" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E28" s="47"/>
       <c r="F28" s="43"/>
@@ -6375,7 +6410,7 @@
       <c r="B29" s="39"/>
       <c r="C29" s="42"/>
       <c r="D29" s="46" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E29" s="47"/>
       <c r="F29" s="43"/>
@@ -6387,7 +6422,7 @@
       <c r="B30" s="39"/>
       <c r="C30" s="42"/>
       <c r="D30" s="46" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E30" s="47"/>
       <c r="F30" s="43"/>
@@ -6426,7 +6461,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -6487,7 +6522,7 @@
     </row>
     <row r="48" spans="5:5">
       <c r="E48" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -6589,14 +6624,14 @@
         <v>6</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="41" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6606,7 +6641,7 @@
       <c r="B4" s="39"/>
       <c r="C4" s="40"/>
       <c r="D4" s="46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E4" s="47"/>
       <c r="F4" s="41"/>
@@ -6618,7 +6653,7 @@
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
       <c r="D5" s="46" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E5" s="47"/>
       <c r="F5" s="41"/>
@@ -6630,7 +6665,7 @@
       <c r="B6" s="39"/>
       <c r="C6" s="42"/>
       <c r="D6" s="46" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E6" s="47"/>
       <c r="F6" s="41"/>
@@ -6642,7 +6677,7 @@
       <c r="B7" s="39"/>
       <c r="C7" s="42"/>
       <c r="D7" s="46" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E7" s="47"/>
       <c r="F7" s="43"/>
@@ -6796,7 +6831,7 @@
       <c r="D22" s="39"/>
       <c r="E22" s="48"/>
       <c r="F22" s="43" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" ht="66" customHeight="1" spans="1:6">
@@ -6919,7 +6954,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -7074,14 +7109,14 @@
         <v>6</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="41" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" ht="84" spans="1:6">
@@ -7092,10 +7127,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="41"/>
@@ -7108,14 +7143,14 @@
         <v>6</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="41" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" ht="70" spans="1:6">
@@ -7126,10 +7161,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="41"/>
@@ -7142,7 +7177,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D7" s="46"/>
       <c r="E7" s="47"/>
@@ -7156,10 +7191,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="43"/>
@@ -7172,14 +7207,14 @@
         <v>6</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="49" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" ht="84" spans="1:6">
@@ -7190,10 +7225,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="43"/>
@@ -7206,10 +7241,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="43"/>
@@ -7222,10 +7257,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="43"/>
@@ -7238,10 +7273,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="43"/>
@@ -7254,10 +7289,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E14" s="51"/>
       <c r="F14" s="43"/>
@@ -7270,10 +7305,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E15" s="47"/>
       <c r="F15" s="43"/>
@@ -7286,10 +7321,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="43"/>
@@ -7302,10 +7337,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E17" s="51"/>
       <c r="F17" s="41"/>
@@ -7318,10 +7353,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E18" s="47"/>
       <c r="F18" s="41"/>
@@ -7334,10 +7369,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E19" s="47"/>
       <c r="F19" s="41"/>
@@ -7350,10 +7385,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E20" s="47"/>
       <c r="F20" s="41"/>
@@ -7366,10 +7401,10 @@
         <v>6</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E21" s="47"/>
       <c r="F21" s="43"/>
@@ -7382,10 +7417,10 @@
         <v>6</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E22" s="47"/>
       <c r="F22" s="43"/>
@@ -7398,14 +7433,14 @@
         <v>6</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E23" s="47"/>
       <c r="F23" s="41" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" ht="84" spans="1:6">
@@ -7416,10 +7451,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E24" s="47"/>
       <c r="F24" s="43"/>
@@ -7432,10 +7467,10 @@
         <v>6</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E25" s="47"/>
       <c r="F25" s="43"/>
@@ -7448,14 +7483,14 @@
         <v>6</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E26" s="47"/>
       <c r="F26" s="43" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7538,7 +7573,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -7659,7 +7694,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -7678,10 +7713,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -7695,13 +7730,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F3" s="41"/>
     </row>
@@ -7713,13 +7748,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F4" s="41"/>
     </row>
@@ -7731,13 +7766,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F5" s="41"/>
     </row>
@@ -7749,13 +7784,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F6" s="41"/>
     </row>
@@ -7767,13 +7802,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F7" s="43"/>
     </row>
@@ -7785,13 +7820,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F8" s="43"/>
     </row>
@@ -7803,13 +7838,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F9" s="43"/>
     </row>
@@ -7821,13 +7856,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F10" s="43"/>
     </row>
@@ -7839,13 +7874,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F11" s="43"/>
     </row>
@@ -7857,13 +7892,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F12" s="43"/>
     </row>
@@ -7875,13 +7910,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F13" s="43"/>
     </row>
@@ -7893,13 +7928,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F14" s="43"/>
     </row>
@@ -7911,13 +7946,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F15" s="43"/>
     </row>
@@ -7929,13 +7964,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F16" s="43"/>
     </row>
@@ -7947,13 +7982,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F17" s="41"/>
     </row>
@@ -7965,13 +8000,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F18" s="41"/>
     </row>
@@ -7983,13 +8018,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F19" s="41"/>
     </row>
@@ -8001,13 +8036,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F20" s="41"/>
     </row>
@@ -8019,13 +8054,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F21" s="43"/>
     </row>
@@ -8037,13 +8072,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F22" s="43"/>
     </row>
@@ -8055,13 +8090,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F23" s="43"/>
     </row>
@@ -8073,13 +8108,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F24" s="43"/>
     </row>
@@ -8091,13 +8126,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F25" s="43"/>
     </row>
@@ -8109,31 +8144,31 @@
         <v>6</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F26" s="43"/>
     </row>
     <row r="27" ht="84" spans="1:6">
       <c r="A27" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B27" s="39" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F27" s="43"/>
     </row>
@@ -8145,13 +8180,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F28" s="43"/>
     </row>
@@ -8163,13 +8198,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F29" s="43"/>
     </row>
@@ -8181,13 +8216,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F30" s="43"/>
     </row>
@@ -8199,13 +8234,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F31" s="43"/>
     </row>
@@ -8217,19 +8252,19 @@
         <v>6</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F32" s="43"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -8316,7 +8351,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -8335,10 +8370,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -8349,16 +8384,16 @@
         <v>45566</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -8367,19 +8402,19 @@
         <v>45567</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" ht="70" spans="1:6">
@@ -8390,13 +8425,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -8408,13 +8443,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F6" s="8"/>
     </row>
@@ -8426,13 +8461,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -8444,13 +8479,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -8462,10 +8497,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="8"/>
@@ -8478,10 +8513,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="8"/>
@@ -8494,10 +8529,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="8"/>
@@ -8510,10 +8545,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="8"/>
@@ -8526,13 +8561,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -8544,13 +8579,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -8562,13 +8597,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -8580,13 +8615,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -8598,13 +8633,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -8616,13 +8651,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -8634,13 +8669,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -8652,13 +8687,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -8670,13 +8705,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -8688,13 +8723,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="E22" s="11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -8706,13 +8741,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="D23" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="E23" s="11" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -8724,13 +8759,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="D24" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="E24" s="11" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -8742,13 +8777,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="D25" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="E25" s="11" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -8760,13 +8795,13 @@
         <v>6</v>
       </c>
       <c r="C26" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="D26" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="E26" s="11" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -8778,13 +8813,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="D27" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="E27" s="11" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -8796,13 +8831,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="E28" s="11" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -8814,13 +8849,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="D29" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="E29" s="11" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -8832,13 +8867,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="D30" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="E30" s="11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -8850,13 +8885,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="D31" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="E31" s="11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -8868,13 +8903,13 @@
         <v>6</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -8886,13 +8921,13 @@
         <v>6</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F33" s="14"/>
     </row>
@@ -8904,19 +8939,19 @@
         <v>6</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -9003,7 +9038,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -9022,10 +9057,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -9039,13 +9074,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -9057,13 +9092,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F4" s="11"/>
     </row>
@@ -9075,13 +9110,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -9093,16 +9128,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" ht="56" spans="1:6">
@@ -9113,16 +9148,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" ht="56" spans="1:6">
@@ -9133,16 +9168,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" ht="70" spans="1:6">
@@ -9150,19 +9185,19 @@
         <v>45542</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C9" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>142</v>
-      </c>
       <c r="F9" s="8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" ht="70" spans="1:6">
@@ -9173,16 +9208,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" ht="56" spans="1:6">
@@ -9193,16 +9228,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" ht="56" spans="1:6">
@@ -9213,16 +9248,16 @@
         <v>6</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" ht="56" spans="1:6">
@@ -9233,16 +9268,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" ht="56" spans="1:6">
@@ -9253,16 +9288,16 @@
         <v>6</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" ht="56" spans="1:6">
@@ -9270,16 +9305,16 @@
         <v>45548</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -9291,13 +9326,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -9309,13 +9344,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -9327,13 +9362,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -9345,13 +9380,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -9360,16 +9395,16 @@
         <v>45553</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -9378,16 +9413,16 @@
         <v>45554</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -9396,16 +9431,16 @@
         <v>45555</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -9414,16 +9449,16 @@
         <v>45556</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -9435,13 +9470,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -9453,13 +9488,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -9471,13 +9506,13 @@
         <v>6</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -9489,13 +9524,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -9507,13 +9542,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -9525,13 +9560,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -9543,13 +9578,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -9561,13 +9596,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -9579,13 +9614,13 @@
         <v>6</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -9676,7 +9711,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -9695,10 +9730,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -9718,10 +9753,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -9738,10 +9773,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:6">
@@ -9758,10 +9793,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9778,10 +9813,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9799,7 +9834,7 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9817,7 +9852,7 @@
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="8" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -9834,10 +9869,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -9855,7 +9890,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -9873,7 +9908,7 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:6">
@@ -9890,10 +9925,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" ht="42" spans="1:6">
@@ -9910,10 +9945,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" ht="42" spans="1:6">
@@ -9930,10 +9965,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" ht="42" spans="1:6">
@@ -9950,10 +9985,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" ht="42" spans="1:6">
@@ -9970,10 +10005,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" ht="42" spans="1:6">
@@ -9990,10 +10025,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -10010,10 +10045,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" ht="42" spans="1:6">
@@ -10030,10 +10065,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" ht="42" spans="1:6">
@@ -10050,10 +10085,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" ht="42" spans="1:6">
@@ -10070,10 +10105,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" ht="42" spans="1:6">
@@ -10090,10 +10125,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" ht="42" spans="1:6">
@@ -10110,10 +10145,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" ht="42" spans="1:6">
@@ -10130,10 +10165,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" ht="42" spans="1:6">
@@ -10150,10 +10185,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" ht="42" spans="1:6">
@@ -10170,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" ht="42" spans="1:6">
@@ -10190,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -10208,7 +10243,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -10226,7 +10261,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -10244,7 +10279,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -10262,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -10280,7 +10315,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -10298,13 +10333,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -10393,7 +10428,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10405,25 +10440,25 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>5</v>
@@ -10537,7 +10572,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -10561,7 +10596,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H8" s="8"/>
     </row>
@@ -10629,7 +10664,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H11" s="10"/>
     </row>
@@ -10675,7 +10710,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H13" s="8"/>
     </row>
@@ -10699,7 +10734,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H14" s="8"/>
     </row>
@@ -10723,7 +10758,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H15" s="8"/>
     </row>
@@ -10747,7 +10782,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H16" s="8"/>
     </row>
@@ -10793,7 +10828,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -10861,7 +10896,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H21" s="8"/>
     </row>
@@ -10885,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H22" s="8"/>
     </row>
@@ -10909,7 +10944,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H23" s="8"/>
     </row>
@@ -10954,7 +10989,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H25" s="8"/>
     </row>
@@ -10978,7 +11013,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H26" s="8"/>
     </row>
@@ -11002,7 +11037,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H27" s="8"/>
     </row>
@@ -11023,7 +11058,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -11045,10 +11080,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H29" s="8"/>
     </row>
@@ -11069,7 +11104,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -11152,7 +11187,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>

--- a/00-doc/src/00_todo/00_todo.xlsx
+++ b/00-doc/src/00_todo/00_todo.xlsx
@@ -72,7 +72,7 @@
     <t>回家第5天：休息，在家</t>
   </si>
   <si>
-    <t>大早离开武汉，回到深圳
+    <t>大早高铁离开武汉，回到深圳
 准备HSBC面试</t>
   </si>
   <si>
@@ -3976,7 +3976,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4147,6 +4147,12 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5099,10 +5105,10 @@
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="40"/>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="58"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="41"/>
     </row>
     <row r="5" ht="61" customHeight="1" spans="1:6">
@@ -5111,10 +5117,10 @@
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="58"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="41"/>
     </row>
     <row r="6" ht="70" customHeight="1" spans="1:6">
@@ -5123,10 +5129,10 @@
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="42"/>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="58"/>
+      <c r="E6" s="60"/>
       <c r="F6" s="41" t="s">
         <v>12</v>
       </c>
@@ -5137,10 +5143,10 @@
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="42"/>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="58"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="43"/>
     </row>
     <row r="8" ht="65" customHeight="1" spans="1:6">
@@ -6079,8 +6085,8 @@
   <sheetPr/>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>

--- a/00-doc/src/00_todo/00_todo.xlsx
+++ b/00-doc/src/00_todo/00_todo.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="273">
   <si>
     <t>month goals：
 1、oral、listen everyday
@@ -76,10 +76,31 @@
 准备HSBC面试</t>
   </si>
   <si>
-    <t>1. HSBC L1 interview
-2. resign-work procedure
+    <r>
+      <t xml:space="preserve">1. HSBC L1 interview
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. resign-work procedure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 oth: 
 1. jerk in evening, go to bed 9：40</t>
+    </r>
   </si>
   <si>
     <t>nothing，sore eyes
@@ -93,6 +114,11 @@
   </si>
   <si>
     <t>nothing，sore eyes
+note: 
+1. jerk in morning</t>
+  </si>
+  <si>
+    <t>nothing，
 note: 
 1. jerk in morning</t>
   </si>
@@ -4465,7 +4491,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6825615" y="13903960"/>
+          <a:off x="6825615" y="14475460"/>
           <a:ext cx="3931285" cy="2026285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4507,7 +4533,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1555750" y="15664180"/>
+          <a:off x="1555750" y="16235680"/>
           <a:ext cx="3361690" cy="4961255"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5041,8 +5067,8 @@
   <sheetPr/>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -5155,18 +5181,22 @@
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="42"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
+      <c r="D8" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="60"/>
       <c r="F8" s="43"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" ht="59" customHeight="1" spans="1:6">
       <c r="A9" s="20">
         <v>45723</v>
       </c>
       <c r="B9" s="39"/>
       <c r="C9" s="42"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="48"/>
+      <c r="D9" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="60"/>
       <c r="F9" s="49"/>
     </row>
     <row r="10" spans="1:6">
@@ -5419,7 +5449,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -5480,7 +5510,7 @@
     </row>
     <row r="48" spans="5:5">
       <c r="E48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -5548,7 +5578,7 @@
   <sheetData>
     <row r="1" ht="48" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5558,19 +5588,19 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -5661,15 +5691,15 @@
         <v>45452</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5677,10 +5707,10 @@
         <v>45453</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -5691,14 +5721,14 @@
         <v>45454</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -5707,14 +5737,14 @@
         <v>45455</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -5723,14 +5753,14 @@
         <v>45456</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -5739,14 +5769,14 @@
         <v>45457</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -5755,17 +5785,17 @@
         <v>45458</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -5773,14 +5803,14 @@
         <v>45459</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -5789,14 +5819,14 @@
         <v>45460</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -5805,10 +5835,10 @@
         <v>45461</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -5819,14 +5849,14 @@
         <v>45462</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -5835,14 +5865,14 @@
         <v>45463</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -5851,14 +5881,14 @@
         <v>45464</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -5867,16 +5897,16 @@
         <v>45465</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D24" s="11">
         <v>2</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -5897,14 +5927,14 @@
         <v>45467</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -5913,10 +5943,10 @@
         <v>45468</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D27" s="8">
         <v>2</v>
@@ -5929,10 +5959,10 @@
         <v>45469</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
@@ -5945,10 +5975,10 @@
         <v>45470</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
@@ -5961,10 +5991,10 @@
         <v>45471</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -5978,11 +6008,11 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -5994,19 +6024,19 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D32" s="8">
         <v>1</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F32" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -6135,7 +6165,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="39"/>
       <c r="E3" s="47"/>
@@ -6158,7 +6188,7 @@
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
       <c r="D5" s="50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="51"/>
       <c r="F5" s="41"/>
@@ -6320,7 +6350,7 @@
       <c r="B21" s="39"/>
       <c r="C21" s="42"/>
       <c r="D21" s="50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E21" s="51"/>
       <c r="F21" s="43"/>
@@ -6332,7 +6362,7 @@
       <c r="B22" s="39"/>
       <c r="C22" s="42"/>
       <c r="D22" s="46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E22" s="47"/>
       <c r="F22" s="43"/>
@@ -6344,7 +6374,7 @@
       <c r="B23" s="39"/>
       <c r="C23" s="42"/>
       <c r="D23" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E23" s="47"/>
       <c r="F23" s="41"/>
@@ -6356,7 +6386,7 @@
       <c r="B24" s="39"/>
       <c r="C24" s="42"/>
       <c r="D24" s="46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E24" s="47"/>
       <c r="F24" s="43"/>
@@ -6368,7 +6398,7 @@
       <c r="B25" s="39"/>
       <c r="C25" s="42"/>
       <c r="D25" s="46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E25" s="47"/>
       <c r="F25" s="43"/>
@@ -6380,7 +6410,7 @@
       <c r="B26" s="39"/>
       <c r="C26" s="40"/>
       <c r="D26" s="50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E26" s="51"/>
       <c r="F26" s="43"/>
@@ -6392,7 +6422,7 @@
       <c r="B27" s="39"/>
       <c r="C27" s="42"/>
       <c r="D27" s="46" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E27" s="47"/>
       <c r="F27" s="43"/>
@@ -6404,7 +6434,7 @@
       <c r="B28" s="39"/>
       <c r="C28" s="40"/>
       <c r="D28" s="46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E28" s="47"/>
       <c r="F28" s="43"/>
@@ -6416,7 +6446,7 @@
       <c r="B29" s="39"/>
       <c r="C29" s="42"/>
       <c r="D29" s="46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E29" s="47"/>
       <c r="F29" s="43"/>
@@ -6428,7 +6458,7 @@
       <c r="B30" s="39"/>
       <c r="C30" s="42"/>
       <c r="D30" s="46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E30" s="47"/>
       <c r="F30" s="43"/>
@@ -6467,7 +6497,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -6528,7 +6558,7 @@
     </row>
     <row r="48" spans="5:5">
       <c r="E48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -6630,14 +6660,14 @@
         <v>6</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6647,7 +6677,7 @@
       <c r="B4" s="39"/>
       <c r="C4" s="40"/>
       <c r="D4" s="46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="47"/>
       <c r="F4" s="41"/>
@@ -6659,7 +6689,7 @@
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
       <c r="D5" s="46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" s="47"/>
       <c r="F5" s="41"/>
@@ -6671,7 +6701,7 @@
       <c r="B6" s="39"/>
       <c r="C6" s="42"/>
       <c r="D6" s="46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="47"/>
       <c r="F6" s="41"/>
@@ -6683,7 +6713,7 @@
       <c r="B7" s="39"/>
       <c r="C7" s="42"/>
       <c r="D7" s="46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="47"/>
       <c r="F7" s="43"/>
@@ -6837,7 +6867,7 @@
       <c r="D22" s="39"/>
       <c r="E22" s="48"/>
       <c r="F22" s="43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" ht="66" customHeight="1" spans="1:6">
@@ -6960,7 +6990,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -7115,14 +7145,14 @@
         <v>6</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" ht="84" spans="1:6">
@@ -7133,10 +7163,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="41"/>
@@ -7149,14 +7179,14 @@
         <v>6</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" ht="70" spans="1:6">
@@ -7167,10 +7197,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="41"/>
@@ -7183,7 +7213,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" s="46"/>
       <c r="E7" s="47"/>
@@ -7197,10 +7227,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="43"/>
@@ -7213,14 +7243,14 @@
         <v>6</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" ht="84" spans="1:6">
@@ -7231,10 +7261,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="43"/>
@@ -7247,10 +7277,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="43"/>
@@ -7263,10 +7293,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="43"/>
@@ -7279,10 +7309,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="43"/>
@@ -7295,10 +7325,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E14" s="51"/>
       <c r="F14" s="43"/>
@@ -7311,10 +7341,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E15" s="47"/>
       <c r="F15" s="43"/>
@@ -7327,10 +7357,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="43"/>
@@ -7343,10 +7373,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E17" s="51"/>
       <c r="F17" s="41"/>
@@ -7359,10 +7389,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E18" s="47"/>
       <c r="F18" s="41"/>
@@ -7375,10 +7405,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E19" s="47"/>
       <c r="F19" s="41"/>
@@ -7391,10 +7421,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E20" s="47"/>
       <c r="F20" s="41"/>
@@ -7407,10 +7437,10 @@
         <v>6</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E21" s="47"/>
       <c r="F21" s="43"/>
@@ -7423,10 +7453,10 @@
         <v>6</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E22" s="47"/>
       <c r="F22" s="43"/>
@@ -7439,14 +7469,14 @@
         <v>6</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E23" s="47"/>
       <c r="F23" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" ht="84" spans="1:6">
@@ -7457,10 +7487,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E24" s="47"/>
       <c r="F24" s="43"/>
@@ -7473,10 +7503,10 @@
         <v>6</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E25" s="47"/>
       <c r="F25" s="43"/>
@@ -7489,14 +7519,14 @@
         <v>6</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E26" s="47"/>
       <c r="F26" s="43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7579,7 +7609,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -7700,7 +7730,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -7719,10 +7749,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -7736,13 +7766,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F3" s="41"/>
     </row>
@@ -7754,13 +7784,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F4" s="41"/>
     </row>
@@ -7772,13 +7802,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F5" s="41"/>
     </row>
@@ -7790,13 +7820,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F6" s="41"/>
     </row>
@@ -7808,13 +7838,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F7" s="43"/>
     </row>
@@ -7826,13 +7856,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F8" s="43"/>
     </row>
@@ -7844,13 +7874,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F9" s="43"/>
     </row>
@@ -7862,13 +7892,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F10" s="43"/>
     </row>
@@ -7880,13 +7910,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F11" s="43"/>
     </row>
@@ -7898,13 +7928,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F12" s="43"/>
     </row>
@@ -7916,13 +7946,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F13" s="43"/>
     </row>
@@ -7934,13 +7964,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="43"/>
     </row>
@@ -7952,13 +7982,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15" s="43"/>
     </row>
@@ -7970,13 +8000,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F16" s="43"/>
     </row>
@@ -7988,13 +8018,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17" s="41"/>
     </row>
@@ -8006,13 +8036,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F18" s="41"/>
     </row>
@@ -8024,13 +8054,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F19" s="41"/>
     </row>
@@ -8042,13 +8072,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F20" s="41"/>
     </row>
@@ -8060,13 +8090,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F21" s="43"/>
     </row>
@@ -8078,13 +8108,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F22" s="43"/>
     </row>
@@ -8096,13 +8126,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F23" s="43"/>
     </row>
@@ -8114,13 +8144,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F24" s="43"/>
     </row>
@@ -8132,13 +8162,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F25" s="43"/>
     </row>
@@ -8150,31 +8180,31 @@
         <v>6</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F26" s="43"/>
     </row>
     <row r="27" ht="84" spans="1:6">
       <c r="A27" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B27" s="39" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F27" s="43"/>
     </row>
@@ -8186,13 +8216,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F28" s="43"/>
     </row>
@@ -8204,13 +8234,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F29" s="43"/>
     </row>
@@ -8222,13 +8252,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F30" s="43"/>
     </row>
@@ -8240,13 +8270,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F31" s="43"/>
     </row>
@@ -8258,19 +8288,19 @@
         <v>6</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F32" s="43"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -8357,7 +8387,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -8376,10 +8406,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -8390,16 +8420,16 @@
         <v>45566</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -8408,19 +8438,19 @@
         <v>45567</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" ht="70" spans="1:6">
@@ -8431,13 +8461,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -8449,13 +8479,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F6" s="8"/>
     </row>
@@ -8467,13 +8497,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -8485,13 +8515,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -8503,10 +8533,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="8"/>
@@ -8519,10 +8549,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="8"/>
@@ -8535,10 +8565,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="8"/>
@@ -8551,10 +8581,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="8"/>
@@ -8567,13 +8597,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -8585,13 +8615,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -8603,13 +8633,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -8621,13 +8651,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -8639,13 +8669,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -8657,13 +8687,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -8675,13 +8705,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="33" t="s">
-        <v>128</v>
-      </c>
       <c r="E19" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -8693,13 +8723,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="33" t="s">
-        <v>128</v>
-      </c>
       <c r="E20" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -8711,13 +8741,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="D21" s="33" t="s">
-        <v>128</v>
-      </c>
       <c r="E21" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -8729,13 +8759,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -8747,13 +8777,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -8765,13 +8795,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -8783,13 +8813,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -8801,13 +8831,13 @@
         <v>6</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -8819,13 +8849,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -8837,13 +8867,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -8855,13 +8885,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -8873,13 +8903,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -8891,13 +8921,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -8909,13 +8939,13 @@
         <v>6</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -8927,13 +8957,13 @@
         <v>6</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F33" s="14"/>
     </row>
@@ -8945,19 +8975,19 @@
         <v>6</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -9044,7 +9074,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -9063,10 +9093,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -9080,13 +9110,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -9098,13 +9128,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F4" s="11"/>
     </row>
@@ -9116,13 +9146,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>143</v>
-      </c>
       <c r="E5" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -9134,16 +9164,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="35" t="s">
-        <v>143</v>
-      </c>
       <c r="E6" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" ht="56" spans="1:6">
@@ -9154,16 +9184,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="35" t="s">
-        <v>143</v>
-      </c>
       <c r="E7" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" ht="56" spans="1:6">
@@ -9174,16 +9204,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D8" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="9" ht="70" spans="1:6">
@@ -9191,19 +9221,19 @@
         <v>45542</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" ht="70" spans="1:6">
@@ -9214,16 +9244,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="11" ht="56" spans="1:6">
@@ -9234,16 +9264,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" ht="56" spans="1:6">
@@ -9254,16 +9284,16 @@
         <v>6</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" ht="56" spans="1:6">
@@ -9274,16 +9304,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="14" ht="56" spans="1:6">
@@ -9294,16 +9324,16 @@
         <v>6</v>
       </c>
       <c r="C14" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15" ht="56" spans="1:6">
@@ -9311,16 +9341,16 @@
         <v>45548</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -9332,13 +9362,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -9350,13 +9380,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -9368,13 +9398,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -9386,13 +9416,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -9401,16 +9431,16 @@
         <v>45553</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -9419,16 +9449,16 @@
         <v>45554</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -9437,16 +9467,16 @@
         <v>45555</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -9455,16 +9485,16 @@
         <v>45556</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -9476,13 +9506,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -9494,13 +9524,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -9512,13 +9542,13 @@
         <v>6</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -9530,13 +9560,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -9548,13 +9578,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -9566,13 +9596,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -9584,13 +9614,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -9602,13 +9632,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -9620,13 +9650,13 @@
         <v>6</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -9717,7 +9747,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -9736,10 +9766,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -9759,10 +9789,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -9779,10 +9809,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>202</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:6">
@@ -9799,10 +9829,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9819,10 +9849,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9840,7 +9870,7 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9858,7 +9888,7 @@
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -9875,10 +9905,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -9896,7 +9926,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -9914,7 +9944,7 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:6">
@@ -9931,10 +9961,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" ht="42" spans="1:6">
@@ -9951,10 +9981,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" ht="42" spans="1:6">
@@ -9971,10 +10001,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" ht="42" spans="1:6">
@@ -9991,10 +10021,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" ht="42" spans="1:6">
@@ -10011,10 +10041,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" ht="42" spans="1:6">
@@ -10031,10 +10061,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -10051,10 +10081,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" ht="42" spans="1:6">
@@ -10071,10 +10101,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>213</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="20" ht="42" spans="1:6">
@@ -10091,10 +10121,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" ht="42" spans="1:6">
@@ -10111,10 +10141,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" ht="42" spans="1:6">
@@ -10131,10 +10161,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" ht="42" spans="1:6">
@@ -10151,10 +10181,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" ht="42" spans="1:6">
@@ -10171,10 +10201,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" ht="42" spans="1:6">
@@ -10191,10 +10221,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" ht="42" spans="1:6">
@@ -10211,10 +10241,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>217</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="27" ht="42" spans="1:6">
@@ -10231,7 +10261,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -10249,7 +10279,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -10267,7 +10297,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -10285,7 +10315,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -10303,7 +10333,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -10321,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -10339,13 +10369,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -10434,7 +10464,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10446,25 +10476,25 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>5</v>
@@ -10578,7 +10608,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -10602,7 +10632,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H8" s="8"/>
     </row>
@@ -10670,7 +10700,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H11" s="10"/>
     </row>
@@ -10716,7 +10746,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H13" s="8"/>
     </row>
@@ -10740,7 +10770,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H14" s="8"/>
     </row>
@@ -10764,7 +10794,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H15" s="8"/>
     </row>
@@ -10788,7 +10818,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H16" s="8"/>
     </row>
@@ -10834,7 +10864,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -10902,7 +10932,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H21" s="8"/>
     </row>
@@ -10926,7 +10956,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H22" s="8"/>
     </row>
@@ -10950,7 +10980,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H23" s="8"/>
     </row>
@@ -10995,7 +11025,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H25" s="8"/>
     </row>
@@ -11019,7 +11049,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H26" s="8"/>
     </row>
@@ -11043,7 +11073,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H27" s="8"/>
     </row>
@@ -11064,7 +11094,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -11086,10 +11116,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H29" s="8"/>
     </row>
@@ -11110,7 +11140,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -11193,7 +11223,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>

--- a/00-doc/src/00_todo/00_todo.xlsx
+++ b/00-doc/src/00_todo/00_todo.xlsx
@@ -77,7 +77,16 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1. HSBC L1 interview
+      <t>1. HSBC L1 interview</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -4002,7 +4011,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4186,6 +4195,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4491,7 +4503,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6825615" y="14475460"/>
+          <a:off x="6444615" y="14475460"/>
           <a:ext cx="3931285" cy="2026285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4514,7 +4526,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>580390</xdr:colOff>
+      <xdr:colOff>961390</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>140335</xdr:rowOff>
     </xdr:to>
@@ -5067,18 +5079,18 @@
   <sheetPr/>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="13.3636363636364" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.8181818181818" customWidth="1"/>
-    <col min="3" max="3" width="29.9090909090909" style="23" customWidth="1"/>
+    <col min="3" max="3" width="24.4545454545455" style="23" customWidth="1"/>
     <col min="4" max="4" width="35.5454545454545" customWidth="1"/>
     <col min="5" max="5" width="26.4545454545455" customWidth="1"/>
-    <col min="6" max="6" width="34.6363636363636" customWidth="1"/>
+    <col min="6" max="6" width="39.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
@@ -5143,7 +5155,7 @@
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="61" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="60"/>

--- a/00-doc/src/00_todo/00_todo.xlsx
+++ b/00-doc/src/00_todo/00_todo.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="282">
   <si>
     <t>month goals：
 1、oral、listen everyday
@@ -76,7 +76,22 @@
 准备HSBC面试</t>
   </si>
   <si>
-    <r>
+    <t>summary：
+1.back home relax，
+2.contract lost $7000</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1. HSBC L1 interview</t>
     </r>
     <r>
@@ -130,6 +145,42 @@
     <t>nothing，
 note: 
 1. jerk in morning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nothing，
+note: 
+1. </t>
+  </si>
+  <si>
+    <t>nothing，
+note: 
+1. jerk in afternoon</t>
+  </si>
+  <si>
+    <t>summary(3.3-3.9)
+1.HSBC L1 interview
+2.relax, waste time cant focus</t>
+  </si>
+  <si>
+    <t>plan(3.10-3.16)
+1. finish 谷粒后台react(141 episode，30h)
+2. master in aws，gcp components，integrity preject
+3. algorithms 5/day，大圣 core200
+4. self portfolio
+5. nextjs，nestjs</t>
+  </si>
+  <si>
+    <t>APIs (RESTful/GraphQL)
+mobile develop
+Express</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 谷粒 80episode
+2. </t>
+  </si>
+  <si>
+    <t>1. 谷粒 141episode
+2. aws project with all components</t>
   </si>
   <si>
     <t>#########################################################################################
@@ -3473,7 +3524,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3519,6 +3570,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3887,7 +3944,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3911,16 +3968,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3929,89 +3986,89 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4183,6 +4240,33 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4195,8 +4279,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4479,13 +4584,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>5715</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2089150</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>67945</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4503,7 +4608,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6444615" y="14475460"/>
+          <a:off x="6444615" y="20787360"/>
           <a:ext cx="3931285" cy="2026285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4521,13 +4626,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>157480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>961390</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>140335</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4545,7 +4650,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1555750" y="16235680"/>
+          <a:off x="1555750" y="22547580"/>
           <a:ext cx="3361690" cy="4961255"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4568,13 +4673,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>5715</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2089150</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>67945</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4592,7 +4697,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6825615" y="13332460"/>
+          <a:off x="6825615" y="15262860"/>
           <a:ext cx="3931285" cy="2026285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4610,13 +4715,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4633,7 +4738,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="15113000"/>
+          <a:off x="0" y="17043400"/>
           <a:ext cx="203200" cy="203200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4651,13 +4756,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4674,7 +4779,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="933450" y="15113000"/>
+          <a:off x="933450" y="17043400"/>
           <a:ext cx="203200" cy="203200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4692,13 +4797,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>157480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>580390</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>140335</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4716,7 +4821,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1555750" y="15092680"/>
+          <a:off x="1555750" y="17023080"/>
           <a:ext cx="3361690" cy="4961255"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5077,10 +5182,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -5131,10 +5236,10 @@
       <c r="C3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="41"/>
     </row>
     <row r="4" ht="38" customHeight="1" spans="1:6">
@@ -5143,197 +5248,203 @@
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="40"/>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="60"/>
+      <c r="E4" s="69"/>
       <c r="F4" s="41"/>
     </row>
     <row r="5" ht="61" customHeight="1" spans="1:6">
-      <c r="A5" s="20">
-        <v>45719</v>
-      </c>
+      <c r="A5" s="20"/>
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="60"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="41"/>
     </row>
-    <row r="6" ht="70" customHeight="1" spans="1:6">
-      <c r="A6" s="20">
+    <row r="6" s="57" customFormat="1" ht="61" customHeight="1" spans="1:6">
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="72"/>
+    </row>
+    <row r="7" ht="61" customHeight="1" spans="1:6">
+      <c r="A7" s="20"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="59"/>
+      <c r="F7" s="41"/>
+    </row>
+    <row r="8" ht="61" customHeight="1" spans="1:6">
+      <c r="A8" s="20">
+        <v>45719</v>
+      </c>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="69"/>
+      <c r="F8" s="41"/>
+    </row>
+    <row r="9" ht="70" customHeight="1" spans="1:6">
+      <c r="A9" s="20">
         <v>45720</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" ht="73" customHeight="1" spans="1:6">
-      <c r="A7" s="20">
-        <v>45721</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="60"/>
-      <c r="F7" s="43"/>
-    </row>
-    <row r="8" ht="65" customHeight="1" spans="1:6">
-      <c r="A8" s="20">
-        <v>45722</v>
-      </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="60"/>
-      <c r="F8" s="43"/>
-    </row>
-    <row r="9" ht="59" customHeight="1" spans="1:6">
-      <c r="A9" s="20">
-        <v>45723</v>
       </c>
       <c r="B9" s="39"/>
       <c r="C9" s="42"/>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="69"/>
+      <c r="F9" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="60"/>
-      <c r="F9" s="49"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="9">
-        <v>45724</v>
+    </row>
+    <row r="10" ht="73" customHeight="1" spans="1:6">
+      <c r="A10" s="20">
+        <v>45721</v>
       </c>
       <c r="B10" s="39"/>
       <c r="C10" s="42"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="48"/>
+      <c r="D10" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="69"/>
       <c r="F10" s="43"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="9">
-        <v>45725</v>
+    <row r="11" ht="65" customHeight="1" spans="1:6">
+      <c r="A11" s="20">
+        <v>45722</v>
       </c>
       <c r="B11" s="39"/>
       <c r="C11" s="42"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="48"/>
+      <c r="D11" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="69"/>
       <c r="F11" s="43"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" ht="59" customHeight="1" spans="1:6">
       <c r="A12" s="20">
-        <v>45726</v>
+        <v>45723</v>
       </c>
       <c r="B12" s="39"/>
       <c r="C12" s="42"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="43"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="20">
-        <v>45727</v>
+      <c r="D12" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="69"/>
+      <c r="F12" s="49"/>
+    </row>
+    <row r="13" ht="46" customHeight="1" spans="1:6">
+      <c r="A13" s="9">
+        <v>45724</v>
       </c>
       <c r="B13" s="39"/>
       <c r="C13" s="42"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="48"/>
+      <c r="D13" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="69"/>
       <c r="F13" s="43"/>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="20">
-        <v>45728</v>
+    <row r="14" ht="49" customHeight="1" spans="1:6">
+      <c r="A14" s="9">
+        <v>45725</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="42"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51"/>
+      <c r="D14" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="69"/>
       <c r="F14" s="43"/>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="20">
-        <v>45729</v>
-      </c>
+    <row r="15" ht="49" customHeight="1" spans="1:6">
+      <c r="A15" s="9"/>
       <c r="B15" s="39"/>
       <c r="C15" s="42"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
+      <c r="D15" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="59"/>
       <c r="F15" s="43"/>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="20">
-        <v>45730</v>
-      </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="43"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="9">
-        <v>45731</v>
-      </c>
+    <row r="16" s="57" customFormat="1" ht="47" customHeight="1" spans="1:6">
+      <c r="A16" s="60"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="65"/>
+    </row>
+    <row r="17" ht="90" customHeight="1" spans="1:6">
+      <c r="A17" s="20"/>
       <c r="B17" s="39"/>
       <c r="C17" s="42"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="41"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="9">
-        <v>45732</v>
+      <c r="D17" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="59"/>
+      <c r="F17" s="77" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" ht="28" customHeight="1" spans="1:6">
+      <c r="A18" s="20">
+        <v>45726</v>
       </c>
       <c r="B18" s="39"/>
       <c r="C18" s="42"/>
-      <c r="D18" s="46"/>
+      <c r="D18" s="46" t="s">
+        <v>22</v>
+      </c>
       <c r="E18" s="47"/>
-      <c r="F18" s="41"/>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="F18" s="43"/>
+    </row>
+    <row r="19" ht="34" customHeight="1" spans="1:6">
       <c r="A19" s="20">
-        <v>45733</v>
+        <v>45727</v>
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="42"/>
-      <c r="D19" s="46"/>
+      <c r="D19" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="E19" s="47"/>
-      <c r="F19" s="41"/>
+      <c r="F19" s="43"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="20">
-        <v>45734</v>
+        <v>45728</v>
       </c>
       <c r="B20" s="39"/>
       <c r="C20" s="42"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="41"/>
-    </row>
-    <row r="21" ht="40" customHeight="1" spans="1:6">
+      <c r="D20" s="50"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="43"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="20">
-        <v>45735</v>
+        <v>45729</v>
       </c>
       <c r="B21" s="39"/>
       <c r="C21" s="42"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="51"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="47"/>
       <c r="F21" s="43"/>
     </row>
-    <row r="22" ht="45" customHeight="1" spans="1:6">
+    <row r="22" spans="1:6">
       <c r="A22" s="20">
-        <v>45736</v>
+        <v>45730</v>
       </c>
       <c r="B22" s="39"/>
       <c r="C22" s="42"/>
@@ -5341,69 +5452,67 @@
       <c r="E22" s="47"/>
       <c r="F22" s="43"/>
     </row>
-    <row r="23" ht="66" customHeight="1" spans="1:6">
-      <c r="A23" s="20">
-        <v>45737</v>
+    <row r="23" spans="1:6">
+      <c r="A23" s="9">
+        <v>45731</v>
       </c>
       <c r="B23" s="39"/>
       <c r="C23" s="42"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="47"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="51"/>
       <c r="F23" s="41"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="9">
-        <v>45738</v>
+        <v>45732</v>
       </c>
       <c r="B24" s="39"/>
       <c r="C24" s="42"/>
       <c r="D24" s="46"/>
       <c r="E24" s="47"/>
-      <c r="F24" s="43"/>
-    </row>
-    <row r="25" ht="57" customHeight="1" spans="1:6">
-      <c r="A25" s="9">
-        <v>45739</v>
-      </c>
+      <c r="F24" s="41"/>
+    </row>
+    <row r="25" ht="27" customHeight="1" spans="1:6">
+      <c r="A25" s="20"/>
       <c r="B25" s="39"/>
       <c r="C25" s="42"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="43"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="41"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="20">
-        <v>45740</v>
+        <v>45733</v>
       </c>
       <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="46"/>
       <c r="E26" s="47"/>
-      <c r="F26" s="43"/>
+      <c r="F26" s="41"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="20">
-        <v>45741</v>
+        <v>45734</v>
       </c>
       <c r="B27" s="39"/>
       <c r="C27" s="42"/>
       <c r="D27" s="46"/>
       <c r="E27" s="47"/>
-      <c r="F27" s="43"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="F27" s="41"/>
+    </row>
+    <row r="28" ht="40" customHeight="1" spans="1:6">
       <c r="A28" s="20">
-        <v>45742</v>
+        <v>45735</v>
       </c>
       <c r="B28" s="39"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="47"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="51"/>
       <c r="F28" s="43"/>
     </row>
-    <row r="29" ht="35" customHeight="1" spans="1:6">
+    <row r="29" ht="45" customHeight="1" spans="1:6">
       <c r="A29" s="20">
-        <v>45743</v>
+        <v>45736</v>
       </c>
       <c r="B29" s="39"/>
       <c r="C29" s="42"/>
@@ -5411,19 +5520,19 @@
       <c r="E29" s="47"/>
       <c r="F29" s="43"/>
     </row>
-    <row r="30" ht="34" customHeight="1" spans="1:6">
+    <row r="30" ht="66" customHeight="1" spans="1:6">
       <c r="A30" s="20">
-        <v>45744</v>
+        <v>45737</v>
       </c>
       <c r="B30" s="39"/>
       <c r="C30" s="42"/>
       <c r="D30" s="46"/>
       <c r="E30" s="47"/>
-      <c r="F30" s="43"/>
+      <c r="F30" s="41"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="9">
-        <v>45745</v>
+        <v>45738</v>
       </c>
       <c r="B31" s="39"/>
       <c r="C31" s="42"/>
@@ -5431,9 +5540,9 @@
       <c r="E31" s="47"/>
       <c r="F31" s="43"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" ht="57" customHeight="1" spans="1:6">
       <c r="A32" s="9">
-        <v>45746</v>
+        <v>45739</v>
       </c>
       <c r="B32" s="39"/>
       <c r="C32" s="42"/>
@@ -5443,90 +5552,160 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="20">
+        <v>45740</v>
+      </c>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="43"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="20">
+        <v>45741</v>
+      </c>
+      <c r="B34" s="39"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="43"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="20">
+        <v>45742</v>
+      </c>
+      <c r="B35" s="39"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="43"/>
+    </row>
+    <row r="36" ht="35" customHeight="1" spans="1:6">
+      <c r="A36" s="20">
+        <v>45743</v>
+      </c>
+      <c r="B36" s="39"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="43"/>
+    </row>
+    <row r="37" ht="34" customHeight="1" spans="1:6">
+      <c r="A37" s="20">
+        <v>45744</v>
+      </c>
+      <c r="B37" s="39"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="43"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="9">
+        <v>45745</v>
+      </c>
+      <c r="B38" s="39"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="43"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="9">
+        <v>45746</v>
+      </c>
+      <c r="B39" s="39"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="43"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="20">
         <v>45747</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="52"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="52"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="52"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-    </row>
-    <row r="36" customFormat="1" spans="1:4">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-    </row>
-    <row r="37" customFormat="1" spans="1:4">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-    </row>
-    <row r="38" customFormat="1" spans="1:4">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-    </row>
-    <row r="39" customFormat="1" spans="1:4">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-    </row>
-    <row r="40" customFormat="1" spans="1:4">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-    </row>
-    <row r="41" customFormat="1" spans="1:4">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-    </row>
-    <row r="42" customFormat="1" spans="1:4">
-      <c r="A42" s="14"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="52"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="52"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="52"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="B42" s="14"/>
-      <c r="C42" s="23"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
     </row>
     <row r="43" customFormat="1" spans="1:4">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
-      <c r="C43" s="23"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="14"/>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45"/>
-    </row>
-    <row r="48" spans="5:5">
-      <c r="E48" t="s">
-        <v>16</v>
+    <row r="44" customFormat="1" spans="1:4">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+    </row>
+    <row r="45" customFormat="1" spans="1:4">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+    </row>
+    <row r="46" customFormat="1" spans="1:4">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+    </row>
+    <row r="47" customFormat="1" spans="1:4">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+    </row>
+    <row r="48" customFormat="1" spans="1:4">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+    </row>
+    <row r="49" customFormat="1" spans="1:4">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="14"/>
+    </row>
+    <row r="50" customFormat="1" spans="1:4">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="14"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52"/>
+    </row>
+    <row r="55" spans="5:5">
+      <c r="E55" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="42">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
@@ -5561,7 +5740,14 @@
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A35:D43"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="A42:D50"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5590,7 +5776,7 @@
   <sheetData>
     <row r="1" ht="48" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5600,19 +5786,19 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -5703,15 +5889,15 @@
         <v>45452</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="10" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5719,10 +5905,10 @@
         <v>45453</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -5733,14 +5919,14 @@
         <v>45454</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -5749,14 +5935,14 @@
         <v>45455</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -5765,14 +5951,14 @@
         <v>45456</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -5781,14 +5967,14 @@
         <v>45457</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -5797,17 +5983,17 @@
         <v>45458</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -5815,14 +6001,14 @@
         <v>45459</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -5831,14 +6017,14 @@
         <v>45460</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -5847,10 +6033,10 @@
         <v>45461</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -5861,14 +6047,14 @@
         <v>45462</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -5877,14 +6063,14 @@
         <v>45463</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -5893,14 +6079,14 @@
         <v>45464</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -5909,16 +6095,16 @@
         <v>45465</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="D24" s="11">
         <v>2</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -5939,14 +6125,14 @@
         <v>45467</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -5955,10 +6141,10 @@
         <v>45468</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="D27" s="8">
         <v>2</v>
@@ -5971,10 +6157,10 @@
         <v>45469</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
@@ -5987,10 +6173,10 @@
         <v>45470</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
@@ -6003,10 +6189,10 @@
         <v>45471</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -6020,11 +6206,11 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -6036,19 +6222,19 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D32" s="8">
         <v>1</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="F32" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -6125,10 +6311,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:E26"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -6177,7 +6363,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D3" s="39"/>
       <c r="E3" s="47"/>
@@ -6200,7 +6386,7 @@
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
       <c r="D5" s="50" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E5" s="51"/>
       <c r="F5" s="41"/>
@@ -6362,7 +6548,7 @@
       <c r="B21" s="39"/>
       <c r="C21" s="42"/>
       <c r="D21" s="50" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E21" s="51"/>
       <c r="F21" s="43"/>
@@ -6374,7 +6560,7 @@
       <c r="B22" s="39"/>
       <c r="C22" s="42"/>
       <c r="D22" s="46" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E22" s="47"/>
       <c r="F22" s="43"/>
@@ -6386,7 +6572,7 @@
       <c r="B23" s="39"/>
       <c r="C23" s="42"/>
       <c r="D23" s="46" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E23" s="47"/>
       <c r="F23" s="41"/>
@@ -6398,7 +6584,7 @@
       <c r="B24" s="39"/>
       <c r="C24" s="42"/>
       <c r="D24" s="46" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E24" s="47"/>
       <c r="F24" s="43"/>
@@ -6410,130 +6596,140 @@
       <c r="B25" s="39"/>
       <c r="C25" s="42"/>
       <c r="D25" s="46" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E25" s="47"/>
       <c r="F25" s="43"/>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="20">
-        <v>45712</v>
-      </c>
+    <row r="26" ht="47" customHeight="1" spans="1:6">
+      <c r="A26" s="20"/>
       <c r="B26" s="39"/>
       <c r="C26" s="40"/>
-      <c r="D26" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="51"/>
+      <c r="D26" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="59"/>
       <c r="F26" s="43"/>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="20">
-        <v>45713</v>
-      </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="47"/>
-      <c r="F27" s="43"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="20">
-        <v>45714</v>
-      </c>
+    <row r="27" s="57" customFormat="1" ht="52" customHeight="1" spans="1:6">
+      <c r="A27" s="60"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="65"/>
+    </row>
+    <row r="28" ht="53" customHeight="1" spans="1:6">
+      <c r="A28" s="20"/>
       <c r="B28" s="39"/>
       <c r="C28" s="40"/>
-      <c r="D28" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="47"/>
+      <c r="D28" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="59"/>
       <c r="F28" s="43"/>
     </row>
-    <row r="29" ht="35" customHeight="1" spans="1:6">
+    <row r="29" spans="1:6">
       <c r="A29" s="20">
-        <v>45715</v>
+        <v>45712</v>
       </c>
       <c r="B29" s="39"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="47"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="51"/>
       <c r="F29" s="43"/>
     </row>
-    <row r="30" ht="34" customHeight="1" spans="1:6">
+    <row r="30" spans="1:6">
       <c r="A30" s="20">
-        <v>45716</v>
+        <v>45713</v>
       </c>
       <c r="B30" s="39"/>
       <c r="C30" s="42"/>
       <c r="D30" s="46" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E30" s="47"/>
       <c r="F30" s="43"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="20"/>
+      <c r="A31" s="20">
+        <v>45714</v>
+      </c>
       <c r="B31" s="39"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="46"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="46" t="s">
+        <v>34</v>
+      </c>
       <c r="E31" s="47"/>
       <c r="F31" s="43"/>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="20"/>
+    <row r="32" ht="35" customHeight="1" spans="1:6">
+      <c r="A32" s="20">
+        <v>45715</v>
+      </c>
       <c r="B32" s="39"/>
       <c r="C32" s="42"/>
-      <c r="D32" s="46"/>
+      <c r="D32" s="46" t="s">
+        <v>35</v>
+      </c>
       <c r="E32" s="47"/>
       <c r="F32" s="43"/>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="20"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="52"/>
+    <row r="33" ht="34" customHeight="1" spans="1:6">
+      <c r="A33" s="20">
+        <v>45716</v>
+      </c>
+      <c r="B33" s="39"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="47"/>
+      <c r="F33" s="43"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="52"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="52"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="43"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-    </row>
-    <row r="36" customFormat="1" spans="1:4">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-    </row>
-    <row r="37" customFormat="1" spans="1:4">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-    </row>
-    <row r="38" customFormat="1" spans="1:4">
-      <c r="A38" s="14"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="43"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="20"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="52"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="52"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="52"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
     </row>
     <row r="39" customFormat="1" spans="1:4">
       <c r="A39" s="14"/>
@@ -6556,25 +6752,43 @@
     <row r="42" customFormat="1" spans="1:4">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
-      <c r="C42" s="23"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="14"/>
     </row>
     <row r="43" customFormat="1" spans="1:4">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
-      <c r="C43" s="23"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="14"/>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45"/>
-    </row>
-    <row r="48" spans="5:5">
-      <c r="E48" t="s">
-        <v>16</v>
+    <row r="44" customFormat="1" spans="1:4">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+    </row>
+    <row r="45" customFormat="1" spans="1:4">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="14"/>
+    </row>
+    <row r="46" customFormat="1" spans="1:4">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="14"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48"/>
+    </row>
+    <row r="51" spans="5:5">
+      <c r="E51" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="38">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
@@ -6609,7 +6823,10 @@
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A35:D43"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A38:D46"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6672,14 +6889,14 @@
         <v>6</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="41" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6689,7 +6906,7 @@
       <c r="B4" s="39"/>
       <c r="C4" s="40"/>
       <c r="D4" s="46" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E4" s="47"/>
       <c r="F4" s="41"/>
@@ -6701,7 +6918,7 @@
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
       <c r="D5" s="46" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E5" s="47"/>
       <c r="F5" s="41"/>
@@ -6713,7 +6930,7 @@
       <c r="B6" s="39"/>
       <c r="C6" s="42"/>
       <c r="D6" s="46" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E6" s="47"/>
       <c r="F6" s="41"/>
@@ -6725,7 +6942,7 @@
       <c r="B7" s="39"/>
       <c r="C7" s="42"/>
       <c r="D7" s="46" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E7" s="47"/>
       <c r="F7" s="43"/>
@@ -6879,7 +7096,7 @@
       <c r="D22" s="39"/>
       <c r="E22" s="48"/>
       <c r="F22" s="43" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" ht="66" customHeight="1" spans="1:6">
@@ -7002,7 +7219,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -7157,14 +7374,14 @@
         <v>6</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="41" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" ht="84" spans="1:6">
@@ -7175,10 +7392,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="41"/>
@@ -7191,14 +7408,14 @@
         <v>6</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="41" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" ht="70" spans="1:6">
@@ -7209,10 +7426,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="41"/>
@@ -7225,7 +7442,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D7" s="46"/>
       <c r="E7" s="47"/>
@@ -7239,10 +7456,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="43"/>
@@ -7255,14 +7472,14 @@
         <v>6</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="49" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" ht="84" spans="1:6">
@@ -7273,10 +7490,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="43"/>
@@ -7289,10 +7506,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="43"/>
@@ -7305,10 +7522,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="43"/>
@@ -7321,10 +7538,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="43"/>
@@ -7337,10 +7554,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E14" s="51"/>
       <c r="F14" s="43"/>
@@ -7353,10 +7570,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E15" s="47"/>
       <c r="F15" s="43"/>
@@ -7369,10 +7586,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="43"/>
@@ -7385,10 +7602,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E17" s="51"/>
       <c r="F17" s="41"/>
@@ -7401,10 +7618,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E18" s="47"/>
       <c r="F18" s="41"/>
@@ -7417,10 +7634,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E19" s="47"/>
       <c r="F19" s="41"/>
@@ -7433,10 +7650,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E20" s="47"/>
       <c r="F20" s="41"/>
@@ -7449,10 +7666,10 @@
         <v>6</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E21" s="47"/>
       <c r="F21" s="43"/>
@@ -7465,10 +7682,10 @@
         <v>6</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E22" s="47"/>
       <c r="F22" s="43"/>
@@ -7481,14 +7698,14 @@
         <v>6</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E23" s="47"/>
       <c r="F23" s="41" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" ht="84" spans="1:6">
@@ -7499,10 +7716,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E24" s="47"/>
       <c r="F24" s="43"/>
@@ -7515,10 +7732,10 @@
         <v>6</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E25" s="47"/>
       <c r="F25" s="43"/>
@@ -7531,14 +7748,14 @@
         <v>6</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E26" s="47"/>
       <c r="F26" s="43" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7621,7 +7838,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -7742,7 +7959,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -7761,10 +7978,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -7778,13 +7995,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F3" s="41"/>
     </row>
@@ -7796,13 +8013,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F4" s="41"/>
     </row>
@@ -7814,13 +8031,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F5" s="41"/>
     </row>
@@ -7832,13 +8049,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F6" s="41"/>
     </row>
@@ -7850,13 +8067,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F7" s="43"/>
     </row>
@@ -7868,13 +8085,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F8" s="43"/>
     </row>
@@ -7886,13 +8103,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F9" s="43"/>
     </row>
@@ -7904,13 +8121,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F10" s="43"/>
     </row>
@@ -7922,13 +8139,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F11" s="43"/>
     </row>
@@ -7940,13 +8157,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F12" s="43"/>
     </row>
@@ -7958,13 +8175,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F13" s="43"/>
     </row>
@@ -7976,13 +8193,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F14" s="43"/>
     </row>
@@ -7994,13 +8211,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F15" s="43"/>
     </row>
@@ -8012,13 +8229,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F16" s="43"/>
     </row>
@@ -8030,13 +8247,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F17" s="41"/>
     </row>
@@ -8048,13 +8265,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F18" s="41"/>
     </row>
@@ -8066,13 +8283,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F19" s="41"/>
     </row>
@@ -8084,13 +8301,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F20" s="41"/>
     </row>
@@ -8102,13 +8319,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F21" s="43"/>
     </row>
@@ -8120,13 +8337,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F22" s="43"/>
     </row>
@@ -8138,13 +8355,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F23" s="43"/>
     </row>
@@ -8156,13 +8373,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F24" s="43"/>
     </row>
@@ -8174,13 +8391,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F25" s="43"/>
     </row>
@@ -8192,31 +8409,31 @@
         <v>6</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F26" s="43"/>
     </row>
     <row r="27" ht="84" spans="1:6">
       <c r="A27" s="9" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B27" s="39" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F27" s="43"/>
     </row>
@@ -8228,13 +8445,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F28" s="43"/>
     </row>
@@ -8246,13 +8463,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F29" s="43"/>
     </row>
@@ -8264,13 +8481,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F30" s="43"/>
     </row>
@@ -8282,13 +8499,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F31" s="43"/>
     </row>
@@ -8300,19 +8517,19 @@
         <v>6</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F32" s="43"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="14" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -8399,7 +8616,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -8418,10 +8635,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -8432,16 +8649,16 @@
         <v>45566</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -8450,19 +8667,19 @@
         <v>45567</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" ht="70" spans="1:6">
@@ -8473,13 +8690,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -8491,13 +8708,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F6" s="8"/>
     </row>
@@ -8509,13 +8726,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -8527,13 +8744,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -8545,10 +8762,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="8"/>
@@ -8561,10 +8778,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="8"/>
@@ -8577,10 +8794,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="8"/>
@@ -8593,10 +8810,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="8"/>
@@ -8609,13 +8826,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -8627,13 +8844,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -8645,13 +8862,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -8663,13 +8880,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -8681,13 +8898,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -8699,13 +8916,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>128</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>119</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -8717,13 +8934,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -8735,13 +8952,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -8753,13 +8970,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -8771,13 +8988,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -8789,13 +9006,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -8807,13 +9024,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -8825,13 +9042,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -8843,13 +9060,13 @@
         <v>6</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -8861,13 +9078,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -8879,13 +9096,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -8897,13 +9114,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -8915,13 +9132,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -8933,13 +9150,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -8951,13 +9168,13 @@
         <v>6</v>
       </c>
       <c r="C32" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="D32" s="33" t="s">
-        <v>129</v>
-      </c>
       <c r="E32" s="11" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -8969,13 +9186,13 @@
         <v>6</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F33" s="14"/>
     </row>
@@ -8987,19 +9204,19 @@
         <v>6</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -9086,7 +9303,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -9105,10 +9322,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -9122,13 +9339,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -9140,13 +9357,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F4" s="11"/>
     </row>
@@ -9158,13 +9375,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -9176,16 +9393,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" ht="56" spans="1:6">
@@ -9196,16 +9413,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" ht="56" spans="1:6">
@@ -9216,16 +9433,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" ht="70" spans="1:6">
@@ -9233,19 +9450,19 @@
         <v>45542</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" ht="70" spans="1:6">
@@ -9256,16 +9473,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" ht="56" spans="1:6">
@@ -9276,16 +9493,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" ht="56" spans="1:6">
@@ -9296,16 +9513,16 @@
         <v>6</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" ht="56" spans="1:6">
@@ -9316,16 +9533,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" ht="56" spans="1:6">
@@ -9336,16 +9553,16 @@
         <v>6</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" ht="56" spans="1:6">
@@ -9353,16 +9570,16 @@
         <v>45548</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -9374,13 +9591,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -9392,13 +9609,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -9410,13 +9627,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -9428,13 +9645,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -9443,16 +9660,16 @@
         <v>45553</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -9461,16 +9678,16 @@
         <v>45554</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -9479,16 +9696,16 @@
         <v>45555</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -9497,16 +9714,16 @@
         <v>45556</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -9518,13 +9735,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -9536,13 +9753,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -9554,13 +9771,13 @@
         <v>6</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -9572,13 +9789,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -9590,13 +9807,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -9608,13 +9825,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -9626,13 +9843,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -9644,13 +9861,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -9662,13 +9879,13 @@
         <v>6</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -9759,7 +9976,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -9778,10 +9995,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -9801,10 +10018,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -9821,10 +10038,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:6">
@@ -9841,10 +10058,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9861,10 +10078,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9882,7 +10099,7 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9900,7 +10117,7 @@
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="8" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -9917,10 +10134,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -9938,7 +10155,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -9956,7 +10173,7 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:6">
@@ -9973,10 +10190,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" ht="42" spans="1:6">
@@ -9993,10 +10210,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" ht="42" spans="1:6">
@@ -10013,10 +10230,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" ht="42" spans="1:6">
@@ -10033,10 +10250,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" ht="42" spans="1:6">
@@ -10053,10 +10270,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" ht="42" spans="1:6">
@@ -10073,10 +10290,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -10093,10 +10310,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" ht="42" spans="1:6">
@@ -10113,10 +10330,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" ht="42" spans="1:6">
@@ -10133,10 +10350,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" ht="42" spans="1:6">
@@ -10153,10 +10370,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" ht="42" spans="1:6">
@@ -10173,10 +10390,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" ht="42" spans="1:6">
@@ -10193,10 +10410,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" ht="42" spans="1:6">
@@ -10213,10 +10430,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" ht="42" spans="1:6">
@@ -10233,10 +10450,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" ht="42" spans="1:6">
@@ -10253,10 +10470,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" ht="42" spans="1:6">
@@ -10273,7 +10490,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -10291,7 +10508,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -10309,7 +10526,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -10327,7 +10544,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -10345,7 +10562,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -10363,7 +10580,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -10381,13 +10598,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -10476,7 +10693,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10488,25 +10705,25 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>5</v>
@@ -10620,7 +10837,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -10644,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="H8" s="8"/>
     </row>
@@ -10712,7 +10929,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="H11" s="10"/>
     </row>
@@ -10758,7 +10975,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="H13" s="8"/>
     </row>
@@ -10782,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="H14" s="8"/>
     </row>
@@ -10806,7 +11023,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="H15" s="8"/>
     </row>
@@ -10830,7 +11047,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="H16" s="8"/>
     </row>
@@ -10876,7 +11093,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -10944,7 +11161,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="H21" s="8"/>
     </row>
@@ -10968,7 +11185,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="H22" s="8"/>
     </row>
@@ -10992,7 +11209,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="H23" s="8"/>
     </row>
@@ -11037,7 +11254,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="H25" s="8"/>
     </row>
@@ -11061,7 +11278,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="H26" s="8"/>
     </row>
@@ -11085,7 +11302,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="H27" s="8"/>
     </row>
@@ -11106,7 +11323,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -11128,10 +11345,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>243</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>234</v>
       </c>
       <c r="H29" s="8"/>
     </row>
@@ -11152,7 +11369,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -11235,7 +11452,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>

--- a/00-doc/src/00_todo/00_todo.xlsx
+++ b/00-doc/src/00_todo/00_todo.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="287">
   <si>
     <t>month goals：
 1、oral、listen everyday
@@ -50,9 +50,6 @@
     <t>timetable</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
     <t>summary</t>
   </si>
   <si>
@@ -64,11 +61,6 @@
 3、workout</t>
   </si>
   <si>
-    <t xml:space="preserve">1、300 words
-2、0.5h listen test
-6、oral practise </t>
-  </si>
-  <si>
     <t>回家第5天：休息，在家</t>
   </si>
   <si>
@@ -157,17 +149,39 @@
 1. jerk in afternoon</t>
   </si>
   <si>
-    <t>summary(3.3-3.9)
+    <r>
+      <t>summary：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 1.HSBC L1 interview
 2.relax, waste time cant focus</t>
-  </si>
-  <si>
-    <t>plan(3.10-3.16)
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>plan：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 1. finish 谷粒后台react(141 episode，30h)
 2. master in aws，gcp components，integrity preject
 3. algorithms 5/day，大圣 core200
 4. self portfolio
 5. nextjs，nestjs</t>
+    </r>
   </si>
   <si>
     <t>APIs (RESTful/GraphQL)
@@ -181,6 +195,45 @@
   <si>
     <t>1. 谷粒 141episode
 2. aws project with all components</t>
+  </si>
+  <si>
+    <t>1. standard chartered process
+2. TCL last day material github export</t>
+  </si>
+  <si>
+    <t>1. nothing but waste，see Jessie video，tremendous emotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. find recruiter（Hays）
+ 3. data：two kind of CV（warehouse development，platform development），post data resume</t>
+  </si>
+  <si>
+    <t>1. saw 郭宇 video，over emotion，lots of smart people in the world</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. do nothing，saw 户晨风
+ 2. okx all usdt sell out，accumulative lost 59w CNY（people cant earn money outer their knowledge）</t>
+  </si>
+  <si>
+    <r>
+      <t>summary：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. made plan but dont follow，lazy &amp; cant focus on
+2. saw 郭宇，jessie，户晨风，poems（save time，终不似少年游） overemotion，reflect myself
+3. intermittent post cv（data，fullstack），no interview yet。Standard Chartered in process，trace others
+4. crypto contract-follow lost 1700usd， quit it completely
+5. collect and save TCL resign materials， hand resignation process
+6. 2 jerks
+</t>
+    </r>
   </si>
   <si>
     <t>#########################################################################################
@@ -192,6 +245,9 @@
   </si>
   <si>
     <t>昨天越來越多，明天越來越少，好好的享受人生，做自己，FIRE</t>
+  </si>
+  <si>
+    <t>English</t>
   </si>
   <si>
     <r>
@@ -3312,7 +3368,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-409]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3375,6 +3431,36 @@
       <strike/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3938,137 +4024,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4243,65 +4329,95 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4582,15 +4698,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>5715</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2089150</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>67945</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4608,7 +4724,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6444615" y="20787360"/>
+          <a:off x="5206365" y="25067260"/>
           <a:ext cx="3931285" cy="2026285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4626,13 +4742,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>157480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>961390</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2199640</xdr:colOff>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>140335</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4650,7 +4766,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1555750" y="22547580"/>
+          <a:off x="1555750" y="26827480"/>
           <a:ext cx="3361690" cy="4961255"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5182,572 +5298,545 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13.3636363636364" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.8181818181818" customWidth="1"/>
-    <col min="3" max="3" width="24.4545454545455" style="23" customWidth="1"/>
-    <col min="4" max="4" width="35.5454545454545" customWidth="1"/>
-    <col min="5" max="5" width="26.4545454545455" customWidth="1"/>
-    <col min="6" max="6" width="39.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="25.5454545454545" customWidth="1"/>
+    <col min="3" max="3" width="35.5454545454545" customWidth="1"/>
+    <col min="4" max="4" width="46.0909090909091" customWidth="1"/>
+    <col min="5" max="5" width="39.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="67" customHeight="1" spans="1:6">
+    <row r="1" ht="67" customHeight="1" spans="1:5">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
-    </row>
-    <row r="2" ht="50" customHeight="1" spans="1:6">
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" ht="50" customHeight="1" spans="1:5">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" ht="114" customHeight="1" spans="1:6">
+    </row>
+    <row r="3" ht="114" customHeight="1" spans="1:5">
       <c r="A3" s="9">
         <v>45717</v>
       </c>
       <c r="B3" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="41"/>
-    </row>
-    <row r="4" ht="38" customHeight="1" spans="1:6">
+      <c r="D3" s="68"/>
+      <c r="E3" s="41"/>
+    </row>
+    <row r="4" ht="38" customHeight="1" spans="1:5">
       <c r="A4" s="9">
         <v>45718</v>
       </c>
       <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="68" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="41"/>
-    </row>
-    <row r="5" ht="61" customHeight="1" spans="1:6">
+      <c r="C4" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="70"/>
+      <c r="E4" s="41"/>
+    </row>
+    <row r="5" ht="61" customHeight="1" spans="1:5">
       <c r="A5" s="20"/>
       <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="41"/>
-    </row>
-    <row r="6" s="57" customFormat="1" ht="61" customHeight="1" spans="1:6">
-      <c r="A6" s="60"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="72"/>
-    </row>
-    <row r="7" ht="61" customHeight="1" spans="1:6">
+      <c r="C5" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="47"/>
+      <c r="E5" s="41"/>
+    </row>
+    <row r="6" s="64" customFormat="1" ht="61" customHeight="1" spans="1:5">
+      <c r="A6" s="71"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="74"/>
+    </row>
+    <row r="7" ht="61" customHeight="1" spans="1:5">
       <c r="A7" s="20"/>
       <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="41"/>
-    </row>
-    <row r="8" ht="61" customHeight="1" spans="1:6">
+      <c r="C7" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="47"/>
+      <c r="E7" s="41"/>
+    </row>
+    <row r="8" ht="61" customHeight="1" spans="1:5">
       <c r="A8" s="20">
         <v>45719</v>
       </c>
       <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="41"/>
-    </row>
-    <row r="9" ht="70" customHeight="1" spans="1:6">
+      <c r="C8" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="70"/>
+      <c r="E8" s="41"/>
+    </row>
+    <row r="9" ht="70" customHeight="1" spans="1:5">
       <c r="A9" s="20">
         <v>45720</v>
       </c>
       <c r="B9" s="39"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="69"/>
-      <c r="F9" s="41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" ht="73" customHeight="1" spans="1:6">
+      <c r="C9" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="70"/>
+      <c r="E9" s="41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="73" customHeight="1" spans="1:5">
       <c r="A10" s="20">
         <v>45721</v>
       </c>
       <c r="B10" s="39"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="69"/>
-      <c r="F10" s="43"/>
-    </row>
-    <row r="11" ht="65" customHeight="1" spans="1:6">
+      <c r="C10" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="70"/>
+      <c r="E10" s="43"/>
+    </row>
+    <row r="11" ht="65" customHeight="1" spans="1:5">
       <c r="A11" s="20">
         <v>45722</v>
       </c>
       <c r="B11" s="39"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="69"/>
-      <c r="F11" s="43"/>
-    </row>
-    <row r="12" ht="59" customHeight="1" spans="1:6">
+      <c r="C11" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="70"/>
+      <c r="E11" s="43"/>
+    </row>
+    <row r="12" ht="59" customHeight="1" spans="1:5">
       <c r="A12" s="20">
         <v>45723</v>
       </c>
       <c r="B12" s="39"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="69"/>
-      <c r="F12" s="49"/>
-    </row>
-    <row r="13" ht="46" customHeight="1" spans="1:6">
+      <c r="C12" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="70"/>
+      <c r="E12" s="49"/>
+    </row>
+    <row r="13" ht="46" customHeight="1" spans="1:5">
       <c r="A13" s="9">
         <v>45724</v>
       </c>
       <c r="B13" s="39"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="43"/>
-    </row>
-    <row r="14" ht="49" customHeight="1" spans="1:6">
+      <c r="C13" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="70"/>
+      <c r="E13" s="43"/>
+    </row>
+    <row r="14" ht="49" customHeight="1" spans="1:5">
       <c r="A14" s="9">
         <v>45725</v>
       </c>
       <c r="B14" s="39"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="69"/>
-      <c r="F14" s="43"/>
-    </row>
-    <row r="15" ht="49" customHeight="1" spans="1:6">
+      <c r="C14" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="70"/>
+      <c r="E14" s="43"/>
+    </row>
+    <row r="15" ht="49" customHeight="1" spans="1:5">
       <c r="A15" s="9"/>
       <c r="B15" s="39"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="43"/>
-    </row>
-    <row r="16" s="57" customFormat="1" ht="47" customHeight="1" spans="1:6">
-      <c r="A16" s="60"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="65"/>
-    </row>
-    <row r="17" ht="90" customHeight="1" spans="1:6">
+      <c r="C15" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="70"/>
+      <c r="E15" s="43"/>
+    </row>
+    <row r="16" s="65" customFormat="1" ht="47" customHeight="1" spans="1:5">
+      <c r="A16" s="76"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80"/>
+    </row>
+    <row r="17" ht="90" customHeight="1" spans="1:5">
       <c r="A17" s="20"/>
       <c r="B17" s="39"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="77" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" ht="28" customHeight="1" spans="1:6">
+      <c r="C17" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="70"/>
+      <c r="E17" s="41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" ht="28" customHeight="1" spans="1:5">
       <c r="A18" s="20">
         <v>45726</v>
       </c>
       <c r="B18" s="39"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="47"/>
-      <c r="F18" s="43"/>
-    </row>
-    <row r="19" ht="34" customHeight="1" spans="1:6">
+      <c r="C18" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="70"/>
+      <c r="E18" s="43"/>
+    </row>
+    <row r="19" ht="34" customHeight="1" spans="1:5">
       <c r="A19" s="20">
         <v>45727</v>
       </c>
       <c r="B19" s="39"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="47"/>
-      <c r="F19" s="43"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="C19" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="70"/>
+      <c r="E19" s="43"/>
+    </row>
+    <row r="20" ht="38" customHeight="1" spans="1:5">
       <c r="A20" s="20">
         <v>45728</v>
       </c>
       <c r="B20" s="39"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="43"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="C20" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="70"/>
+      <c r="E20" s="43"/>
+    </row>
+    <row r="21" ht="25" customHeight="1" spans="1:5">
       <c r="A21" s="20">
         <v>45729</v>
       </c>
       <c r="B21" s="39"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="43"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="C21" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="70"/>
+      <c r="E21" s="43"/>
+    </row>
+    <row r="22" ht="49" customHeight="1" spans="1:5">
       <c r="A22" s="20">
         <v>45730</v>
       </c>
       <c r="B22" s="39"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="43"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="C22" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="70"/>
+      <c r="E22" s="43"/>
+    </row>
+    <row r="23" ht="27" customHeight="1" spans="1:5">
       <c r="A23" s="9">
         <v>45731</v>
       </c>
       <c r="B23" s="39"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="41"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="C23" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="70"/>
+      <c r="E23" s="41"/>
+    </row>
+    <row r="24" ht="55" customHeight="1" spans="1:5">
       <c r="A24" s="9">
         <v>45732</v>
       </c>
       <c r="B24" s="39"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="41"/>
-    </row>
-    <row r="25" ht="27" customHeight="1" spans="1:6">
+      <c r="C24" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="70"/>
+      <c r="E24" s="41"/>
+    </row>
+    <row r="25" ht="140" customHeight="1" spans="1:5">
       <c r="A25" s="20"/>
       <c r="B25" s="39"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="41"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="20">
+      <c r="C25" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="70"/>
+      <c r="E25" s="41"/>
+    </row>
+    <row r="26" s="66" customFormat="1" ht="52" customHeight="1" spans="1:5">
+      <c r="A26" s="81"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="85"/>
+    </row>
+    <row r="27" customFormat="1" ht="48" customHeight="1" spans="1:5">
+      <c r="A27" s="20"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="41"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="20">
         <v>45733</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="41"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="20">
+      <c r="B28" s="39"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="41"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="20">
         <v>45734</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="41"/>
-    </row>
-    <row r="28" ht="40" customHeight="1" spans="1:6">
-      <c r="A28" s="20">
+      <c r="B29" s="39"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="41"/>
+    </row>
+    <row r="30" ht="40" customHeight="1" spans="1:5">
+      <c r="A30" s="20">
         <v>45735</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="43"/>
-    </row>
-    <row r="29" ht="45" customHeight="1" spans="1:6">
-      <c r="A29" s="20">
+      <c r="B30" s="39"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="43"/>
+    </row>
+    <row r="31" ht="45" customHeight="1" spans="1:5">
+      <c r="A31" s="20">
         <v>45736</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="43"/>
-    </row>
-    <row r="30" ht="66" customHeight="1" spans="1:6">
-      <c r="A30" s="20">
+      <c r="B31" s="39"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="43"/>
+    </row>
+    <row r="32" ht="66" customHeight="1" spans="1:5">
+      <c r="A32" s="20">
         <v>45737</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="41"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="9">
+      <c r="B32" s="39"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="41"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="9">
         <v>45738</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="43"/>
-    </row>
-    <row r="32" ht="57" customHeight="1" spans="1:6">
-      <c r="A32" s="9">
+      <c r="B33" s="39"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="43"/>
+    </row>
+    <row r="34" ht="57" customHeight="1" spans="1:5">
+      <c r="A34" s="9">
         <v>45739</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="43"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="20">
+      <c r="B34" s="39"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="43"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="20">
         <v>45740</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="43"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="20">
+      <c r="B35" s="39"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="43"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="20">
         <v>45741</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="43"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="20">
+      <c r="B36" s="39"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="43"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="20">
         <v>45742</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="43"/>
-    </row>
-    <row r="36" ht="35" customHeight="1" spans="1:6">
-      <c r="A36" s="20">
+      <c r="B37" s="39"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="43"/>
+    </row>
+    <row r="38" ht="35" customHeight="1" spans="1:5">
+      <c r="A38" s="20">
         <v>45743</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="43"/>
-    </row>
-    <row r="37" ht="34" customHeight="1" spans="1:6">
-      <c r="A37" s="20">
+      <c r="B38" s="39"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="43"/>
+    </row>
+    <row r="39" ht="34" customHeight="1" spans="1:5">
+      <c r="A39" s="20">
         <v>45744</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="43"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="9">
+      <c r="B39" s="39"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="43"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="9">
         <v>45745</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="43"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="9">
+      <c r="B40" s="39"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="43"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="9">
         <v>45746</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="43"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="20">
+      <c r="B41" s="39"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="43"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="20">
         <v>45747</v>
       </c>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="52"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="52"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="52"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-    </row>
-    <row r="43" customFormat="1" spans="1:4">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-    </row>
-    <row r="44" customFormat="1" spans="1:4">
-      <c r="A44" s="14"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="52"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="52"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="52"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
-    </row>
-    <row r="45" customFormat="1" spans="1:4">
+      <c r="E44" s="14"/>
+    </row>
+    <row r="45" customFormat="1" spans="1:3">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-    </row>
-    <row r="46" customFormat="1" spans="1:4">
+    </row>
+    <row r="46" customFormat="1" spans="1:3">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-    </row>
-    <row r="47" customFormat="1" spans="1:4">
+    </row>
+    <row r="47" customFormat="1" spans="1:3">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-    </row>
-    <row r="48" customFormat="1" spans="1:4">
+    </row>
+    <row r="48" customFormat="1" spans="1:3">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-    </row>
-    <row r="49" customFormat="1" spans="1:4">
+    </row>
+    <row r="49" customFormat="1" spans="1:3">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="14"/>
-    </row>
-    <row r="50" customFormat="1" spans="1:4">
+      <c r="C49" s="14"/>
+    </row>
+    <row r="50" customFormat="1" spans="1:3">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="14"/>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52"/>
-    </row>
-    <row r="55" spans="5:5">
-      <c r="E55" t="s">
-        <v>25</v>
+      <c r="C50" s="14"/>
+    </row>
+    <row r="51" customFormat="1" spans="1:3">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+    </row>
+    <row r="52" customFormat="1" spans="1:3">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54"/>
+    </row>
+    <row r="57" spans="4:4">
+      <c r="D57" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="A42:D50"/>
+  <mergeCells count="44">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A44:C52"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5776,7 +5865,7 @@
   <sheetData>
     <row r="1" ht="48" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5786,22 +5875,22 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5889,15 +5978,15 @@
         <v>45452</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5905,10 +5994,10 @@
         <v>45453</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -5919,14 +6008,14 @@
         <v>45454</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -5935,14 +6024,14 @@
         <v>45455</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -5951,14 +6040,14 @@
         <v>45456</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -5967,14 +6056,14 @@
         <v>45457</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -5983,17 +6072,17 @@
         <v>45458</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -6001,14 +6090,14 @@
         <v>45459</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -6017,14 +6106,14 @@
         <v>45460</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -6033,10 +6122,10 @@
         <v>45461</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -6047,14 +6136,14 @@
         <v>45462</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -6063,14 +6152,14 @@
         <v>45463</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -6079,14 +6168,14 @@
         <v>45464</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -6095,16 +6184,16 @@
         <v>45465</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D24" s="11">
         <v>2</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -6125,14 +6214,14 @@
         <v>45467</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -6141,10 +6230,10 @@
         <v>45468</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D27" s="8">
         <v>2</v>
@@ -6157,10 +6246,10 @@
         <v>45469</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
@@ -6173,10 +6262,10 @@
         <v>45470</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
@@ -6189,10 +6278,10 @@
         <v>45471</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -6206,11 +6295,11 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -6222,19 +6311,19 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D32" s="8">
         <v>1</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F32" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -6345,14 +6434,14 @@
         <v>2</v>
       </c>
       <c r="C2" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="44" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>4</v>
       </c>
       <c r="E2" s="45"/>
       <c r="F2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" ht="196" customHeight="1" spans="1:6">
@@ -6360,10 +6449,10 @@
         <v>45689</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D3" s="39"/>
       <c r="E3" s="47"/>
@@ -6386,7 +6475,7 @@
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
       <c r="D5" s="50" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E5" s="51"/>
       <c r="F5" s="41"/>
@@ -6548,7 +6637,7 @@
       <c r="B21" s="39"/>
       <c r="C21" s="42"/>
       <c r="D21" s="50" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E21" s="51"/>
       <c r="F21" s="43"/>
@@ -6560,7 +6649,7 @@
       <c r="B22" s="39"/>
       <c r="C22" s="42"/>
       <c r="D22" s="46" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E22" s="47"/>
       <c r="F22" s="43"/>
@@ -6572,7 +6661,7 @@
       <c r="B23" s="39"/>
       <c r="C23" s="42"/>
       <c r="D23" s="46" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E23" s="47"/>
       <c r="F23" s="41"/>
@@ -6584,7 +6673,7 @@
       <c r="B24" s="39"/>
       <c r="C24" s="42"/>
       <c r="D24" s="46" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E24" s="47"/>
       <c r="F24" s="43"/>
@@ -6596,7 +6685,7 @@
       <c r="B25" s="39"/>
       <c r="C25" s="42"/>
       <c r="D25" s="46" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E25" s="47"/>
       <c r="F25" s="43"/>
@@ -6605,28 +6694,28 @@
       <c r="A26" s="20"/>
       <c r="B26" s="39"/>
       <c r="C26" s="40"/>
-      <c r="D26" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="59"/>
+      <c r="D26" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="47"/>
       <c r="F26" s="43"/>
     </row>
     <row r="27" s="57" customFormat="1" ht="52" customHeight="1" spans="1:6">
-      <c r="A27" s="60"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="65"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="63"/>
     </row>
     <row r="28" ht="53" customHeight="1" spans="1:6">
       <c r="A28" s="20"/>
       <c r="B28" s="39"/>
       <c r="C28" s="40"/>
-      <c r="D28" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="59"/>
+      <c r="D28" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="47"/>
       <c r="F28" s="43"/>
     </row>
     <row r="29" spans="1:6">
@@ -6636,7 +6725,7 @@
       <c r="B29" s="39"/>
       <c r="C29" s="40"/>
       <c r="D29" s="50" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E29" s="51"/>
       <c r="F29" s="43"/>
@@ -6648,7 +6737,7 @@
       <c r="B30" s="39"/>
       <c r="C30" s="42"/>
       <c r="D30" s="46" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E30" s="47"/>
       <c r="F30" s="43"/>
@@ -6660,7 +6749,7 @@
       <c r="B31" s="39"/>
       <c r="C31" s="40"/>
       <c r="D31" s="46" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E31" s="47"/>
       <c r="F31" s="43"/>
@@ -6672,7 +6761,7 @@
       <c r="B32" s="39"/>
       <c r="C32" s="42"/>
       <c r="D32" s="46" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E32" s="47"/>
       <c r="F32" s="43"/>
@@ -6684,7 +6773,7 @@
       <c r="B33" s="39"/>
       <c r="C33" s="42"/>
       <c r="D33" s="46" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E33" s="47"/>
       <c r="F33" s="43"/>
@@ -6723,7 +6812,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -6784,7 +6873,7 @@
     </row>
     <row r="51" spans="5:5">
       <c r="E51" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -6871,14 +6960,14 @@
         <v>2</v>
       </c>
       <c r="C2" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="44" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>4</v>
       </c>
       <c r="E2" s="45"/>
       <c r="F2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" ht="196" customHeight="1" spans="1:6">
@@ -6886,17 +6975,17 @@
         <v>45658</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="41" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6906,7 +6995,7 @@
       <c r="B4" s="39"/>
       <c r="C4" s="40"/>
       <c r="D4" s="46" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E4" s="47"/>
       <c r="F4" s="41"/>
@@ -6918,7 +7007,7 @@
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
       <c r="D5" s="46" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E5" s="47"/>
       <c r="F5" s="41"/>
@@ -6930,7 +7019,7 @@
       <c r="B6" s="39"/>
       <c r="C6" s="42"/>
       <c r="D6" s="46" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E6" s="47"/>
       <c r="F6" s="41"/>
@@ -6942,7 +7031,7 @@
       <c r="B7" s="39"/>
       <c r="C7" s="42"/>
       <c r="D7" s="46" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E7" s="47"/>
       <c r="F7" s="43"/>
@@ -7096,7 +7185,7 @@
       <c r="D22" s="39"/>
       <c r="E22" s="48"/>
       <c r="F22" s="43" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" ht="66" customHeight="1" spans="1:6">
@@ -7219,7 +7308,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -7356,14 +7445,14 @@
         <v>2</v>
       </c>
       <c r="C2" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="44" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>4</v>
       </c>
       <c r="E2" s="45"/>
       <c r="F2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" ht="86" customHeight="1" spans="1:6">
@@ -7371,17 +7460,17 @@
         <v>45627</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="41" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" ht="84" spans="1:6">
@@ -7389,13 +7478,13 @@
         <v>45628</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="41"/>
@@ -7405,17 +7494,17 @@
         <v>45629</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="41" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" ht="70" spans="1:6">
@@ -7423,13 +7512,13 @@
         <v>45630</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="41"/>
@@ -7439,10 +7528,10 @@
         <v>45631</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D7" s="46"/>
       <c r="E7" s="47"/>
@@ -7453,13 +7542,13 @@
         <v>45632</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="43"/>
@@ -7469,17 +7558,17 @@
         <v>45633</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="49" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" ht="84" spans="1:6">
@@ -7487,13 +7576,13 @@
         <v>45634</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="43"/>
@@ -7503,13 +7592,13 @@
         <v>45635</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="43"/>
@@ -7519,13 +7608,13 @@
         <v>45636</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="43"/>
@@ -7535,13 +7624,13 @@
         <v>45637</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="43"/>
@@ -7551,13 +7640,13 @@
         <v>45638</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E14" s="51"/>
       <c r="F14" s="43"/>
@@ -7567,13 +7656,13 @@
         <v>45639</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E15" s="47"/>
       <c r="F15" s="43"/>
@@ -7583,13 +7672,13 @@
         <v>45640</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="43"/>
@@ -7599,13 +7688,13 @@
         <v>45641</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E17" s="51"/>
       <c r="F17" s="41"/>
@@ -7615,13 +7704,13 @@
         <v>45642</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E18" s="47"/>
       <c r="F18" s="41"/>
@@ -7631,13 +7720,13 @@
         <v>45643</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E19" s="47"/>
       <c r="F19" s="41"/>
@@ -7647,13 +7736,13 @@
         <v>45644</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E20" s="47"/>
       <c r="F20" s="41"/>
@@ -7663,13 +7752,13 @@
         <v>45645</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E21" s="47"/>
       <c r="F21" s="43"/>
@@ -7679,13 +7768,13 @@
         <v>45646</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E22" s="47"/>
       <c r="F22" s="43"/>
@@ -7695,17 +7784,17 @@
         <v>45647</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E23" s="47"/>
       <c r="F23" s="41" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" ht="84" spans="1:6">
@@ -7713,13 +7802,13 @@
         <v>45648</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E24" s="47"/>
       <c r="F24" s="43"/>
@@ -7729,13 +7818,13 @@
         <v>45649</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E25" s="47"/>
       <c r="F25" s="43"/>
@@ -7745,17 +7834,17 @@
         <v>45650</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E26" s="47"/>
       <c r="F26" s="43" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7838,7 +7927,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -7959,7 +8048,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -7975,16 +8064,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" ht="86" customHeight="1" spans="1:6">
@@ -7992,16 +8081,16 @@
         <v>45597</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F3" s="41"/>
     </row>
@@ -8010,16 +8099,16 @@
         <v>45598</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F4" s="41"/>
     </row>
@@ -8028,16 +8117,16 @@
         <v>45599</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F5" s="41"/>
     </row>
@@ -8046,16 +8135,16 @@
         <v>45600</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F6" s="41"/>
     </row>
@@ -8064,16 +8153,16 @@
         <v>45601</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F7" s="43"/>
     </row>
@@ -8082,16 +8171,16 @@
         <v>45602</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F8" s="43"/>
     </row>
@@ -8100,16 +8189,16 @@
         <v>45603</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F9" s="43"/>
     </row>
@@ -8118,16 +8207,16 @@
         <v>45604</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F10" s="43"/>
     </row>
@@ -8136,16 +8225,16 @@
         <v>45605</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F11" s="43"/>
     </row>
@@ -8154,16 +8243,16 @@
         <v>45607</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F12" s="43"/>
     </row>
@@ -8172,16 +8261,16 @@
         <v>45607</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F13" s="43"/>
     </row>
@@ -8190,16 +8279,16 @@
         <v>45608</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F14" s="43"/>
     </row>
@@ -8208,16 +8297,16 @@
         <v>45609</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F15" s="43"/>
     </row>
@@ -8226,16 +8315,16 @@
         <v>45610</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F16" s="43"/>
     </row>
@@ -8244,16 +8333,16 @@
         <v>45611</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F17" s="41"/>
     </row>
@@ -8262,16 +8351,16 @@
         <v>45612</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F18" s="41"/>
     </row>
@@ -8280,16 +8369,16 @@
         <v>45613</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F19" s="41"/>
     </row>
@@ -8298,16 +8387,16 @@
         <v>45614</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F20" s="41"/>
     </row>
@@ -8316,16 +8405,16 @@
         <v>45615</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F21" s="43"/>
     </row>
@@ -8334,16 +8423,16 @@
         <v>45616</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F22" s="43"/>
     </row>
@@ -8352,16 +8441,16 @@
         <v>45617</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F23" s="43"/>
     </row>
@@ -8370,16 +8459,16 @@
         <v>45618</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F24" s="43"/>
     </row>
@@ -8388,16 +8477,16 @@
         <v>45619</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F25" s="43"/>
     </row>
@@ -8406,34 +8495,34 @@
         <v>45620</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F26" s="43"/>
     </row>
     <row r="27" ht="84" spans="1:6">
       <c r="A27" s="9" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F27" s="43"/>
     </row>
@@ -8442,16 +8531,16 @@
         <v>45622</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F28" s="43"/>
     </row>
@@ -8460,16 +8549,16 @@
         <v>45623</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F29" s="43"/>
     </row>
@@ -8478,16 +8567,16 @@
         <v>45624</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F30" s="43"/>
     </row>
@@ -8496,16 +8585,16 @@
         <v>45625</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F31" s="43"/>
     </row>
@@ -8514,22 +8603,22 @@
         <v>45626</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F32" s="43"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="14" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -8616,7 +8705,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -8632,16 +8721,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" ht="86" customHeight="1" spans="1:6">
@@ -8649,16 +8738,16 @@
         <v>45566</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -8667,19 +8756,19 @@
         <v>45567</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" ht="70" spans="1:6">
@@ -8687,16 +8776,16 @@
         <v>45568</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -8705,16 +8794,16 @@
         <v>45569</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F6" s="8"/>
     </row>
@@ -8723,16 +8812,16 @@
         <v>45570</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -8741,16 +8830,16 @@
         <v>45571</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -8759,13 +8848,13 @@
         <v>45572</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="8"/>
@@ -8775,13 +8864,13 @@
         <v>45573</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="8"/>
@@ -8791,13 +8880,13 @@
         <v>45574</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="8"/>
@@ -8807,13 +8896,13 @@
         <v>45575</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="8"/>
@@ -8823,16 +8912,16 @@
         <v>45576</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -8841,16 +8930,16 @@
         <v>45577</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -8859,16 +8948,16 @@
         <v>45578</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -8877,16 +8966,16 @@
         <v>45579</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -8895,16 +8984,16 @@
         <v>45580</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -8913,16 +9002,16 @@
         <v>45581</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -8931,16 +9020,16 @@
         <v>45582</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -8949,16 +9038,16 @@
         <v>45583</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -8967,16 +9056,16 @@
         <v>45584</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -8985,16 +9074,16 @@
         <v>45585</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -9003,16 +9092,16 @@
         <v>45586</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -9021,16 +9110,16 @@
         <v>45587</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -9039,16 +9128,16 @@
         <v>45588</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -9057,16 +9146,16 @@
         <v>45589</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -9075,16 +9164,16 @@
         <v>45590</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -9093,16 +9182,16 @@
         <v>45591</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -9111,16 +9200,16 @@
         <v>45592</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -9129,16 +9218,16 @@
         <v>45593</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -9147,16 +9236,16 @@
         <v>45594</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -9165,16 +9254,16 @@
         <v>45595</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -9183,16 +9272,16 @@
         <v>45595</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F33" s="14"/>
     </row>
@@ -9201,22 +9290,22 @@
         <v>45595</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -9303,7 +9392,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -9319,16 +9408,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" ht="65" customHeight="1" spans="1:6">
@@ -9336,16 +9425,16 @@
         <v>45536</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -9354,16 +9443,16 @@
         <v>45537</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F4" s="11"/>
     </row>
@@ -9372,16 +9461,16 @@
         <v>45538</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -9390,19 +9479,19 @@
         <v>45539</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" ht="56" spans="1:6">
@@ -9410,19 +9499,19 @@
         <v>45540</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" ht="56" spans="1:6">
@@ -9430,19 +9519,19 @@
         <v>45541</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" ht="70" spans="1:6">
@@ -9450,19 +9539,19 @@
         <v>45542</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" ht="70" spans="1:6">
@@ -9470,19 +9559,19 @@
         <v>45543</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" ht="56" spans="1:6">
@@ -9490,19 +9579,19 @@
         <v>45544</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" ht="56" spans="1:6">
@@ -9510,19 +9599,19 @@
         <v>45545</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" ht="56" spans="1:6">
@@ -9530,19 +9619,19 @@
         <v>45546</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="35" t="s">
-        <v>164</v>
-      </c>
       <c r="E13" s="11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" ht="56" spans="1:6">
@@ -9550,19 +9639,19 @@
         <v>45547</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" ht="56" spans="1:6">
@@ -9570,16 +9659,16 @@
         <v>45548</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -9588,16 +9677,16 @@
         <v>45549</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -9606,16 +9695,16 @@
         <v>45550</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -9624,16 +9713,16 @@
         <v>45551</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -9642,16 +9731,16 @@
         <v>45552</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -9660,16 +9749,16 @@
         <v>45553</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -9678,16 +9767,16 @@
         <v>45554</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -9696,16 +9785,16 @@
         <v>45555</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -9714,16 +9803,16 @@
         <v>45556</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -9732,16 +9821,16 @@
         <v>45557</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -9750,16 +9839,16 @@
         <v>45558</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -9768,16 +9857,16 @@
         <v>45559</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -9786,16 +9875,16 @@
         <v>45560</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -9804,16 +9893,16 @@
         <v>45561</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -9822,16 +9911,16 @@
         <v>45562</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -9840,16 +9929,16 @@
         <v>45563</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -9858,16 +9947,16 @@
         <v>45564</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -9876,16 +9965,16 @@
         <v>45565</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -9976,7 +10065,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -9992,16 +10081,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" ht="28" spans="1:6">
@@ -10018,10 +10107,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -10038,10 +10127,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:6">
@@ -10058,10 +10147,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10078,10 +10167,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10099,7 +10188,7 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10117,7 +10206,7 @@
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="8" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -10134,10 +10223,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -10155,7 +10244,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -10173,7 +10262,7 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:6">
@@ -10190,10 +10279,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" ht="42" spans="1:6">
@@ -10210,10 +10299,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" ht="42" spans="1:6">
@@ -10230,10 +10319,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" ht="42" spans="1:6">
@@ -10250,10 +10339,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" ht="42" spans="1:6">
@@ -10270,10 +10359,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" ht="42" spans="1:6">
@@ -10290,10 +10379,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -10310,10 +10399,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" ht="42" spans="1:6">
@@ -10330,10 +10419,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" ht="42" spans="1:6">
@@ -10350,10 +10439,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" ht="42" spans="1:6">
@@ -10370,10 +10459,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" ht="42" spans="1:6">
@@ -10390,10 +10479,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" ht="42" spans="1:6">
@@ -10410,10 +10499,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" ht="42" spans="1:6">
@@ -10430,10 +10519,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" ht="42" spans="1:6">
@@ -10450,10 +10539,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" ht="42" spans="1:6">
@@ -10470,10 +10559,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" ht="42" spans="1:6">
@@ -10490,7 +10579,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -10508,7 +10597,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -10526,7 +10615,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -10544,7 +10633,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -10562,7 +10651,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -10580,7 +10669,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -10598,13 +10687,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -10693,7 +10782,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10705,28 +10794,28 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -10837,7 +10926,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -10861,7 +10950,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="H8" s="8"/>
     </row>
@@ -10929,7 +11018,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="H11" s="10"/>
     </row>
@@ -10975,7 +11064,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="H13" s="8"/>
     </row>
@@ -10999,7 +11088,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="H14" s="8"/>
     </row>
@@ -11023,7 +11112,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="H15" s="8"/>
     </row>
@@ -11047,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="H16" s="8"/>
     </row>
@@ -11093,7 +11182,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -11161,7 +11250,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="H21" s="8"/>
     </row>
@@ -11185,7 +11274,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="H22" s="8"/>
     </row>
@@ -11209,7 +11298,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="H23" s="8"/>
     </row>
@@ -11254,7 +11343,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="H25" s="8"/>
     </row>
@@ -11278,7 +11367,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="H26" s="8"/>
     </row>
@@ -11302,7 +11391,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="H27" s="8"/>
     </row>
@@ -11323,7 +11412,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -11345,10 +11434,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="H29" s="8"/>
     </row>
@@ -11369,7 +11458,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -11452,7 +11541,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>

--- a/00-doc/src/00_todo/00_todo.xlsx
+++ b/00-doc/src/00_todo/00_todo.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="288">
   <si>
     <t>month goals：
 1、oral、listen everyday
@@ -150,6 +150,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>summary：</t>
     </r>
     <r>
@@ -166,6 +173,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>plan：</t>
     </r>
     <r>
@@ -216,6 +230,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>summary：</t>
     </r>
     <r>
@@ -244,7 +265,7 @@
 #########################################################################################</t>
   </si>
   <si>
-    <t>昨天越來越多，明天越來越少，好好的享受人生，做自己，FIRE</t>
+    <t>昨天越來越多，明天越來越少，FIRE</t>
   </si>
   <si>
     <t>English</t>
@@ -320,6 +341,9 @@
       </rPr>
       <t>合约爆仓50000元</t>
     </r>
+  </si>
+  <si>
+    <t>昨天越來越多，明天越來越少，好好的享受人生，做自己，FIRE</t>
   </si>
   <si>
     <r>
@@ -4154,7 +4178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4412,12 +4436,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4698,20 +4716,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>5715</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2470150</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>717550</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>67945</xdr:rowOff>
+      <xdr:colOff>1130300</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>102235</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="4" name="图片 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4724,50 +4742,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5206365" y="25067260"/>
-          <a:ext cx="3931285" cy="2026285"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>157480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2199640</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>140335</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1555750" y="26827480"/>
-          <a:ext cx="3361690" cy="4961255"/>
+          <a:off x="5187950" y="25063450"/>
+          <a:ext cx="4362450" cy="2242185"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5300,8 +5276,8 @@
   <sheetPr/>
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:D15"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -5588,8 +5564,8 @@
     <row r="27" customFormat="1" ht="48" customHeight="1" spans="1:5">
       <c r="A27" s="20"/>
       <c r="B27" s="39"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="87"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="47"/>
       <c r="E27" s="41"/>
     </row>
     <row r="28" spans="1:5">
@@ -5865,7 +5841,7 @@
   <sheetData>
     <row r="1" ht="48" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5875,19 +5851,19 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>4</v>
@@ -5978,15 +5954,15 @@
         <v>45452</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5994,10 +5970,10 @@
         <v>45453</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -6008,14 +5984,14 @@
         <v>45454</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -6024,14 +6000,14 @@
         <v>45455</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -6040,14 +6016,14 @@
         <v>45456</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -6056,14 +6032,14 @@
         <v>45457</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -6072,17 +6048,17 @@
         <v>45458</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -6090,14 +6066,14 @@
         <v>45459</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -6106,14 +6082,14 @@
         <v>45460</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -6122,10 +6098,10 @@
         <v>45461</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -6136,14 +6112,14 @@
         <v>45462</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -6152,14 +6128,14 @@
         <v>45463</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -6168,14 +6144,14 @@
         <v>45464</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -6184,16 +6160,16 @@
         <v>45465</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D24" s="11">
         <v>2</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -6214,14 +6190,14 @@
         <v>45467</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -6230,10 +6206,10 @@
         <v>45468</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D27" s="8">
         <v>2</v>
@@ -6246,10 +6222,10 @@
         <v>45469</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
@@ -6262,10 +6238,10 @@
         <v>45470</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
@@ -6278,10 +6254,10 @@
         <v>45471</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -6295,11 +6271,11 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -6311,19 +6287,19 @@
         <v>0.354166666666667</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D32" s="8">
         <v>1</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F32" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -6873,7 +6849,7 @@
     </row>
     <row r="51" spans="5:5">
       <c r="E51" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -6981,11 +6957,11 @@
         <v>31</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6995,7 +6971,7 @@
       <c r="B4" s="39"/>
       <c r="C4" s="40"/>
       <c r="D4" s="46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4" s="47"/>
       <c r="F4" s="41"/>
@@ -7007,7 +6983,7 @@
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
       <c r="D5" s="46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" s="47"/>
       <c r="F5" s="41"/>
@@ -7019,7 +6995,7 @@
       <c r="B6" s="39"/>
       <c r="C6" s="42"/>
       <c r="D6" s="46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" s="47"/>
       <c r="F6" s="41"/>
@@ -7031,7 +7007,7 @@
       <c r="B7" s="39"/>
       <c r="C7" s="42"/>
       <c r="D7" s="46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" s="47"/>
       <c r="F7" s="43"/>
@@ -7185,7 +7161,7 @@
       <c r="D22" s="39"/>
       <c r="E22" s="48"/>
       <c r="F22" s="43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" ht="66" customHeight="1" spans="1:6">
@@ -7463,14 +7439,14 @@
         <v>5</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" ht="84" spans="1:6">
@@ -7481,10 +7457,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="41"/>
@@ -7497,14 +7473,14 @@
         <v>5</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" ht="70" spans="1:6">
@@ -7515,10 +7491,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="41"/>
@@ -7531,7 +7507,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D7" s="46"/>
       <c r="E7" s="47"/>
@@ -7545,10 +7521,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="43"/>
@@ -7561,14 +7537,14 @@
         <v>5</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" ht="84" spans="1:6">
@@ -7579,10 +7555,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="43"/>
@@ -7595,10 +7571,10 @@
         <v>5</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="43"/>
@@ -7611,10 +7587,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="43"/>
@@ -7627,10 +7603,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="43"/>
@@ -7643,10 +7619,10 @@
         <v>5</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E14" s="51"/>
       <c r="F14" s="43"/>
@@ -7659,10 +7635,10 @@
         <v>5</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E15" s="47"/>
       <c r="F15" s="43"/>
@@ -7675,10 +7651,10 @@
         <v>5</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="43"/>
@@ -7691,10 +7667,10 @@
         <v>5</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E17" s="51"/>
       <c r="F17" s="41"/>
@@ -7707,10 +7683,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E18" s="47"/>
       <c r="F18" s="41"/>
@@ -7723,10 +7699,10 @@
         <v>5</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E19" s="47"/>
       <c r="F19" s="41"/>
@@ -7739,10 +7715,10 @@
         <v>5</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E20" s="47"/>
       <c r="F20" s="41"/>
@@ -7755,10 +7731,10 @@
         <v>5</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E21" s="47"/>
       <c r="F21" s="43"/>
@@ -7771,10 +7747,10 @@
         <v>5</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E22" s="47"/>
       <c r="F22" s="43"/>
@@ -7787,14 +7763,14 @@
         <v>5</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E23" s="47"/>
       <c r="F23" s="41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" ht="84" spans="1:6">
@@ -7805,10 +7781,10 @@
         <v>5</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E24" s="47"/>
       <c r="F24" s="43"/>
@@ -7821,10 +7797,10 @@
         <v>5</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E25" s="47"/>
       <c r="F25" s="43"/>
@@ -7837,14 +7813,14 @@
         <v>5</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E26" s="47"/>
       <c r="F26" s="43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7927,7 +7903,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -8048,7 +8024,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -8067,10 +8043,10 @@
         <v>30</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>4</v>
@@ -8084,13 +8060,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F3" s="41"/>
     </row>
@@ -8102,13 +8078,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F4" s="41"/>
     </row>
@@ -8120,13 +8096,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F5" s="41"/>
     </row>
@@ -8138,13 +8114,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F6" s="41"/>
     </row>
@@ -8156,13 +8132,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F7" s="43"/>
     </row>
@@ -8174,13 +8150,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F8" s="43"/>
     </row>
@@ -8192,13 +8168,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F9" s="43"/>
     </row>
@@ -8210,13 +8186,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F10" s="43"/>
     </row>
@@ -8228,13 +8204,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F11" s="43"/>
     </row>
@@ -8246,13 +8222,13 @@
         <v>5</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F12" s="43"/>
     </row>
@@ -8264,13 +8240,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F13" s="43"/>
     </row>
@@ -8282,13 +8258,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F14" s="43"/>
     </row>
@@ -8300,13 +8276,13 @@
         <v>5</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F15" s="43"/>
     </row>
@@ -8318,13 +8294,13 @@
         <v>5</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F16" s="43"/>
     </row>
@@ -8336,13 +8312,13 @@
         <v>5</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F17" s="41"/>
     </row>
@@ -8354,13 +8330,13 @@
         <v>5</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F18" s="41"/>
     </row>
@@ -8372,13 +8348,13 @@
         <v>5</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F19" s="41"/>
     </row>
@@ -8390,13 +8366,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F20" s="41"/>
     </row>
@@ -8408,13 +8384,13 @@
         <v>5</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F21" s="43"/>
     </row>
@@ -8426,13 +8402,13 @@
         <v>5</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F22" s="43"/>
     </row>
@@ -8444,13 +8420,13 @@
         <v>5</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F23" s="43"/>
     </row>
@@ -8462,13 +8438,13 @@
         <v>5</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F24" s="43"/>
     </row>
@@ -8480,13 +8456,13 @@
         <v>5</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F25" s="43"/>
     </row>
@@ -8498,31 +8474,31 @@
         <v>5</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F26" s="43"/>
     </row>
     <row r="27" ht="84" spans="1:6">
       <c r="A27" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B27" s="39" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F27" s="43"/>
     </row>
@@ -8534,13 +8510,13 @@
         <v>5</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F28" s="43"/>
     </row>
@@ -8552,13 +8528,13 @@
         <v>5</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F29" s="43"/>
     </row>
@@ -8570,13 +8546,13 @@
         <v>5</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F30" s="43"/>
     </row>
@@ -8588,13 +8564,13 @@
         <v>5</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F31" s="43"/>
     </row>
@@ -8606,19 +8582,19 @@
         <v>5</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F32" s="43"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -8705,7 +8681,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -8724,10 +8700,10 @@
         <v>30</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>4</v>
@@ -8738,16 +8714,16 @@
         <v>45566</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -8756,19 +8732,19 @@
         <v>45567</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" ht="70" spans="1:6">
@@ -8779,13 +8755,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -8797,13 +8773,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F6" s="8"/>
     </row>
@@ -8815,13 +8791,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -8833,13 +8809,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -8851,10 +8827,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="8"/>
@@ -8867,10 +8843,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="8"/>
@@ -8883,10 +8859,10 @@
         <v>5</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="8"/>
@@ -8899,10 +8875,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="8"/>
@@ -8915,13 +8891,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -8933,13 +8909,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -8951,13 +8927,13 @@
         <v>5</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -8969,13 +8945,13 @@
         <v>5</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -8987,13 +8963,13 @@
         <v>5</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -9005,13 +8981,13 @@
         <v>5</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -9023,13 +8999,13 @@
         <v>5</v>
       </c>
       <c r="C19" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="D19" s="33" t="s">
-        <v>143</v>
-      </c>
       <c r="E19" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -9041,13 +9017,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="D20" s="33" t="s">
-        <v>143</v>
-      </c>
       <c r="E20" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -9059,13 +9035,13 @@
         <v>5</v>
       </c>
       <c r="C21" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="33" t="s">
-        <v>143</v>
-      </c>
       <c r="E21" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -9077,13 +9053,13 @@
         <v>5</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -9095,13 +9071,13 @@
         <v>5</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -9113,13 +9089,13 @@
         <v>5</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -9131,13 +9107,13 @@
         <v>5</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -9149,13 +9125,13 @@
         <v>5</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -9167,13 +9143,13 @@
         <v>5</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -9185,13 +9161,13 @@
         <v>5</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -9203,13 +9179,13 @@
         <v>5</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -9221,13 +9197,13 @@
         <v>5</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -9239,13 +9215,13 @@
         <v>5</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -9257,13 +9233,13 @@
         <v>5</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -9275,13 +9251,13 @@
         <v>5</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F33" s="14"/>
     </row>
@@ -9293,19 +9269,19 @@
         <v>5</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -9392,7 +9368,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -9411,10 +9387,10 @@
         <v>30</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>4</v>
@@ -9428,13 +9404,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -9446,13 +9422,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F4" s="11"/>
     </row>
@@ -9464,13 +9440,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>158</v>
-      </c>
       <c r="E5" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -9482,16 +9458,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="35" t="s">
-        <v>158</v>
-      </c>
       <c r="E6" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" ht="56" spans="1:6">
@@ -9502,16 +9478,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="35" t="s">
-        <v>158</v>
-      </c>
       <c r="E7" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" ht="56" spans="1:6">
@@ -9522,16 +9498,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D8" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" ht="70" spans="1:6">
@@ -9539,19 +9515,19 @@
         <v>45542</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" ht="70" spans="1:6">
@@ -9562,16 +9538,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="11" ht="56" spans="1:6">
@@ -9582,16 +9558,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" ht="56" spans="1:6">
@@ -9602,16 +9578,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" ht="56" spans="1:6">
@@ -9622,16 +9598,16 @@
         <v>5</v>
       </c>
       <c r="C13" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>174</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="14" ht="56" spans="1:6">
@@ -9642,16 +9618,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>174</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="15" ht="56" spans="1:6">
@@ -9659,16 +9635,16 @@
         <v>45548</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -9680,13 +9656,13 @@
         <v>5</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -9698,13 +9674,13 @@
         <v>5</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -9716,13 +9692,13 @@
         <v>5</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -9734,13 +9710,13 @@
         <v>5</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -9749,16 +9725,16 @@
         <v>45553</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -9767,16 +9743,16 @@
         <v>45554</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -9785,16 +9761,16 @@
         <v>45555</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -9803,16 +9779,16 @@
         <v>45556</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -9824,13 +9800,13 @@
         <v>5</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -9842,13 +9818,13 @@
         <v>5</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -9860,13 +9836,13 @@
         <v>5</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -9878,13 +9854,13 @@
         <v>5</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -9896,13 +9872,13 @@
         <v>5</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -9914,13 +9890,13 @@
         <v>5</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -9932,13 +9908,13 @@
         <v>5</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -9950,13 +9926,13 @@
         <v>5</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -9968,13 +9944,13 @@
         <v>5</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -10065,7 +10041,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:6">
       <c r="A1" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -10084,10 +10060,10 @@
         <v>30</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>4</v>
@@ -10107,10 +10083,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -10127,10 +10103,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>217</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:6">
@@ -10147,10 +10123,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10167,10 +10143,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10188,7 +10164,7 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10206,7 +10182,7 @@
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -10223,10 +10199,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -10244,7 +10220,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -10262,7 +10238,7 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:6">
@@ -10279,10 +10255,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" ht="42" spans="1:6">
@@ -10299,10 +10275,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" ht="42" spans="1:6">
@@ -10319,10 +10295,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" ht="42" spans="1:6">
@@ -10339,10 +10315,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" ht="42" spans="1:6">
@@ -10359,10 +10335,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" ht="42" spans="1:6">
@@ -10379,10 +10355,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -10399,10 +10375,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" ht="42" spans="1:6">
@@ -10419,10 +10395,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>228</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="20" ht="42" spans="1:6">
@@ -10439,10 +10415,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" ht="42" spans="1:6">
@@ -10459,10 +10435,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" ht="42" spans="1:6">
@@ -10479,10 +10455,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" ht="42" spans="1:6">
@@ -10499,10 +10475,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" ht="42" spans="1:6">
@@ -10519,10 +10495,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" ht="42" spans="1:6">
@@ -10539,10 +10515,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" ht="42" spans="1:6">
@@ -10559,10 +10535,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>232</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="27" ht="42" spans="1:6">
@@ -10579,7 +10555,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -10597,7 +10573,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -10615,7 +10591,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -10633,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -10651,7 +10627,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -10669,7 +10645,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -10687,13 +10663,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -10782,7 +10758,7 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10794,25 +10770,25 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>4</v>
@@ -10926,7 +10902,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -10950,7 +10926,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H8" s="8"/>
     </row>
@@ -11018,7 +10994,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H11" s="10"/>
     </row>
@@ -11064,7 +11040,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H13" s="8"/>
     </row>
@@ -11088,7 +11064,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H14" s="8"/>
     </row>
@@ -11112,7 +11088,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H15" s="8"/>
     </row>
@@ -11136,7 +11112,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H16" s="8"/>
     </row>
@@ -11182,7 +11158,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -11250,7 +11226,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H21" s="8"/>
     </row>
@@ -11274,7 +11250,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H22" s="8"/>
     </row>
@@ -11298,7 +11274,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H23" s="8"/>
     </row>
@@ -11343,7 +11319,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H25" s="8"/>
     </row>
@@ -11367,7 +11343,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H26" s="8"/>
     </row>
@@ -11391,7 +11367,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H27" s="8"/>
     </row>
@@ -11412,7 +11388,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -11434,10 +11410,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H29" s="8"/>
     </row>
@@ -11458,7 +11434,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -11541,7 +11517,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>

--- a/00-doc/src/00_todo/00_todo.xlsx
+++ b/00-doc/src/00_todo/00_todo.xlsx
@@ -5277,7 +5277,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
